--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4986840B-D49F-47C1-B78F-895531F23A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ACD204-816B-4631-8456-563378D83207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="136">
   <si>
     <t>Fecha</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t>Espejo</t>
+  </si>
+  <si>
+    <t>Escaleras y flores</t>
+  </si>
+  <si>
+    <t>Bolombolo</t>
   </si>
 </sst>
 </file>
@@ -501,13 +507,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
       <fill>
@@ -515,23 +531,6 @@
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3550,7 +3549,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3689,7 +3688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3823,17 +3822,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I106" totalsRowShown="0">
-  <autoFilter ref="A1:I106" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I102">
-    <sortCondition ref="A1:A102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I107" totalsRowShown="0">
+  <autoFilter ref="A1:I107" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
+    <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{C5540FC1-FFBC-4043-8560-7C40AF01B303}" name="Técnica"/>
     <tableColumn id="6" xr3:uid="{028CF8C9-3831-4A85-B60A-3869A589E2E2}" name="Colección"/>
     <tableColumn id="7" xr3:uid="{425AF2BF-72F5-40B1-8952-85F69837C10B}" name="Temática"/>
@@ -4106,10 +4105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4396,32 +4395,30 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44558</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44564</v>
+        <v>44558</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
@@ -4429,26 +4426,23 @@
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44567</v>
+        <v>44564</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
         <v>110</v>
@@ -4456,10 +4450,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>44575</v>
+        <v>44567</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -4467,7 +4461,10 @@
         <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>121</v>
       </c>
       <c r="H17" t="s">
         <v>110</v>
@@ -4475,68 +4472,68 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>44576</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>44582</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>44585</v>
+        <v>44582</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
@@ -4544,75 +4541,75 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" t="s">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>44593</v>
+        <v>44590</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -4623,205 +4620,202 @@
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>44597</v>
+        <v>44595</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>44604</v>
+        <v>44600</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" t="s">
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>44614</v>
+        <v>44604</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>44630</v>
+        <v>44614</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>44647</v>
+        <v>44630</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>44650</v>
+        <v>44647</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>44653</v>
+        <v>44650</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" t="s">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>44664</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>44653</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44680</v>
+        <v>44664</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
-      <c r="G35" t="s">
-        <v>126</v>
-      </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>44681</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>44680</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1" t="s">
@@ -4839,18 +4833,21 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>44689</v>
+        <v>44681</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="1"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
       </c>
       <c r="H37" t="s">
         <v>110</v>
@@ -4858,112 +4855,111 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>44693</v>
+        <v>44686</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>44697</v>
+        <v>44689</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" t="s">
         <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44698</v>
+        <v>44693</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="1"/>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="I40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>44697</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="1" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44703</v>
+        <v>44698</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="1"/>
       <c r="F42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44705</v>
+        <v>44702</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
@@ -4972,63 +4968,59 @@
         <v>126</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44709</v>
+        <v>44703</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" t="s">
         <v>5</v>
       </c>
-      <c r="G44" t="s">
-        <v>126</v>
-      </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44713</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>44705</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
       </c>
       <c r="H45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44727</v>
+        <v>44709</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
       <c r="E46" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
@@ -5042,114 +5034,118 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44728</v>
+        <v>44713</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44731</v>
+        <v>44727</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>126</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44734</v>
+        <v>44728</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="1"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F49" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>126</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44738</v>
+        <v>44731</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D50" s="7"/>
-      <c r="E50" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44740</v>
+        <v>44734</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="s">
         <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44745</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>44738</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
       <c r="E52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -5158,36 +5154,33 @@
         <v>126</v>
       </c>
       <c r="H52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>44740</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
       <c r="E53" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
       <c r="E54" s="1" t="s">
@@ -5200,18 +5193,18 @@
         <v>126</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44753</v>
+        <v>44746</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
       <c r="E55" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -5225,13 +5218,15 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44758</v>
-      </c>
-      <c r="B56" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
       <c r="E56" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s">
         <v>5</v>
@@ -5240,18 +5235,18 @@
         <v>126</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44760</v>
+        <v>44753</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
       <c r="E57" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
         <v>5</v>
@@ -5260,94 +5255,100 @@
         <v>126</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44770</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>44758</v>
+      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
       <c r="E58" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44760</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F59" t="s">
         <v>5</v>
       </c>
+      <c r="G59" t="s">
+        <v>126</v>
+      </c>
       <c r="H59" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>44770</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="5"/>
+        <v>44782</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E61" s="1"/>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44784</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="1"/>
       <c r="F62" t="s">
         <v>5</v>
       </c>
@@ -5355,23 +5356,21 @@
         <v>126</v>
       </c>
       <c r="H62" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44801</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>44790</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="1"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H63" t="s">
         <v>110</v>
@@ -5379,16 +5378,11 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="1"/>
+        <v>44793</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F64" t="s">
         <v>5</v>
       </c>
@@ -5396,24 +5390,23 @@
         <v>126</v>
       </c>
       <c r="H64" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44814</v>
-      </c>
-      <c r="B65" s="1"/>
+        <v>44801</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D65" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="H65" t="s">
         <v>110</v>
@@ -5421,14 +5414,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44815</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="5"/>
+        <v>44808</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D66" s="7"/>
-      <c r="E66" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E66" s="1"/>
       <c r="F66" t="s">
         <v>5</v>
       </c>
@@ -5441,13 +5436,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
       <c r="E67" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
         <v>5</v>
@@ -5456,26 +5451,24 @@
         <v>126</v>
       </c>
       <c r="H67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44822</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>44815</v>
+      </c>
+      <c r="B68" s="1"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="1"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H68" t="s">
         <v>111</v>
@@ -5483,48 +5476,52 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44821</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F69" t="s">
         <v>5</v>
       </c>
+      <c r="G69" t="s">
+        <v>126</v>
+      </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44824</v>
+        <v>44822</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="7"/>
       <c r="E70" s="1"/>
       <c r="F70" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>121</v>
       </c>
       <c r="H70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44825</v>
+        <v>44823</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>37</v>
@@ -5535,24 +5532,23 @@
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="5"/>
+        <v>44824</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D72" s="7"/>
-      <c r="E72" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E72" s="1"/>
       <c r="F72" t="s">
         <v>5</v>
-      </c>
-      <c r="G72" t="s">
-        <v>126</v>
       </c>
       <c r="H72" t="s">
         <v>110</v>
@@ -5560,68 +5556,69 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="5"/>
+        <v>44825</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E73" s="1"/>
       <c r="F73" t="s">
         <v>5</v>
       </c>
-      <c r="G73" t="s">
-        <v>126</v>
-      </c>
       <c r="H73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44831</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="1"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>126</v>
       </c>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44833</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>44827</v>
+      </c>
+      <c r="B75" s="1"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="1"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>126</v>
       </c>
       <c r="H75" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44834</v>
+        <v>44831</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="7" t="s">
@@ -5629,76 +5626,73 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B77" s="1"/>
+        <v>44833</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44840</v>
+        <v>44834</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="7"/>
       <c r="E78" s="1"/>
       <c r="F78" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44843</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B79" s="1"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
       <c r="E79" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
         <v>5</v>
       </c>
-      <c r="G79" t="s">
-        <v>126</v>
-      </c>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44845</v>
+        <v>44840</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>37</v>
@@ -5709,81 +5703,84 @@
         <v>4</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44850</v>
+        <v>44843</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C81" s="5"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>126</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="5"/>
+        <v>44845</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E82" s="1"/>
       <c r="F82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44856</v>
+        <v>44850</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D83" s="7"/>
-      <c r="E83" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44858</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" s="1"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>126</v>
       </c>
       <c r="H84" t="s">
         <v>111</v>
@@ -5791,56 +5788,53 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44864</v>
+        <v>44856</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
       <c r="E85" s="1" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
-      <c r="G85" t="s">
-        <v>126</v>
-      </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44869</v>
+        <v>44858</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D86" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44877</v>
+        <v>44864</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
       <c r="E87" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F87" t="s">
         <v>5</v>
@@ -5849,15 +5843,15 @@
         <v>126</v>
       </c>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44878</v>
+        <v>44869</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -5867,19 +5861,16 @@
       <c r="F88" t="s">
         <v>5</v>
       </c>
-      <c r="G88" t="s">
-        <v>126</v>
-      </c>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44879</v>
+        <v>44877</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -5898,48 +5889,54 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44896</v>
+        <v>44878</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="1"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F90" t="s">
         <v>5</v>
       </c>
+      <c r="G90" t="s">
+        <v>126</v>
+      </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44912</v>
+        <v>44879</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C91" s="5"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F91" t="s">
         <v>5</v>
       </c>
+      <c r="G91" t="s">
+        <v>126</v>
+      </c>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44918</v>
+        <v>44896</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="7" t="s">
@@ -5950,103 +5947,99 @@
         <v>5</v>
       </c>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44920</v>
+        <v>44903</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="7"/>
       <c r="E93" s="1"/>
-      <c r="F93" t="s">
-        <v>7</v>
-      </c>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44922</v>
+        <v>44912</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E94" s="1"/>
       <c r="F94" t="s">
         <v>5</v>
       </c>
-      <c r="G94" t="s">
-        <v>126</v>
-      </c>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44924</v>
+        <v>44918</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44928</v>
+        <v>44920</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D96" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>44922</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="5"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F97" t="s">
         <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
       </c>
       <c r="H97" t="s">
         <v>110</v>
@@ -6054,54 +6047,57 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44932</v>
+        <v>44924</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="1"/>
       <c r="F98" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44937</v>
+        <v>44928</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C99" s="5"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F99" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
       </c>
       <c r="H99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44930</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="1"/>
       <c r="F100" t="s">
         <v>5</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
       </c>
       <c r="H100" t="s">
         <v>110</v>
@@ -6109,13 +6105,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44942</v>
+        <v>44932</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="1"/>
@@ -6123,18 +6119,18 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44943</v>
+        <v>44937</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="1"/>
@@ -6142,23 +6138,21 @@
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44945</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F103" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>126</v>
       </c>
       <c r="H103" t="s">
         <v>110</v>
@@ -6166,59 +6160,83 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44686</v>
+        <v>44942</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C104" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D104" s="7"/>
-      <c r="E104" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E104" s="1"/>
       <c r="F104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44903</v>
+        <v>44943</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="1"/>
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
       <c r="H105" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B106" s="1"/>
+        <v>44945</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C106" s="5"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="D106" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="1"/>
       <c r="F106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>44947</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ACD204-816B-4631-8456-563378D83207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7621FD-79D2-4DC4-92E9-60EBDBBE651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="137">
   <si>
     <t>Fecha</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>Bolombolo</t>
+  </si>
+  <si>
+    <t>Fondo de Ciudad</t>
   </si>
 </sst>
 </file>
@@ -3549,7 +3552,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3688,7 +3691,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3822,8 +3825,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I107" totalsRowShown="0">
-  <autoFilter ref="A1:I107" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I108" totalsRowShown="0">
+  <autoFilter ref="A1:I108" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
@@ -4105,10 +4108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6232,6 +6235,25 @@
       </c>
       <c r="H107" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7621FD-79D2-4DC4-92E9-60EBDBBE651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48232C97-15C7-4816-B846-9701308B7B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="138">
   <si>
     <t>Fecha</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Fondo de Ciudad</t>
+  </si>
+  <si>
+    <t>Astronauta Muerto</t>
   </si>
 </sst>
 </file>
@@ -3825,8 +3828,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I108" totalsRowShown="0">
-  <autoFilter ref="A1:I108" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I109" totalsRowShown="0">
+  <autoFilter ref="A1:I109" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
@@ -4108,10 +4111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6254,6 +6257,25 @@
       </c>
       <c r="H108" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="H109" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48232C97-15C7-4816-B846-9701308B7B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A2795-FC26-4757-80EA-E1BC5C261FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="142">
   <si>
     <t>Fecha</t>
   </si>
@@ -454,6 +454,18 @@
   </si>
   <si>
     <t>Astronauta Muerto</t>
+  </si>
+  <si>
+    <t>Cascada</t>
+  </si>
+  <si>
+    <t>Barbosa</t>
+  </si>
+  <si>
+    <t>Alimentando Peces</t>
+  </si>
+  <si>
+    <t>Barco Nocturno</t>
   </si>
 </sst>
 </file>
@@ -3828,8 +3840,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I109" totalsRowShown="0">
-  <autoFilter ref="A1:I109" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I112" totalsRowShown="0">
+  <autoFilter ref="A1:I112" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
@@ -4111,10 +4123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:B109"/>
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6275,6 +6287,63 @@
         <v>5</v>
       </c>
       <c r="H109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>44961</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>44962</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="1"/>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" t="s">
         <v>111</v>
       </c>
     </row>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A2795-FC26-4757-80EA-E1BC5C261FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8968F6F-B335-4E73-8CC9-ED71C92F152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="143">
   <si>
     <t>Fecha</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>Barco Nocturno</t>
+  </si>
+  <si>
+    <t>Plaza de Botero</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +3570,141 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3705,143 +3842,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I112" totalsRowShown="0">
-  <autoFilter ref="A1:I112" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I113" totalsRowShown="0">
+  <autoFilter ref="A1:I113" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
@@ -4123,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6305,6 +6308,9 @@
       <c r="F110" t="s">
         <v>5</v>
       </c>
+      <c r="G110" t="s">
+        <v>126</v>
+      </c>
       <c r="H110" t="s">
         <v>110</v>
       </c>
@@ -6324,6 +6330,9 @@
       <c r="F111" t="s">
         <v>5</v>
       </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
       <c r="H111" t="s">
         <v>110</v>
       </c>
@@ -6344,6 +6353,28 @@
         <v>7</v>
       </c>
       <c r="H112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>44982</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>126</v>
+      </c>
+      <c r="H113" t="s">
         <v>111</v>
       </c>
     </row>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8968F6F-B335-4E73-8CC9-ED71C92F152E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5F7D78-5702-4D2B-A45A-957B5913A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="150">
   <si>
     <t>Fecha</t>
   </si>
@@ -469,6 +469,27 @@
   </si>
   <si>
     <t>Plaza de Botero</t>
+  </si>
+  <si>
+    <t>Atardecer</t>
+  </si>
+  <si>
+    <t>William Storck</t>
+  </si>
+  <si>
+    <t>James Gale Tyler</t>
+  </si>
+  <si>
+    <t>Kim English</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Cometa</t>
+  </si>
+  <si>
+    <t>Fradis Art</t>
   </si>
 </sst>
 </file>
@@ -530,6 +551,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -545,13 +573,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3570,7 +3591,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3704,7 +3725,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3843,17 +3864,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I113" totalsRowShown="0">
-  <autoFilter ref="A1:I113" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I115" totalsRowShown="0">
+  <autoFilter ref="A1:I115" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{C5540FC1-FFBC-4043-8560-7C40AF01B303}" name="Técnica"/>
     <tableColumn id="6" xr3:uid="{028CF8C9-3831-4A85-B60A-3869A589E2E2}" name="Colección"/>
     <tableColumn id="7" xr3:uid="{425AF2BF-72F5-40B1-8952-85F69837C10B}" name="Temática"/>
@@ -4126,10 +4147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5757,7 +5778,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="1"/>
@@ -5983,6 +6004,9 @@
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="1"/>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
       <c r="H93" t="s">
         <v>114</v>
       </c>
@@ -6132,7 +6156,7 @@
         <v>106</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="1"/>
@@ -6345,7 +6369,7 @@
         <v>141</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="1"/>
@@ -6378,9 +6402,44 @@
         <v>111</v>
       </c>
     </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="1"/>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="1"/>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D113 D115:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5F7D78-5702-4D2B-A45A-957B5913A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F3FD7B-4900-40AC-BAC6-6044F0289240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="155">
   <si>
     <t>Fecha</t>
   </si>
@@ -490,6 +490,21 @@
   </si>
   <si>
     <t>Fradis Art</t>
+  </si>
+  <si>
+    <t>Guerrera</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Ciudad del Río</t>
+  </si>
+  <si>
+    <t>Motorratón</t>
+  </si>
+  <si>
+    <t>Jardín</t>
   </si>
 </sst>
 </file>
@@ -3591,7 +3606,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3725,7 +3740,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3864,8 +3879,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I115" totalsRowShown="0">
-  <autoFilter ref="A1:I115" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I118" totalsRowShown="0">
+  <autoFilter ref="A1:I118" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
@@ -4147,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6407,7 +6422,7 @@
         <v>44987</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>149</v>
@@ -6422,6 +6437,9 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>45001</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>143</v>
       </c>
@@ -6435,6 +6453,63 @@
       </c>
       <c r="H115" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F3FD7B-4900-40AC-BAC6-6044F0289240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ABE20C-5D49-4389-8C01-1BC34CC08F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="157">
   <si>
     <t>Fecha</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>Jardín</t>
+  </si>
+  <si>
+    <t>Monserrate</t>
+  </si>
+  <si>
+    <t>Song Xinru</t>
   </si>
 </sst>
 </file>
@@ -566,13 +572,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -588,6 +587,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3879,17 +3885,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I118" totalsRowShown="0">
-  <autoFilter ref="A1:I118" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I119" totalsRowShown="0">
+  <autoFilter ref="A1:I119" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{C5540FC1-FFBC-4043-8560-7C40AF01B303}" name="Técnica"/>
     <tableColumn id="6" xr3:uid="{028CF8C9-3831-4A85-B60A-3869A589E2E2}" name="Colección"/>
     <tableColumn id="7" xr3:uid="{425AF2BF-72F5-40B1-8952-85F69837C10B}" name="Temática"/>
@@ -4162,10 +4168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6512,9 +6518,28 @@
         <v>111</v>
       </c>
     </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="1"/>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D113 D115:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ABE20C-5D49-4389-8C01-1BC34CC08F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCEE1F5-CA2C-4255-947A-D45BB45BCED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="159">
   <si>
     <t>Fecha</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t>Song Xinru</t>
+  </si>
+  <si>
+    <t>Aeropuerto</t>
+  </si>
+  <si>
+    <t>Viva</t>
   </si>
 </sst>
 </file>
@@ -572,6 +578,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -587,13 +600,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3885,17 +3891,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I119" totalsRowShown="0">
-  <autoFilter ref="A1:I119" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I121" totalsRowShown="0">
+  <autoFilter ref="A1:I121" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{C5540FC1-FFBC-4043-8560-7C40AF01B303}" name="Técnica"/>
     <tableColumn id="6" xr3:uid="{028CF8C9-3831-4A85-B60A-3869A589E2E2}" name="Colección"/>
     <tableColumn id="7" xr3:uid="{425AF2BF-72F5-40B1-8952-85F69837C10B}" name="Temática"/>
@@ -4168,10 +4174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6537,9 +6543,50 @@
         <v>110</v>
       </c>
     </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>126</v>
+      </c>
+      <c r="H120" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>45011</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D113 D115:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCEE1F5-CA2C-4255-947A-D45BB45BCED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F004582A-A0BE-4FE5-92A3-858ED004B882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="161">
   <si>
     <t>Fecha</t>
   </si>
@@ -517,6 +517,12 @@
   </si>
   <si>
     <t>Viva</t>
+  </si>
+  <si>
+    <t>Energy Living</t>
+  </si>
+  <si>
+    <t>Sketchers</t>
   </si>
 </sst>
 </file>
@@ -3891,8 +3897,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I121" totalsRowShown="0">
-  <autoFilter ref="A1:I121" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I123" totalsRowShown="0">
+  <autoFilter ref="A1:I123" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
@@ -4174,10 +4180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6551,9 +6557,7 @@
         <v>157</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="D120" s="7"/>
       <c r="E120" s="1"/>
       <c r="F120" t="s">
         <v>5</v>
@@ -6573,14 +6577,49 @@
         <v>158</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="D121" s="7"/>
       <c r="E121" s="1"/>
       <c r="F121" t="s">
         <v>5</v>
       </c>
       <c r="H121" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="1"/>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>126</v>
+      </c>
+      <c r="H122" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="1"/>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123" t="s">
         <v>110</v>
       </c>
     </row>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F004582A-A0BE-4FE5-92A3-858ED004B882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A1993-8AF9-40B8-AC3D-3F976AEF6598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="169">
   <si>
     <t>Fecha</t>
   </si>
@@ -523,6 +523,30 @@
   </si>
   <si>
     <t>Sketchers</t>
+  </si>
+  <si>
+    <t>Juanse</t>
+  </si>
+  <si>
+    <t>Mari Reyes</t>
+  </si>
+  <si>
+    <t>Nader</t>
+  </si>
+  <si>
+    <t>Tom Cobley</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Artem</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>El Poblado</t>
   </si>
 </sst>
 </file>
@@ -584,13 +608,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -606,6 +623,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3897,17 +3921,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I123" totalsRowShown="0">
-  <autoFilter ref="A1:I123" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I124" totalsRowShown="0">
+  <autoFilter ref="A1:I124" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{C5540FC1-FFBC-4043-8560-7C40AF01B303}" name="Técnica"/>
     <tableColumn id="6" xr3:uid="{028CF8C9-3831-4A85-B60A-3869A589E2E2}" name="Colección"/>
     <tableColumn id="7" xr3:uid="{425AF2BF-72F5-40B1-8952-85F69837C10B}" name="Temática"/>
@@ -4180,22 +4204,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4659,6 +4684,9 @@
       <c r="H23" t="s">
         <v>110</v>
       </c>
+      <c r="I23" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -5468,7 +5496,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44801</v>
       </c>
@@ -5487,7 +5515,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44808</v>
       </c>
@@ -5509,7 +5537,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44814</v>
       </c>
@@ -5529,7 +5557,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44815</v>
       </c>
@@ -5549,7 +5577,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44821</v>
       </c>
@@ -5569,7 +5597,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44822</v>
       </c>
@@ -5591,7 +5619,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>44823</v>
       </c>
@@ -5609,8 +5637,11 @@
       <c r="H71" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44824</v>
       </c>
@@ -5628,8 +5659,11 @@
       <c r="H72" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44825</v>
       </c>
@@ -5648,7 +5682,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44826</v>
       </c>
@@ -5668,7 +5702,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44827</v>
       </c>
@@ -5688,7 +5722,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44831</v>
       </c>
@@ -5707,7 +5741,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44833</v>
       </c>
@@ -5726,7 +5760,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44834</v>
       </c>
@@ -5745,7 +5779,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44836</v>
       </c>
@@ -5762,7 +5796,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44840</v>
       </c>
@@ -5780,8 +5814,11 @@
       <c r="H80" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44843</v>
       </c>
@@ -5803,7 +5840,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44845</v>
       </c>
@@ -5822,7 +5859,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44850</v>
       </c>
@@ -5841,7 +5878,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44855</v>
       </c>
@@ -5861,7 +5898,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>44856</v>
       </c>
@@ -5880,7 +5917,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44858</v>
       </c>
@@ -5899,7 +5936,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44864</v>
       </c>
@@ -5921,7 +5958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44869</v>
       </c>
@@ -5940,7 +5977,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44877</v>
       </c>
@@ -5962,7 +5999,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44878</v>
       </c>
@@ -5984,7 +6021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44879</v>
       </c>
@@ -6006,7 +6043,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44896</v>
       </c>
@@ -6025,7 +6062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44903</v>
       </c>
@@ -6043,8 +6080,11 @@
       <c r="H93" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44912</v>
       </c>
@@ -6063,7 +6103,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>44918</v>
       </c>
@@ -6081,8 +6121,11 @@
       <c r="H95" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44920</v>
       </c>
@@ -6101,7 +6144,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44922</v>
       </c>
@@ -6123,7 +6166,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44924</v>
       </c>
@@ -6142,7 +6185,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>44928</v>
       </c>
@@ -6164,7 +6207,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44930</v>
       </c>
@@ -6181,7 +6224,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44932</v>
       </c>
@@ -6199,8 +6242,11 @@
       <c r="H101" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44937</v>
       </c>
@@ -6218,8 +6264,11 @@
       <c r="H102" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>44939</v>
       </c>
@@ -6236,7 +6285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44942</v>
       </c>
@@ -6255,7 +6304,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44943</v>
       </c>
@@ -6274,7 +6323,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44945</v>
       </c>
@@ -6292,8 +6341,11 @@
       <c r="H106" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>44947</v>
       </c>
@@ -6311,8 +6363,11 @@
       <c r="H107" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44955</v>
       </c>
@@ -6331,7 +6386,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44959</v>
       </c>
@@ -6350,7 +6405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>44961</v>
       </c>
@@ -6372,7 +6427,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44962</v>
       </c>
@@ -6394,7 +6449,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44973</v>
       </c>
@@ -6623,9 +6678,31 @@
         <v>110</v>
       </c>
     </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>126</v>
+      </c>
+      <c r="H124" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D113 D115:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A1993-8AF9-40B8-AC3D-3F976AEF6598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90276205-626D-4A3F-809F-050BEC8AC145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="172">
   <si>
     <t>Fecha</t>
   </si>
@@ -547,6 +547,15 @@
   </si>
   <si>
     <t>El Poblado</t>
+  </si>
+  <si>
+    <t>Mar de Hielo</t>
+  </si>
+  <si>
+    <t>Gaspar Friedrich</t>
+  </si>
+  <si>
+    <t>Humberto Chaves</t>
   </si>
 </sst>
 </file>
@@ -608,6 +617,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -623,13 +639,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3921,17 +3930,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I124" totalsRowShown="0">
-  <autoFilter ref="A1:I124" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I126" totalsRowShown="0">
+  <autoFilter ref="A1:I126" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{C5540FC1-FFBC-4043-8560-7C40AF01B303}" name="Técnica"/>
     <tableColumn id="6" xr3:uid="{028CF8C9-3831-4A85-B60A-3869A589E2E2}" name="Colección"/>
     <tableColumn id="7" xr3:uid="{425AF2BF-72F5-40B1-8952-85F69837C10B}" name="Temática"/>
@@ -4204,10 +4213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6468,7 +6477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44982</v>
       </c>
@@ -6490,7 +6499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44987</v>
       </c>
@@ -6509,7 +6518,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45001</v>
       </c>
@@ -6528,7 +6537,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45004</v>
       </c>
@@ -6547,7 +6556,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45005</v>
       </c>
@@ -6566,7 +6575,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45008</v>
       </c>
@@ -6585,7 +6594,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45009</v>
       </c>
@@ -6604,7 +6613,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45010</v>
       </c>
@@ -6624,7 +6633,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45011</v>
       </c>
@@ -6641,7 +6650,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45017</v>
       </c>
@@ -6661,7 +6670,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45018</v>
       </c>
@@ -6678,7 +6687,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45023</v>
       </c>
@@ -6700,9 +6709,48 @@
         <v>110</v>
       </c>
     </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="1"/>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" t="s">
+        <v>110</v>
+      </c>
+      <c r="I125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="1"/>
+      <c r="F126" t="s">
+        <v>4</v>
+      </c>
+      <c r="H126" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D113 D115:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90276205-626D-4A3F-809F-050BEC8AC145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA63530-783E-4CD6-8530-D9DFBF428E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="179">
   <si>
     <t>Fecha</t>
   </si>
@@ -556,6 +556,27 @@
   </si>
   <si>
     <t>Humberto Chaves</t>
+  </si>
+  <si>
+    <t>Casa Pedro Nel</t>
+  </si>
+  <si>
+    <t>Librea Acuarelas 2</t>
+  </si>
+  <si>
+    <t>Campos de Paz</t>
+  </si>
+  <si>
+    <t>Parapentistas</t>
+  </si>
+  <si>
+    <t>Farallones del Citará</t>
+  </si>
+  <si>
+    <t>Escalera</t>
+  </si>
+  <si>
+    <t>The Somos Bold</t>
   </si>
 </sst>
 </file>
@@ -617,13 +638,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -639,6 +653,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3930,17 +3951,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I126" totalsRowShown="0">
-  <autoFilter ref="A1:I126" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I131" totalsRowShown="0">
+  <autoFilter ref="A1:I131" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{C5540FC1-FFBC-4043-8560-7C40AF01B303}" name="Técnica"/>
     <tableColumn id="6" xr3:uid="{028CF8C9-3831-4A85-B60A-3869A589E2E2}" name="Colección"/>
     <tableColumn id="7" xr3:uid="{425AF2BF-72F5-40B1-8952-85F69837C10B}" name="Temática"/>
@@ -4213,9 +4234,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
       <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
@@ -4228,8 +4249,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -6735,7 +6755,9 @@
       <c r="A126" s="2">
         <v>45036</v>
       </c>
-      <c r="B126" s="1"/>
+      <c r="B126" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C126" s="5" t="s">
         <v>171</v>
       </c>
@@ -6748,9 +6770,110 @@
         <v>110</v>
       </c>
     </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>173</v>
+      </c>
+      <c r="H127" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>173</v>
+      </c>
+      <c r="H129" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D113 D115:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA63530-783E-4CD6-8530-D9DFBF428E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E6D73E-0384-4DFF-B45B-634F26B311EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="185">
   <si>
     <t>Fecha</t>
   </si>
@@ -577,6 +577,24 @@
   </si>
   <si>
     <t>The Somos Bold</t>
+  </si>
+  <si>
+    <t>Philosophers Walk</t>
+  </si>
+  <si>
+    <t>Convocation Hall</t>
+  </si>
+  <si>
+    <t>Niagara Falls</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Gloria Vallejo</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -3951,8 +3969,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I131" totalsRowShown="0">
-  <autoFilter ref="A1:I131" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I134" totalsRowShown="0">
+  <autoFilter ref="A1:I134" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
@@ -4234,10 +4252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4249,7 +4267,8 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4387,6 +4406,9 @@
       <c r="H6" t="s">
         <v>111</v>
       </c>
+      <c r="I6" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -6332,6 +6354,9 @@
       <c r="H104" t="s">
         <v>110</v>
       </c>
+      <c r="I104" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
@@ -6351,6 +6376,9 @@
       <c r="H105" t="s">
         <v>110</v>
       </c>
+      <c r="I105" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
@@ -6613,6 +6641,9 @@
       <c r="H118" t="s">
         <v>111</v>
       </c>
+      <c r="I118" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
@@ -6631,6 +6662,9 @@
       </c>
       <c r="H119" t="s">
         <v>110</v>
+      </c>
+      <c r="I119" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6769,6 +6803,9 @@
       <c r="H126" t="s">
         <v>110</v>
       </c>
+      <c r="I126" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
@@ -6811,7 +6848,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>45046</v>
       </c>
@@ -6833,7 +6870,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>45047</v>
       </c>
@@ -6851,8 +6888,11 @@
       <c r="H130" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>45052</v>
       </c>
@@ -6869,6 +6909,75 @@
       </c>
       <c r="H131" t="s">
         <v>119</v>
+      </c>
+      <c r="I131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F132" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>173</v>
+      </c>
+      <c r="H132" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>173</v>
+      </c>
+      <c r="H133" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" t="s">
+        <v>173</v>
+      </c>
+      <c r="H134" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E6D73E-0384-4DFF-B45B-634F26B311EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D5C939-78CE-4217-AFC0-656A047E05B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="204">
   <si>
     <t>Fecha</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Casa Pedro Nel</t>
   </si>
   <si>
-    <t>Librea Acuarelas 2</t>
-  </si>
-  <si>
     <t>Campos de Paz</t>
   </si>
   <si>
@@ -595,6 +592,66 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>St Joseph</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Libreta Acuarelas 2</t>
+  </si>
+  <si>
+    <t>Libreta Acuarelas 4</t>
+  </si>
+  <si>
+    <t>Libreta Acuarelas 5</t>
+  </si>
+  <si>
+    <t>Libreta Acuarelas 6</t>
+  </si>
+  <si>
+    <t>Libreta Acuarelas 7</t>
+  </si>
+  <si>
+    <t>Libreta Acuarelas 8</t>
+  </si>
+  <si>
+    <t>Libreta Acuarelas 9</t>
+  </si>
+  <si>
+    <t>John y Sharon</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>Charles River</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Isabella Stewart</t>
+  </si>
+  <si>
+    <t>Bear Lake</t>
+  </si>
+  <si>
+    <t>Flatirons</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>Union Station</t>
+  </si>
+  <si>
+    <t>Denver</t>
   </si>
 </sst>
 </file>
@@ -604,10 +661,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3969,8 +4032,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I134" totalsRowShown="0">
-  <autoFilter ref="A1:I134" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I141" totalsRowShown="0">
+  <autoFilter ref="A1:I141" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
@@ -4252,10 +4315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4407,7 +4470,7 @@
         <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -6355,7 +6418,7 @@
         <v>110</v>
       </c>
       <c r="I104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -6377,7 +6440,7 @@
         <v>110</v>
       </c>
       <c r="I105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -6642,7 +6705,7 @@
         <v>111</v>
       </c>
       <c r="I118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -6664,7 +6727,7 @@
         <v>110</v>
       </c>
       <c r="I119" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6804,7 +6867,7 @@
         <v>110</v>
       </c>
       <c r="I126" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -6823,7 +6886,7 @@
         <v>5</v>
       </c>
       <c r="G127" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H127" t="s">
         <v>111</v>
@@ -6834,12 +6897,12 @@
         <v>45039</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
       <c r="E128" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -6853,7 +6916,7 @@
         <v>45046</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -6864,7 +6927,7 @@
         <v>5</v>
       </c>
       <c r="G129" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H129" t="s">
         <v>110</v>
@@ -6875,7 +6938,7 @@
         <v>45047</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -6889,7 +6952,7 @@
         <v>110</v>
       </c>
       <c r="I130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -6897,12 +6960,12 @@
         <v>45052</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
       <c r="E131" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F131" t="s">
         <v>5</v>
@@ -6911,7 +6974,7 @@
         <v>119</v>
       </c>
       <c r="I131" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -6919,18 +6982,18 @@
         <v>45056</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
       <c r="E132" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F132" t="s">
         <v>5</v>
       </c>
       <c r="G132" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H132" t="s">
         <v>111</v>
@@ -6941,18 +7004,18 @@
         <v>45058</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
       <c r="E133" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F133" t="s">
         <v>5</v>
       </c>
       <c r="G133" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H133" t="s">
         <v>119</v>
@@ -6963,24 +7026,176 @@
         <v>45059</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
       <c r="E134" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
       <c r="G134" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H134" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F136" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>187</v>
+      </c>
+      <c r="H136" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F137" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>188</v>
+      </c>
+      <c r="H137" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F138" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" t="s">
+        <v>189</v>
+      </c>
+      <c r="H138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F139" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>190</v>
+      </c>
+      <c r="H139" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F140" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>191</v>
+      </c>
+      <c r="H140" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F141" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>192</v>
+      </c>
+      <c r="H141" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D113 D115:D1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"x"</formula>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D5C939-78CE-4217-AFC0-656A047E05B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ABC094-8848-4F71-B9D7-F291F5C42807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="205">
   <si>
     <t>Fecha</t>
   </si>
@@ -603,24 +603,6 @@
     <t>Libreta Acuarelas 2</t>
   </si>
   <si>
-    <t>Libreta Acuarelas 4</t>
-  </si>
-  <si>
-    <t>Libreta Acuarelas 5</t>
-  </si>
-  <si>
-    <t>Libreta Acuarelas 6</t>
-  </si>
-  <si>
-    <t>Libreta Acuarelas 7</t>
-  </si>
-  <si>
-    <t>Libreta Acuarelas 8</t>
-  </si>
-  <si>
-    <t>Libreta Acuarelas 9</t>
-  </si>
-  <si>
     <t>John y Sharon</t>
   </si>
   <si>
@@ -652,6 +634,27 @@
   </si>
   <si>
     <t>Denver</t>
+  </si>
+  <si>
+    <t>Arches National Park</t>
+  </si>
+  <si>
+    <t>Yosemite National Park</t>
+  </si>
+  <si>
+    <t>Grand Canyon National Park</t>
+  </si>
+  <si>
+    <t>Yosemite National Park 2</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
 </sst>
 </file>
@@ -719,6 +722,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -734,13 +744,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3759,141 +3762,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -4031,18 +3900,152 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I141" totalsRowShown="0">
-  <autoFilter ref="A1:I141" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I146" totalsRowShown="0">
+  <autoFilter ref="A1:I146" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{76608A75-85B8-408D-9369-BCFC9E9D7A8A}" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DE856492-D85D-466F-A960-54F03A0A74D6}" name="Inspiración" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8733A214-F4B8-45AB-8117-68932FC446F0}" name="Idea" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{20719C49-147B-4DB6-91D2-A57C1983D59E}" name="Lugar" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{C5540FC1-FFBC-4043-8560-7C40AF01B303}" name="Técnica"/>
     <tableColumn id="6" xr3:uid="{028CF8C9-3831-4A85-B60A-3869A589E2E2}" name="Colección"/>
     <tableColumn id="7" xr3:uid="{425AF2BF-72F5-40B1-8952-85F69837C10B}" name="Temática"/>
@@ -4315,10 +4318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6727,7 +6730,7 @@
         <v>110</v>
       </c>
       <c r="I119" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6867,7 +6870,7 @@
         <v>110</v>
       </c>
       <c r="I126" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7067,18 +7070,18 @@
         <v>45063</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F136" t="s">
         <v>5</v>
       </c>
       <c r="G136" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H136" t="s">
         <v>111</v>
@@ -7089,18 +7092,18 @@
         <v>45065</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
       <c r="G137" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H137" t="s">
         <v>111</v>
@@ -7111,18 +7114,18 @@
         <v>45067</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
       <c r="E138" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
       </c>
       <c r="G138" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H138" t="s">
         <v>110</v>
@@ -7133,18 +7136,18 @@
         <v>45069</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
       <c r="E139" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F139" t="s">
         <v>5</v>
       </c>
       <c r="G139" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H139" t="s">
         <v>110</v>
@@ -7155,18 +7158,18 @@
         <v>45072</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
       <c r="E140" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="G140" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H140" t="s">
         <v>110</v>
@@ -7177,27 +7180,137 @@
         <v>45079</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
       <c r="E141" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F141" t="s">
         <v>5</v>
       </c>
       <c r="G141" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H141" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" t="s">
+        <v>186</v>
+      </c>
+      <c r="H142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F143" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" t="s">
+        <v>186</v>
+      </c>
+      <c r="H143" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F144" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" t="s">
+        <v>186</v>
+      </c>
+      <c r="H144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F145" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>186</v>
+      </c>
+      <c r="H145" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" t="s">
+        <v>186</v>
+      </c>
+      <c r="H146" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D113 D115:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ABC094-8848-4F71-B9D7-F291F5C42807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E3D670-9E33-4D36-88BA-190992E8E829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="211">
   <si>
     <t>Fecha</t>
   </si>
@@ -655,6 +655,24 @@
   </si>
   <si>
     <t>Arizona</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Matterhorn</t>
+  </si>
+  <si>
+    <t>Volcano</t>
+  </si>
+  <si>
+    <t>Jocelyn Carmes</t>
+  </si>
+  <si>
+    <t>Frederic Church</t>
+  </si>
+  <si>
+    <t>Albert Bierstadt</t>
   </si>
 </sst>
 </file>
@@ -3762,7 +3780,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3901,7 +3919,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -4035,8 +4053,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I146" totalsRowShown="0">
-  <autoFilter ref="A1:I146" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I149" totalsRowShown="0">
+  <autoFilter ref="A1:I149" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
     <sortCondition ref="A1:A106"/>
   </sortState>
@@ -4318,10 +4336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7305,6 +7323,63 @@
       </c>
       <c r="H146" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="1"/>
+      <c r="F147" t="s">
+        <v>5</v>
+      </c>
+      <c r="H147" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="1"/>
+      <c r="F148" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="1"/>
+      <c r="F149" t="s">
+        <v>7</v>
+      </c>
+      <c r="H149" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E3D670-9E33-4D36-88BA-190992E8E829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1180A1-FBD4-4253-B2CA-6FC4D9BF3647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="215">
   <si>
     <t>Fecha</t>
   </si>
@@ -673,6 +673,18 @@
   </si>
   <si>
     <t>Albert Bierstadt</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Ángel del Silencio</t>
+  </si>
+  <si>
+    <t>Cementerio San Pedro</t>
+  </si>
+  <si>
+    <t>Casa en llamas</t>
   </si>
 </sst>
 </file>
@@ -3780,6 +3792,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -3918,145 +4064,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I149" totalsRowShown="0">
-  <autoFilter ref="A1:I149" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
-    <sortCondition ref="A1:A106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I151" totalsRowShown="0">
+  <autoFilter ref="A1:I151" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I151">
+    <sortCondition descending="1" ref="A1:A151"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4336,10 +4348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4348,7 +4360,7 @@
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
@@ -4386,87 +4398,75 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44417</v>
+        <v>45170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>44418</v>
+        <v>45150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>44440</v>
+        <v>45148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>44445</v>
+        <v>45139</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>111</v>
@@ -4474,40 +4474,40 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>44446</v>
+        <v>45120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>111</v>
       </c>
-      <c r="I6" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>44462</v>
+        <v>45110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" t="s">
         <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
       </c>
       <c r="H7" t="s">
         <v>111</v>
@@ -4515,303 +4515,342 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>44471</v>
+        <v>45105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>110</v>
       </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>44487</v>
+        <v>45099</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>44495</v>
+        <v>45087</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>45084</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>44519</v>
+        <v>45079</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>44526</v>
+        <v>45072</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
+      <c r="G13" t="s">
+        <v>186</v>
+      </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>45069</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
+      <c r="G14" t="s">
+        <v>186</v>
+      </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>44558</v>
+        <v>45067</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
+      <c r="G15" t="s">
+        <v>186</v>
+      </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>44564</v>
+        <v>45065</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
+      <c r="G16" t="s">
+        <v>186</v>
+      </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>44567</v>
+        <v>45063</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>44575</v>
+        <v>45061</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>44576</v>
+        <v>45059</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>45058</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>186</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>44582</v>
+        <v>45056</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
+      <c r="G21" t="s">
+        <v>186</v>
+      </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>44585</v>
+        <v>45052</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F22" t="s">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>44588</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4820,94 +4859,103 @@
         <v>110</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>44590</v>
+        <v>45046</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
+      <c r="G24" t="s">
+        <v>186</v>
+      </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>44593</v>
+        <v>45039</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>44595</v>
+        <v>45038</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
+      <c r="G26" t="s">
+        <v>186</v>
+      </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>44597</v>
+        <v>45036</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>44600</v>
+        <v>45030</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
@@ -4915,61 +4963,66 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="I28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>44604</v>
+        <v>45023</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>44614</v>
+        <v>45018</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>44630</v>
+        <v>45017</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
       </c>
       <c r="H31" t="s">
         <v>111</v>
@@ -4977,16 +5030,14 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>44647</v>
+        <v>45011</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="F32" t="s">
         <v>5</v>
       </c>
@@ -4996,51 +5047,57 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>44650</v>
+        <v>45010</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" t="s">
         <v>5</v>
       </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>44653</v>
+        <v>45009</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" t="s">
         <v>5</v>
       </c>
       <c r="H34" t="s">
         <v>110</v>
       </c>
+      <c r="I34" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>44664</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>45008</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -5048,156 +5105,163 @@
       <c r="H35" t="s">
         <v>111</v>
       </c>
+      <c r="I35" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>45005</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
-        <v>126</v>
-      </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>44681</v>
+        <v>45004</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>44686</v>
+        <v>45001</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>44689</v>
+        <v>44987</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="1"/>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="I39" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44693</v>
+        <v>44982</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F40" t="s">
         <v>5</v>
       </c>
+      <c r="G40" t="s">
+        <v>126</v>
+      </c>
       <c r="H40" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44697</v>
+        <v>44973</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44698</v>
+        <v>44962</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>44961</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="1" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
@@ -5206,43 +5270,42 @@
         <v>126</v>
       </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44703</v>
+        <v>44959</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>44955</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="H45" t="s">
         <v>110</v>
@@ -5250,179 +5313,181 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44709</v>
+        <v>44947</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
       <c r="E46" s="1" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
-      </c>
-      <c r="G46" t="s">
-        <v>126</v>
       </c>
       <c r="H46" t="s">
         <v>111</v>
       </c>
+      <c r="I46" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44713</v>
+        <v>44945</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="I47" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44727</v>
+        <v>44943</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="I48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44728</v>
+        <v>44942</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H49" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44731</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>126</v>
       </c>
       <c r="H50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44734</v>
+        <v>44937</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="1"/>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H51" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44738</v>
+        <v>44932</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E52" s="1"/>
       <c r="F52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H52" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D53" s="7"/>
-      <c r="E53" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="E53" s="1"/>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44745</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>44928</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
       <c r="E54" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
         <v>5</v>
@@ -5434,37 +5499,36 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="5"/>
+        <v>44924</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44747</v>
+        <v>44922</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
       <c r="E56" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
         <v>5</v>
@@ -5473,120 +5537,122 @@
         <v>126</v>
       </c>
       <c r="H56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>44920</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>44753</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44758</v>
-      </c>
-      <c r="B58" s="1"/>
+        <v>44918</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="D58" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" t="s">
         <v>5</v>
       </c>
-      <c r="G58" t="s">
-        <v>126</v>
-      </c>
       <c r="H58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="5"/>
+        <v>44912</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" t="s">
         <v>5</v>
       </c>
-      <c r="G59" t="s">
-        <v>126</v>
-      </c>
       <c r="H59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44770</v>
+        <v>44903</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="I60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44782</v>
+        <v>44896</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="7"/>
       <c r="E61" s="1"/>
       <c r="F61" t="s">
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>44879</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F62" t="s">
         <v>5</v>
       </c>
@@ -5594,32 +5660,42 @@
         <v>126</v>
       </c>
       <c r="H62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>44878</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
       <c r="E63" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>126</v>
       </c>
       <c r="H63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44793</v>
-      </c>
+        <v>44877</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
         <v>5</v>
@@ -5628,40 +5704,40 @@
         <v>126</v>
       </c>
       <c r="H64" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44801</v>
+        <v>44869</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="1"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44808</v>
+        <v>44864</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C66" s="5"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
@@ -5674,53 +5750,51 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44814</v>
-      </c>
-      <c r="B67" s="1"/>
+        <v>44858</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D67" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44815</v>
-      </c>
-      <c r="B68" s="1"/>
+        <v>44856</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
       <c r="E68" s="1" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
       </c>
-      <c r="G68" t="s">
-        <v>126</v>
-      </c>
       <c r="H68" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44821</v>
+        <v>44855</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
       <c r="E69" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -5734,76 +5808,70 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44822</v>
+        <v>44850</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="7"/>
       <c r="E70" s="1"/>
       <c r="F70" t="s">
         <v>8</v>
       </c>
-      <c r="G70" t="s">
-        <v>121</v>
-      </c>
       <c r="H70" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44823</v>
+        <v>44845</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="1"/>
       <c r="F71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>110</v>
-      </c>
-      <c r="I71" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44824</v>
+        <v>44843</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C72" s="5"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F72" t="s">
         <v>5</v>
       </c>
+      <c r="G72" t="s">
+        <v>126</v>
+      </c>
       <c r="H72" t="s">
-        <v>110</v>
-      </c>
-      <c r="I72" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44825</v>
+        <v>44840</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>37</v>
@@ -5811,58 +5879,57 @@
       <c r="D73" s="7"/>
       <c r="E73" s="1"/>
       <c r="F73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
         <v>111</v>
       </c>
+      <c r="I73" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44826</v>
+        <v>44836</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
       <c r="E74" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
         <v>5</v>
       </c>
-      <c r="G74" t="s">
-        <v>126</v>
-      </c>
       <c r="H74" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B75" s="1"/>
+        <v>44834</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D75" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="1"/>
       <c r="F75" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="H75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="7" t="s">
@@ -5873,15 +5940,15 @@
         <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44833</v>
+        <v>44831</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="7" t="s">
@@ -5892,51 +5959,55 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>44827</v>
+      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="1"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>126</v>
       </c>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44836</v>
+        <v>44826</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
       <c r="E79" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
         <v>5</v>
       </c>
+      <c r="G79" t="s">
+        <v>126</v>
+      </c>
       <c r="H79" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44840</v>
+        <v>44825</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>37</v>
@@ -5944,84 +6015,87 @@
       <c r="D80" s="7"/>
       <c r="E80" s="1"/>
       <c r="F80" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H80" t="s">
         <v>111</v>
       </c>
-      <c r="I80" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44843</v>
+        <v>44824</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D81" s="7"/>
-      <c r="E81" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E81" s="1"/>
       <c r="F81" t="s">
         <v>5</v>
       </c>
-      <c r="G81" t="s">
-        <v>126</v>
-      </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I81" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44845</v>
+        <v>44823</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="1"/>
       <c r="F82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="I82" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44850</v>
+        <v>44822</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" t="s">
         <v>8</v>
       </c>
+      <c r="G83" t="s">
+        <v>121</v>
+      </c>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44855</v>
+        <v>44821</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
       <c r="E84" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
         <v>5</v>
@@ -6035,54 +6109,56 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44856</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>44815</v>
+      </c>
+      <c r="B85" s="1"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
       <c r="E85" s="1" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
+      <c r="G85" t="s">
+        <v>126</v>
+      </c>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44858</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B86" s="1"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="1"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>126</v>
       </c>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44864</v>
+        <v>44808</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D87" s="7"/>
-      <c r="E87" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E87" s="1"/>
       <c r="F87" t="s">
         <v>5</v>
       </c>
@@ -6095,34 +6171,29 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44869</v>
+        <v>44801</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D88" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44877</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="7"/>
+        <v>44793</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
         <v>5</v>
@@ -6131,26 +6202,21 @@
         <v>126</v>
       </c>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44878</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>44790</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
       <c r="E90" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H90" t="s">
         <v>110</v>
@@ -6158,16 +6224,14 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44879</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="5"/>
+        <v>44784</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E91" s="1"/>
       <c r="F91" t="s">
         <v>5</v>
       </c>
@@ -6175,121 +6239,121 @@
         <v>126</v>
       </c>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44896</v>
+        <v>44782</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D92" s="7"/>
       <c r="E92" s="1"/>
       <c r="F92" t="s">
         <v>5</v>
       </c>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44903</v>
+        <v>44770</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C93" s="5"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>121</v>
       </c>
       <c r="H93" t="s">
-        <v>114</v>
-      </c>
-      <c r="I93" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44912</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>44760</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F94" t="s">
         <v>5</v>
       </c>
+      <c r="G94" t="s">
+        <v>126</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44918</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>44758</v>
+      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" s="1"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F95" t="s">
         <v>5</v>
       </c>
+      <c r="G95" t="s">
+        <v>126</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-      <c r="I95" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44920</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="1"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
       </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44922</v>
+        <v>44747</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
       <c r="E97" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F97" t="s">
         <v>5</v>
@@ -6298,39 +6362,38 @@
         <v>126</v>
       </c>
       <c r="H97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
+      </c>
+      <c r="H98" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>44924</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="1"/>
-      <c r="F98" t="s">
-        <v>6</v>
-      </c>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
       <c r="E99" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F99" t="s">
         <v>5</v>
@@ -6342,221 +6405,220 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>44740</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="5"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44932</v>
+        <v>44738</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>146</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C101" s="5"/>
       <c r="D101" s="7"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F101" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>126</v>
       </c>
       <c r="H101" t="s">
         <v>111</v>
       </c>
-      <c r="I101" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44937</v>
+        <v>44734</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D102" s="7"/>
       <c r="E102" s="1"/>
       <c r="F102" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H102" t="s">
         <v>111</v>
       </c>
-      <c r="I102" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44731</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="1"/>
       <c r="F103" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>44728</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
         <v>126</v>
-      </c>
-      <c r="H103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>44942</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="1"/>
-      <c r="F104" t="s">
-        <v>4</v>
       </c>
       <c r="H104" t="s">
         <v>110</v>
       </c>
-      <c r="I104" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44943</v>
+        <v>44727</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C105" s="5"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F105" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
       </c>
       <c r="H105" t="s">
-        <v>110</v>
-      </c>
-      <c r="I105" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44945</v>
+        <v>44713</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D106" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>110</v>
-      </c>
-      <c r="I106" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44947</v>
+        <v>44709</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
       <c r="E107" s="1" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="F107" t="s">
         <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>126</v>
       </c>
       <c r="H107" t="s">
         <v>111</v>
       </c>
-      <c r="I107" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44955</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="1"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F108" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>126</v>
       </c>
       <c r="H108" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44959</v>
+        <v>44703</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="7"/>
       <c r="E109" s="1"/>
       <c r="F109" t="s">
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44961</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B110" s="1"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
       <c r="E110" s="1" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="F110" t="s">
         <v>5</v>
@@ -6565,159 +6627,158 @@
         <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44962</v>
+        <v>44698</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E111" s="1"/>
       <c r="F111" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44973</v>
+        <v>44697</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C112" s="5"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44982</v>
+        <v>44693</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C113" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D113" s="7"/>
-      <c r="E113" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E113" s="1"/>
       <c r="F113" t="s">
         <v>5</v>
       </c>
-      <c r="G113" t="s">
-        <v>126</v>
-      </c>
       <c r="H113" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I113" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44987</v>
+        <v>44689</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D114" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>45001</v>
+        <v>44686</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C115" s="5"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H115" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>45004</v>
+        <v>44681</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="1"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F116" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>126</v>
       </c>
       <c r="H116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>45005</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>44680</v>
+      </c>
+      <c r="B117" s="1"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
       <c r="E117" s="1" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="F117" t="s">
         <v>5</v>
       </c>
+      <c r="G117" t="s">
+        <v>126</v>
+      </c>
       <c r="H117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>45008</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
@@ -6725,62 +6786,57 @@
       <c r="H118" t="s">
         <v>111</v>
       </c>
-      <c r="I118" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>45009</v>
+        <v>44653</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C119" s="5"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F119" t="s">
         <v>5</v>
       </c>
       <c r="H119" t="s">
         <v>110</v>
       </c>
-      <c r="I119" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>45010</v>
+        <v>44650</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D120" s="7"/>
       <c r="E120" s="1"/>
       <c r="F120" t="s">
         <v>5</v>
       </c>
-      <c r="G120" t="s">
-        <v>126</v>
-      </c>
       <c r="H120" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>45011</v>
+        <v>44647</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F121" t="s">
         <v>5</v>
       </c>
@@ -6790,19 +6846,18 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>45017</v>
+        <v>44630</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="7"/>
+      <c r="D122" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E122" s="1"/>
       <c r="F122" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H122" t="s">
         <v>111</v>
@@ -6810,52 +6865,51 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>45018</v>
+        <v>44614</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C123" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D123" s="7"/>
       <c r="E123" s="1"/>
       <c r="F123" t="s">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>45023</v>
+        <v>44604</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
       <c r="E124" s="1" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
         <v>5</v>
       </c>
-      <c r="G124" t="s">
-        <v>126</v>
-      </c>
       <c r="H124" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>45030</v>
+        <v>44600</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="1"/>
@@ -6863,108 +6917,96 @@
         <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>110</v>
-      </c>
-      <c r="I125" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>45036</v>
+        <v>44597</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C126" s="5"/>
       <c r="D126" s="7"/>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F126" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>110</v>
-      </c>
-      <c r="I126" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>45038</v>
+        <v>44595</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
       <c r="E127" s="1" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="F127" t="s">
         <v>5</v>
       </c>
-      <c r="G127" t="s">
-        <v>186</v>
-      </c>
       <c r="H127" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>45039</v>
+        <v>44593</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
       <c r="E128" s="1" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>45046</v>
+        <v>44590</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
       <c r="E129" s="1" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
         <v>5</v>
       </c>
-      <c r="G129" t="s">
-        <v>186</v>
-      </c>
       <c r="H129" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>45047</v>
+        <v>44588</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
       <c r="E130" s="1" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="F130" t="s">
         <v>5</v>
@@ -6973,418 +7015,429 @@
         <v>110</v>
       </c>
       <c r="I130" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>45052</v>
+        <v>44585</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C131" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D131" s="7"/>
-      <c r="E131" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="E131" s="1"/>
       <c r="F131" t="s">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I131" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>45056</v>
+        <v>44582</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C132" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D132" s="7"/>
-      <c r="E132" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="E132" s="1"/>
       <c r="F132" t="s">
         <v>5</v>
       </c>
-      <c r="G132" t="s">
-        <v>186</v>
-      </c>
       <c r="H132" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>45058</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B133" s="1"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
       <c r="E133" s="1" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" t="s">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>45059</v>
+        <v>44576</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
       <c r="E134" s="1" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
-      <c r="G134" t="s">
-        <v>186</v>
-      </c>
       <c r="H134" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>45061</v>
+        <v>44575</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
       <c r="E135" s="1" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="F135" t="s">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>45063</v>
+        <v>44567</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="F136" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="H136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>45065</v>
+        <v>44564</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C137" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D137" s="7"/>
-      <c r="E137" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="E137" s="1"/>
       <c r="F137" t="s">
         <v>5</v>
       </c>
-      <c r="G137" t="s">
-        <v>186</v>
-      </c>
       <c r="H137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>45067</v>
+        <v>44558</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C138" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D138" s="7"/>
-      <c r="E138" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="E138" s="1"/>
       <c r="F138" t="s">
         <v>5</v>
       </c>
-      <c r="G138" t="s">
-        <v>186</v>
-      </c>
       <c r="H138" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>45069</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B139" s="1"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
       <c r="E139" s="1" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="F139" t="s">
         <v>5</v>
       </c>
-      <c r="G139" t="s">
-        <v>186</v>
-      </c>
       <c r="H139" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>45072</v>
+        <v>44526</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C140" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D140" s="7"/>
-      <c r="E140" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="E140" s="1"/>
       <c r="F140" t="s">
         <v>5</v>
       </c>
-      <c r="G140" t="s">
-        <v>186</v>
-      </c>
       <c r="H140" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>45079</v>
+        <v>44519</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="D141" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="1"/>
       <c r="F141" t="s">
-        <v>5</v>
-      </c>
-      <c r="G141" t="s">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>45084</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B142" s="1"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
       <c r="E142" s="1" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="F142" t="s">
         <v>5</v>
       </c>
-      <c r="G142" t="s">
-        <v>186</v>
-      </c>
       <c r="H142" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>45087</v>
+        <v>44495</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C143" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D143" s="7"/>
-      <c r="E143" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="E143" s="1"/>
       <c r="F143" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="H143" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>45099</v>
+        <v>44487</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
       <c r="E144" s="1" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="F144" t="s">
         <v>5</v>
       </c>
-      <c r="G144" t="s">
-        <v>186</v>
-      </c>
       <c r="H144" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>45105</v>
+        <v>44471</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C145" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D145" s="7"/>
-      <c r="E145" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="E145" s="1"/>
       <c r="F145" t="s">
         <v>5</v>
-      </c>
-      <c r="G145" t="s">
-        <v>186</v>
       </c>
       <c r="H145" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>45110</v>
+        <v>44462</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D146" s="7"/>
-      <c r="E146" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E146" s="1"/>
       <c r="F146" t="s">
         <v>5</v>
-      </c>
-      <c r="G146" t="s">
-        <v>186</v>
       </c>
       <c r="H146" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>45120</v>
+        <v>44446</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>209</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C147" s="5"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F147" t="s">
         <v>5</v>
       </c>
       <c r="H147" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>45139</v>
+        <v>44445</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="1"/>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G148" t="s">
+        <v>121</v>
       </c>
       <c r="H148" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>45148</v>
+        <v>44440</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C149" s="5"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F149" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G149" t="s">
+        <v>121</v>
       </c>
       <c r="H149" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" t="s">
+        <v>121</v>
+      </c>
+      <c r="H150" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" t="s">
+        <v>121</v>
+      </c>
+      <c r="H151" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D113 D115:D1048576">
+  <conditionalFormatting sqref="D1:D115 D117:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1180A1-FBD4-4253-B2CA-6FC4D9BF3647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4851DB2-41E1-4A72-ABD6-D45B3AFEF456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27615" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="218">
   <si>
     <t>Fecha</t>
   </si>
@@ -685,6 +685,15 @@
   </si>
   <si>
     <t>Casa en llamas</t>
+  </si>
+  <si>
+    <t>Sapito y Bandera</t>
+  </si>
+  <si>
+    <t>El Patio</t>
+  </si>
+  <si>
+    <t>Colibrí</t>
   </si>
 </sst>
 </file>
@@ -4065,10 +4074,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I151" totalsRowShown="0">
-  <autoFilter ref="A1:I151" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I151">
-    <sortCondition descending="1" ref="A1:A151"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I153" totalsRowShown="0">
+  <autoFilter ref="A1:I153" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I153">
+    <sortCondition descending="1" ref="A1:A153"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4348,7 +4357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -4398,51 +4407,51 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45170</v>
+        <v>45179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45150</v>
+        <v>45178</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45148</v>
+        <v>45170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
@@ -4450,64 +4459,61 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45139</v>
+        <v>45150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45120</v>
+        <v>45148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45110</v>
+        <v>45139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
         <v>111</v>
@@ -4515,37 +4521,34 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45105</v>
+        <v>45120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45099</v>
+        <v>45110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -4554,15 +4557,15 @@
         <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
@@ -4572,24 +4575,24 @@
       <c r="F10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>186</v>
-      </c>
       <c r="H10" t="s">
         <v>110</v>
       </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -4603,15 +4606,15 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -4620,20 +4623,20 @@
         <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45072</v>
+        <v>45084</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -4647,15 +4650,15 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45069</v>
+        <v>45079</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -4664,15 +4667,15 @@
         <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45067</v>
+        <v>45072</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -4691,15 +4694,15 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -4708,20 +4711,20 @@
         <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45063</v>
+        <v>45067</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -4730,39 +4733,42 @@
         <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45061</v>
+        <v>45065</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
+      <c r="G18" t="s">
+        <v>186</v>
+      </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45059</v>
+        <v>45063</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -4771,26 +4777,23 @@
         <v>186</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>186</v>
       </c>
       <c r="H20" t="s">
         <v>119</v>
@@ -4798,15 +4801,15 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45056</v>
+        <v>45059</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -4815,105 +4818,108 @@
         <v>186</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45052</v>
+        <v>45058</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>186</v>
       </c>
       <c r="H22" t="s">
         <v>119</v>
       </c>
-      <c r="I22" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45047</v>
+        <v>45056</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
+      <c r="G23" t="s">
+        <v>186</v>
+      </c>
       <c r="H23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45046</v>
+        <v>45052</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
-      <c r="G24" t="s">
-        <v>186</v>
-      </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45039</v>
+        <v>45047</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="I25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45038</v>
+        <v>45046</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -4922,83 +4928,82 @@
         <v>186</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45030</v>
+        <v>45038</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F28" t="s">
         <v>5</v>
       </c>
+      <c r="G28" t="s">
+        <v>186</v>
+      </c>
       <c r="H28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45023</v>
+        <v>45036</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
         <v>110</v>
       </c>
+      <c r="I29" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45018</v>
+        <v>45030</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
@@ -5007,17 +5012,22 @@
       <c r="H30" t="s">
         <v>110</v>
       </c>
+      <c r="I30" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45017</v>
+        <v>45023</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
@@ -5025,15 +5035,15 @@
         <v>126</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45011</v>
+        <v>45018</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -5047,10 +5057,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -5062,19 +5072,17 @@
         <v>126</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45009</v>
+        <v>45011</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1"/>
       <c r="F34" t="s">
@@ -5083,163 +5091,161 @@
       <c r="H34" t="s">
         <v>110</v>
       </c>
-      <c r="I34" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45008</v>
+        <v>45010</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E35" s="1"/>
       <c r="F35" t="s">
         <v>5</v>
       </c>
+      <c r="G35" t="s">
+        <v>126</v>
+      </c>
       <c r="H35" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" t="s">
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I36" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45004</v>
+        <v>45008</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="1"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
         <v>111</v>
       </c>
+      <c r="I37" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>44987</v>
+        <v>45004</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>44982</v>
+        <v>45001</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="F40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44973</v>
+        <v>44987</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I41" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44962</v>
+        <v>44982</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
@@ -5248,64 +5254,67 @@
         <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44961</v>
+        <v>44973</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44959</v>
+        <v>44962</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="1"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F44" t="s">
         <v>5</v>
       </c>
+      <c r="G44" t="s">
+        <v>126</v>
+      </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44955</v>
+        <v>44961</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="1"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
       </c>
       <c r="H45" t="s">
         <v>110</v>
@@ -5313,32 +5322,29 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44947</v>
+        <v>44959</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1"/>
       <c r="F46" t="s">
         <v>5</v>
       </c>
       <c r="H46" t="s">
         <v>111</v>
       </c>
-      <c r="I46" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44945</v>
+        <v>44955</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7" t="s">
@@ -5346,48 +5352,45 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H47" t="s">
         <v>110</v>
       </c>
-      <c r="I47" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44943</v>
+        <v>44947</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I48" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" t="s">
         <v>4</v>
@@ -5396,35 +5399,40 @@
         <v>110</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44943</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="1"/>
       <c r="F50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
         <v>110</v>
       </c>
+      <c r="I50" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="1"/>
@@ -5432,98 +5440,96 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I51" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F52" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>126</v>
       </c>
       <c r="H52" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>44937</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C53" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="1"/>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I53" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44928</v>
+        <v>44932</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I54" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44924</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>44930</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44922</v>
+        <v>44928</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -5542,59 +5548,59 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44920</v>
+        <v>44924</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="1"/>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="1"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F58" t="s">
         <v>5</v>
       </c>
+      <c r="G58" t="s">
+        <v>126</v>
+      </c>
       <c r="H58" t="s">
-        <v>114</v>
-      </c>
-      <c r="I58" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44912</v>
+        <v>44920</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H59" t="s">
         <v>111</v>
@@ -5602,15 +5608,15 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44903</v>
+        <v>44918</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" t="s">
         <v>5</v>
@@ -5619,20 +5625,20 @@
         <v>114</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44896</v>
+        <v>44912</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="7"/>
       <c r="E61" s="1"/>
       <c r="F61" t="s">
         <v>5</v>
@@ -5643,54 +5649,51 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44879</v>
+        <v>44903</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D62" s="7"/>
-      <c r="E62" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E62" s="1"/>
       <c r="F62" t="s">
         <v>5</v>
       </c>
-      <c r="G62" t="s">
-        <v>126</v>
-      </c>
       <c r="H62" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="I62" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44878</v>
+        <v>44896</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-      <c r="G63" t="s">
-        <v>126</v>
-      </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44877</v>
+        <v>44879</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -5709,10 +5712,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44869</v>
+        <v>44878</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -5722,21 +5725,24 @@
       <c r="F65" t="s">
         <v>5</v>
       </c>
+      <c r="G65" t="s">
+        <v>126</v>
+      </c>
       <c r="H65" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44864</v>
+        <v>44877</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
       <c r="E66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5745,62 +5751,64 @@
         <v>126</v>
       </c>
       <c r="H66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44858</v>
+        <v>44869</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="1"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44856</v>
+        <v>44864</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
       <c r="E68" s="1" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
       </c>
+      <c r="G68" t="s">
+        <v>126</v>
+      </c>
       <c r="H68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B69" s="1"/>
+        <v>44858</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D69" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H69" t="s">
         <v>111</v>
@@ -5808,73 +5816,71 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44850</v>
+        <v>44856</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C70" s="5"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F71" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
       </c>
       <c r="H71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44843</v>
+        <v>44850</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D72" s="7"/>
-      <c r="E72" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E72" s="1"/>
       <c r="F72" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44840</v>
+        <v>44845</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="1"/>
@@ -5882,73 +5888,76 @@
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>111</v>
-      </c>
-      <c r="I73" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B74" s="1"/>
+        <v>44843</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
       <c r="E74" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
         <v>5</v>
       </c>
+      <c r="G74" t="s">
+        <v>126</v>
+      </c>
       <c r="H74" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44834</v>
+        <v>44840</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D75" s="7"/>
       <c r="E75" s="1"/>
       <c r="F75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="I75" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44833</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="1"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44831</v>
+        <v>44834</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="7" t="s">
@@ -5956,99 +5965,96 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B78" s="1"/>
+        <v>44833</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B79" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D79" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44827</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F80" t="s">
         <v>5</v>
       </c>
+      <c r="G80" t="s">
+        <v>126</v>
+      </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44824</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F81" t="s">
         <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>126</v>
       </c>
       <c r="H81" t="s">
         <v>110</v>
       </c>
-      <c r="I81" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44823</v>
+        <v>44825</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>37</v>
@@ -6059,69 +6065,70 @@
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>110</v>
-      </c>
-      <c r="I82" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44822</v>
+        <v>44824</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D83" s="7"/>
       <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I83" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="5"/>
+        <v>44823</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D84" s="7"/>
-      <c r="E84" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E84" s="1"/>
       <c r="F84" t="s">
         <v>5</v>
       </c>
-      <c r="G84" t="s">
-        <v>126</v>
-      </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I84" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44815</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H85" t="s">
         <v>111</v>
@@ -6129,13 +6136,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
       <c r="E86" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
         <v>5</v>
@@ -6144,21 +6151,19 @@
         <v>126</v>
       </c>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44815</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F87" t="s">
         <v>5</v>
       </c>
@@ -6171,18 +6176,19 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44801</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B88" s="1"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="1"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
       </c>
       <c r="H88" t="s">
         <v>110</v>
@@ -6190,11 +6196,16 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44808</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="1"/>
       <c r="F89" t="s">
         <v>5</v>
       </c>
@@ -6202,21 +6213,23 @@
         <v>126</v>
       </c>
       <c r="H89" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>44801</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D90" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H90" t="s">
         <v>110</v>
@@ -6224,14 +6237,11 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="1"/>
+        <v>44793</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F91" t="s">
         <v>5</v>
       </c>
@@ -6239,99 +6249,96 @@
         <v>126</v>
       </c>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44790</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44770</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="5"/>
+        <v>44784</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D93" s="7"/>
-      <c r="E93" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G93" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H93" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="5"/>
+        <v>44782</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E94" s="1"/>
       <c r="F94" t="s">
         <v>5</v>
       </c>
-      <c r="G94" t="s">
-        <v>126</v>
-      </c>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44758</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
       <c r="E95" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44753</v>
+        <v>44760</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
       <c r="E96" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
         <v>5</v>
@@ -6340,20 +6347,18 @@
         <v>126</v>
       </c>
       <c r="H96" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44758</v>
+      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
       <c r="E97" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
         <v>5</v>
@@ -6362,18 +6367,18 @@
         <v>126</v>
       </c>
       <c r="H97" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44746</v>
+        <v>44753</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
       <c r="E98" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F98" t="s">
         <v>5</v>
@@ -6387,9 +6392,11 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44745</v>
-      </c>
-      <c r="B99" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
       <c r="E99" s="1" t="s">
@@ -6402,39 +6409,38 @@
         <v>126</v>
       </c>
       <c r="H99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44746</v>
+      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
       <c r="E100" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>126</v>
       </c>
       <c r="H100" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44738</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
       <c r="E101" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F101" t="s">
         <v>5</v>
@@ -6443,123 +6449,121 @@
         <v>126</v>
       </c>
       <c r="H101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44734</v>
+        <v>44740</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C102" s="5"/>
-      <c r="D102" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E102" s="1"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F102" t="s">
         <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44731</v>
+        <v>44738</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C103" s="5"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F103" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>126</v>
       </c>
       <c r="H103" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44728</v>
+        <v>44734</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D104" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="1"/>
       <c r="F104" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44727</v>
+        <v>44731</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C105" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D105" s="7"/>
-      <c r="E105" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E105" s="1"/>
       <c r="F105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H105" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44713</v>
+        <v>44728</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F106" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>126</v>
       </c>
       <c r="H106" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44709</v>
+        <v>44727</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
       <c r="E107" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F107" t="s">
         <v>5</v>
@@ -6573,52 +6577,56 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>44713</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="1"/>
       <c r="F108" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H108" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44703</v>
+        <v>44709</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C109" s="5"/>
       <c r="D109" s="7"/>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F109" t="s">
         <v>5</v>
       </c>
+      <c r="G109" t="s">
+        <v>126</v>
+      </c>
       <c r="H109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44702</v>
+        <v>44705</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
       <c r="E110" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F110" t="s">
         <v>5</v>
@@ -6627,124 +6635,122 @@
         <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="1"/>
       <c r="F111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44697</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B112" s="1"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
       <c r="E112" s="1" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="F112" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="1"/>
       <c r="F113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>110</v>
-      </c>
-      <c r="I113" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44689</v>
+        <v>44697</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="1"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F114" t="s">
         <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C115" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D115" s="7"/>
-      <c r="E115" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E115" s="1"/>
       <c r="F115" t="s">
         <v>5</v>
       </c>
       <c r="H115" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I115" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D116" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="1"/>
       <c r="F116" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H116" t="s">
         <v>110</v>
@@ -6752,55 +6758,60 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B117" s="1"/>
+        <v>44686</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
       <c r="E117" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F117" t="s">
         <v>5</v>
       </c>
-      <c r="G117" t="s">
-        <v>126</v>
-      </c>
       <c r="H117" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44664</v>
-      </c>
-      <c r="B118" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
       </c>
+      <c r="G118" t="s">
+        <v>126</v>
+      </c>
       <c r="H118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44680</v>
+      </c>
+      <c r="B119" s="1"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
       <c r="E119" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>126</v>
       </c>
       <c r="H119" t="s">
         <v>110</v>
@@ -6808,34 +6819,32 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44650</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F120" t="s">
         <v>5</v>
       </c>
       <c r="H120" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44647</v>
+        <v>44653</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
       <c r="E121" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
@@ -6846,56 +6855,56 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44630</v>
+        <v>44650</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" s="7"/>
       <c r="E122" s="1"/>
       <c r="F122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44614</v>
+        <v>44647</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C123" s="5"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F123" t="s">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44604</v>
+        <v>44630</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D124" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="1"/>
       <c r="F124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H124" t="s">
         <v>111</v>
@@ -6903,10 +6912,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44600</v>
+        <v>44614</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>132</v>
@@ -6917,20 +6926,20 @@
         <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44597</v>
+        <v>44604</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
       <c r="E126" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -6941,72 +6950,72 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44595</v>
+        <v>44600</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C127" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D127" s="7"/>
-      <c r="E127" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E127" s="1"/>
       <c r="F127" t="s">
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44593</v>
+        <v>44597</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
       <c r="E128" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44590</v>
+        <v>44595</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
       <c r="E129" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F129" t="s">
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44588</v>
+        <v>44593</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
       <c r="E130" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F130" t="s">
         <v>5</v>
@@ -7014,101 +7023,101 @@
       <c r="H130" t="s">
         <v>110</v>
       </c>
-      <c r="I130" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44585</v>
+        <v>44590</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C131" s="5"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F131" t="s">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>111</v>
-      </c>
-      <c r="I131" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44582</v>
+        <v>44588</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F132" t="s">
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="I132" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="5"/>
+        <v>44585</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D133" s="7"/>
-      <c r="E133" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E133" s="1"/>
       <c r="F133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I133" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44576</v>
+        <v>44582</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C134" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D134" s="7"/>
-      <c r="E134" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E134" s="1"/>
       <c r="F134" t="s">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44575</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B135" s="1"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
       <c r="E135" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H135" t="s">
         <v>110</v>
@@ -7116,38 +7125,35 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44567</v>
+        <v>44576</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F136" t="s">
-        <v>9</v>
-      </c>
-      <c r="G136" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44564</v>
+        <v>44575</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C137" s="5"/>
       <c r="D137" s="7"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
@@ -7157,46 +7163,51 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44558</v>
+        <v>44567</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C138" s="5"/>
       <c r="D138" s="7"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F138" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G138" t="s">
+        <v>121</v>
       </c>
       <c r="H138" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="5"/>
+        <v>44564</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D139" s="7"/>
-      <c r="E139" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E139" s="1"/>
       <c r="F139" t="s">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44526</v>
+        <v>44558</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>132</v>
@@ -7207,38 +7218,38 @@
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44519</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B141" s="1"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E141" s="1"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="5"/>
+        <v>44526</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D142" s="7"/>
-      <c r="E142" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E142" s="1"/>
       <c r="F142" t="s">
         <v>5</v>
       </c>
@@ -7248,21 +7259,18 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C143" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D143" s="7"/>
       <c r="E143" s="1"/>
       <c r="F143" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H143" t="s">
         <v>114</v>
@@ -7270,15 +7278,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44487</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B144" s="1"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
       <c r="E144" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F144" t="s">
         <v>5</v>
@@ -7289,35 +7295,38 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44471</v>
+        <v>44495</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="1"/>
       <c r="F145" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G145" t="s">
+        <v>121</v>
       </c>
       <c r="H145" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44462</v>
+        <v>44487</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C146" s="5"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F146" t="s">
         <v>5</v>
       </c>
@@ -7327,43 +7336,37 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44446</v>
+        <v>44471</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C147" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E147" s="1"/>
       <c r="F147" t="s">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>111</v>
-      </c>
-      <c r="I147" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44445</v>
+        <v>44462</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="1"/>
       <c r="F148" t="s">
-        <v>9</v>
-      </c>
-      <c r="G148" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H148" t="s">
         <v>111</v>
@@ -7371,10 +7374,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -7382,27 +7385,27 @@
         <v>61</v>
       </c>
       <c r="F149" t="s">
-        <v>9</v>
-      </c>
-      <c r="G149" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H149" t="s">
         <v>111</v>
       </c>
+      <c r="I149" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44418</v>
+        <v>44445</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C150" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D150" s="7"/>
-      <c r="E150" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E150" s="1"/>
       <c r="F150" t="s">
         <v>9</v>
       </c>
@@ -7415,15 +7418,15 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44417</v>
+        <v>44440</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
       <c r="E151" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F151" t="s">
         <v>9</v>
@@ -7432,12 +7435,56 @@
         <v>121</v>
       </c>
       <c r="H151" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" t="s">
+        <v>121</v>
+      </c>
+      <c r="H152" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" t="s">
+        <v>121</v>
+      </c>
+      <c r="H153" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D115 D117:D1048576">
+  <conditionalFormatting sqref="D1:D117 D119:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4851DB2-41E1-4A72-ABD6-D45B3AFEF456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24AEF74-A752-437B-9B48-762DAAEDCF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27615" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="221">
   <si>
     <t>Fecha</t>
   </si>
@@ -694,6 +694,15 @@
   </si>
   <si>
     <t>Colibrí</t>
+  </si>
+  <si>
+    <t>Creek</t>
+  </si>
+  <si>
+    <t>James Gurney</t>
+  </si>
+  <si>
+    <t>Óleo</t>
   </si>
 </sst>
 </file>
@@ -3801,141 +3810,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -4073,11 +3948,145 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I153" totalsRowShown="0">
-  <autoFilter ref="A1:I153" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I153">
-    <sortCondition descending="1" ref="A1:A153"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I154" totalsRowShown="0">
+  <autoFilter ref="A1:I154" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I154">
+    <sortCondition descending="1" ref="A1:A154"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4357,7 +4366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -4407,56 +4416,56 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45179</v>
+        <v>45188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>111</v>
@@ -4464,75 +4473,75 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45150</v>
+        <v>45170</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45148</v>
+        <v>45150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45139</v>
+        <v>45148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45120</v>
+        <v>45139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
         <v>111</v>
@@ -4540,21 +4549,18 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" t="s">
         <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>186</v>
       </c>
       <c r="H9" t="s">
         <v>111</v>
@@ -4562,59 +4568,59 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
       <c r="H10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>186</v>
       </c>
       <c r="H11" t="s">
         <v>110</v>
       </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -4628,15 +4634,15 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -4650,15 +4656,15 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -4667,20 +4673,20 @@
         <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -4689,15 +4695,15 @@
         <v>186</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -4716,10 +4722,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -4738,15 +4744,15 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45065</v>
+        <v>45067</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
@@ -4755,15 +4761,15 @@
         <v>186</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -4782,56 +4788,56 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
+      <c r="G20" t="s">
+        <v>186</v>
+      </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45059</v>
+        <v>45061</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
-      <c r="G21" t="s">
-        <v>186</v>
-      </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
@@ -4840,20 +4846,20 @@
         <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4862,59 +4868,59 @@
         <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45052</v>
+        <v>45056</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
+      <c r="G24" t="s">
+        <v>186</v>
+      </c>
       <c r="H24" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -4924,132 +4930,137 @@
       <c r="F26" t="s">
         <v>5</v>
       </c>
-      <c r="G26" t="s">
-        <v>186</v>
-      </c>
       <c r="H26" t="s">
         <v>110</v>
       </c>
+      <c r="I26" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
+      <c r="G27" t="s">
+        <v>186</v>
+      </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
       </c>
-      <c r="G28" t="s">
-        <v>186</v>
-      </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45036</v>
+        <v>45038</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
         <v>110</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E31" s="1"/>
       <c r="F31" t="s">
         <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>126</v>
       </c>
       <c r="H31" t="s">
         <v>110</v>
       </c>
+      <c r="I31" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F32" t="s">
         <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
       </c>
       <c r="H32" t="s">
         <v>110</v>
@@ -5057,10 +5068,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -5068,19 +5079,16 @@
       <c r="F33" t="s">
         <v>5</v>
       </c>
-      <c r="G33" t="s">
-        <v>126</v>
-      </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -5088,16 +5096,19 @@
       <c r="F34" t="s">
         <v>5</v>
       </c>
+      <c r="G34" t="s">
+        <v>126</v>
+      </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -5105,68 +5116,63 @@
       <c r="F35" t="s">
         <v>5</v>
       </c>
-      <c r="G35" t="s">
-        <v>126</v>
-      </c>
       <c r="H35" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1"/>
       <c r="F36" t="s">
         <v>5</v>
       </c>
+      <c r="G36" t="s">
+        <v>126</v>
+      </c>
       <c r="H36" t="s">
         <v>110</v>
       </c>
-      <c r="I36" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="F37" t="s">
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
       <c r="E38" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5174,21 +5180,24 @@
       <c r="H38" t="s">
         <v>111</v>
       </c>
+      <c r="I38" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="1"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
         <v>111</v>
@@ -5196,81 +5205,81 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" t="s">
-        <v>126</v>
-      </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I42" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44973</v>
+        <v>44982</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>126</v>
       </c>
       <c r="H43" t="s">
         <v>111</v>
@@ -5278,32 +5287,29 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44962</v>
+        <v>44973</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -5322,29 +5328,32 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="1"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F46" t="s">
         <v>5</v>
       </c>
+      <c r="G46" t="s">
+        <v>126</v>
+      </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44955</v>
+        <v>44959</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7" t="s">
@@ -5352,67 +5361,64 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44947</v>
+        <v>44955</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
-      </c>
-      <c r="I48" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44945</v>
+        <v>44947</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="1"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" t="s">
         <v>4</v>
@@ -5421,12 +5427,12 @@
         <v>110</v>
       </c>
       <c r="I50" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>13</v>
@@ -5448,52 +5454,52 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44942</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="1"/>
       <c r="F52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H52" t="s">
         <v>110</v>
       </c>
+      <c r="I52" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F53" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>126</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="1"/>
@@ -5509,38 +5515,38 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B55" s="1"/>
+        <v>44932</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C55" s="5" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I55" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" t="s">
         <v>5</v>
-      </c>
-      <c r="G56" t="s">
-        <v>126</v>
       </c>
       <c r="H56" t="s">
         <v>110</v>
@@ -5548,70 +5554,73 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>126</v>
       </c>
       <c r="H57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="1"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>126</v>
       </c>
       <c r="H59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="7" t="s">
@@ -5619,43 +5628,43 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>114</v>
-      </c>
-      <c r="I60" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44912</v>
+        <v>44918</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" t="s">
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44903</v>
+        <v>44912</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="1"/>
@@ -5663,59 +5672,56 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>114</v>
-      </c>
-      <c r="I62" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44896</v>
+        <v>44903</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="7"/>
       <c r="E63" s="1"/>
       <c r="F63" t="s">
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I63" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44879</v>
+        <v>44896</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D64" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" t="s">
         <v>5</v>
       </c>
-      <c r="G64" t="s">
-        <v>126</v>
-      </c>
       <c r="H64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -5734,10 +5740,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -5756,10 +5762,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44869</v>
+        <v>44877</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -5769,46 +5775,49 @@
       <c r="F67" t="s">
         <v>5</v>
       </c>
+      <c r="G67" t="s">
+        <v>126</v>
+      </c>
       <c r="H67" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44864</v>
+        <v>44869</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
       <c r="E68" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
       </c>
-      <c r="G68" t="s">
-        <v>126</v>
-      </c>
       <c r="H68" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44858</v>
+        <v>44864</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="1"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F69" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>126</v>
       </c>
       <c r="H69" t="s">
         <v>111</v>
@@ -5816,167 +5825,167 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D70" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H70" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B71" s="1"/>
+        <v>44856</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
       <c r="E71" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
         <v>5</v>
       </c>
-      <c r="G71" t="s">
-        <v>126</v>
-      </c>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44850</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F72" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>126</v>
       </c>
       <c r="H72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44845</v>
+        <v>44850</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="1"/>
       <c r="F73" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44843</v>
+        <v>44845</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D74" s="7"/>
-      <c r="E74" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E74" s="1"/>
       <c r="F74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C75" s="5"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F75" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>126</v>
       </c>
       <c r="H75" t="s">
         <v>111</v>
       </c>
-      <c r="I75" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="5"/>
+        <v>44840</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E76" s="1"/>
       <c r="F76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="I76" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="1"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="7" t="s">
@@ -5984,18 +5993,18 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="7" t="s">
@@ -6006,32 +6015,31 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B80" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D80" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="5"/>
@@ -6051,29 +6059,30 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F82" t="s">
         <v>5</v>
       </c>
+      <c r="G82" t="s">
+        <v>126</v>
+      </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>37</v>
@@ -6084,18 +6093,15 @@
         <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>110</v>
-      </c>
-      <c r="I83" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>37</v>
@@ -6109,46 +6115,48 @@
         <v>110</v>
       </c>
       <c r="I84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D85" s="7"/>
       <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I85" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D86" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H86" t="s">
         <v>111</v>
@@ -6156,13 +6164,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44815</v>
+        <v>44821</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
       <c r="E87" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
         <v>5</v>
@@ -6176,13 +6184,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
       <c r="E88" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
@@ -6191,21 +6199,19 @@
         <v>126</v>
       </c>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F89" t="s">
         <v>5</v>
       </c>
@@ -6213,152 +6219,154 @@
         <v>126</v>
       </c>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D90" s="7"/>
       <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>126</v>
       </c>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="7"/>
+        <v>44793</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>126</v>
       </c>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44784</v>
+        <v>44790</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C93" s="5"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>44784</v>
+      </c>
+      <c r="B94" s="1"/>
       <c r="C94" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="1"/>
       <c r="F94" t="s">
         <v>5</v>
       </c>
+      <c r="G94" t="s">
+        <v>126</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44770</v>
+        <v>44782</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D95" s="7"/>
-      <c r="E95" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
       <c r="E96" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
       <c r="E97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F97" t="s">
         <v>5</v>
@@ -6372,13 +6380,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44753</v>
+        <v>44758</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
       <c r="E98" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s">
         <v>5</v>
@@ -6387,20 +6395,18 @@
         <v>126</v>
       </c>
       <c r="H98" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
       <c r="E99" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F99" t="s">
         <v>5</v>
@@ -6409,14 +6415,16 @@
         <v>126</v>
       </c>
       <c r="H99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
       <c r="E100" s="1" t="s">
@@ -6429,12 +6437,12 @@
         <v>126</v>
       </c>
       <c r="H100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="5"/>
@@ -6454,59 +6462,60 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
       <c r="E102" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F102" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>126</v>
       </c>
       <c r="H102" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44738</v>
+        <v>44740</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
       <c r="E103" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F103" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" s="1"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F104" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
       </c>
       <c r="H104" t="s">
         <v>111</v>
@@ -6514,56 +6523,53 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44731</v>
+        <v>44734</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D105" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E105" s="1"/>
       <c r="F105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H105" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44728</v>
+        <v>44731</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D106" s="7"/>
-      <c r="E106" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E106" s="1"/>
       <c r="F106" t="s">
-        <v>5</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H106" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
       <c r="E107" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
         <v>5</v>
@@ -6572,61 +6578,63 @@
         <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44713</v>
+        <v>44727</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F108" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44709</v>
+        <v>44713</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="1"/>
       <c r="F109" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B110" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
       <c r="E110" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F110" t="s">
         <v>5</v>
@@ -6635,173 +6643,173 @@
         <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44703</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F111" t="s">
         <v>5</v>
       </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
       <c r="H111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="5"/>
+        <v>44703</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D112" s="7"/>
-      <c r="E112" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E112" s="1"/>
       <c r="F112" t="s">
         <v>5</v>
       </c>
-      <c r="G112" t="s">
-        <v>126</v>
-      </c>
       <c r="H112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44698</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F113" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>126</v>
       </c>
       <c r="H113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D114" s="7"/>
-      <c r="E114" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E114" s="1"/>
       <c r="F114" t="s">
         <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C115" s="5"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>110</v>
-      </c>
-      <c r="I115" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44689</v>
+        <v>44693</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" s="7"/>
       <c r="E116" s="1"/>
       <c r="F116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
         <v>110</v>
       </c>
+      <c r="I116" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D117" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="1"/>
       <c r="F117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
       </c>
-      <c r="G118" t="s">
-        <v>126</v>
-      </c>
       <c r="H118" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B119" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
       <c r="E119" s="1" t="s">
@@ -6819,198 +6827,199 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44664</v>
+        <v>44680</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
       <c r="E120" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
       </c>
+      <c r="G120" t="s">
+        <v>126</v>
+      </c>
       <c r="H120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B121" s="1"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
       <c r="E121" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C122" s="5"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F122" t="s">
         <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C123" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D123" s="7"/>
-      <c r="E123" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E123" s="1"/>
       <c r="F123" t="s">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44630</v>
+        <v>44647</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="1"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44614</v>
+        <v>44630</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E125" s="1"/>
       <c r="F125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44604</v>
+        <v>44614</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C126" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D126" s="7"/>
-      <c r="E126" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E126" s="1"/>
       <c r="F126" t="s">
         <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44600</v>
+        <v>44604</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C127" s="5"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F127" t="s">
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44597</v>
+        <v>44600</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C128" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D128" s="7"/>
-      <c r="E128" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E128" s="1"/>
       <c r="F128" t="s">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
       <c r="E129" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F129" t="s">
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -7021,81 +7030,78 @@
         <v>5</v>
       </c>
       <c r="H130" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
       <c r="E131" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F131" t="s">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
       <c r="E132" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>110</v>
-      </c>
-      <c r="I132" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C133" s="5"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F133" t="s">
         <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I133" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="1"/>
@@ -7103,70 +7109,73 @@
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="I134" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="5"/>
+        <v>44582</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D135" s="7"/>
-      <c r="E135" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E135" s="1"/>
       <c r="F135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -7174,10 +7183,7 @@
         <v>85</v>
       </c>
       <c r="F138" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H138" t="s">
         <v>110</v>
@@ -7185,18 +7191,21 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C139" s="5"/>
       <c r="D139" s="7"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F139" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G139" t="s">
+        <v>121</v>
       </c>
       <c r="H139" t="s">
         <v>110</v>
@@ -7204,13 +7213,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44558</v>
+        <v>44564</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="1"/>
@@ -7218,38 +7227,38 @@
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="5"/>
+        <v>44558</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D141" s="7"/>
-      <c r="E141" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E141" s="1"/>
       <c r="F141" t="s">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44526</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="5"/>
       <c r="D142" s="7"/>
-      <c r="E142" s="1"/>
+      <c r="E142" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F142" t="s">
         <v>5</v>
       </c>
@@ -7259,109 +7268,109 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D143" s="7"/>
       <c r="E143" s="1"/>
       <c r="F143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B144" s="1"/>
+        <v>44519</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C144" s="5"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D144" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E144" s="1"/>
       <c r="F144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H144" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44495</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="5"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F145" t="s">
-        <v>9</v>
-      </c>
-      <c r="G145" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D146" s="7"/>
-      <c r="E146" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E146" s="1"/>
       <c r="F146" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G146" t="s">
+        <v>121</v>
       </c>
       <c r="H146" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C147" s="5"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F147" t="s">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44462</v>
+        <v>44471</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="1"/>
@@ -7369,65 +7378,62 @@
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44446</v>
+        <v>44462</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C149" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E149" s="1"/>
       <c r="F149" t="s">
         <v>5</v>
       </c>
       <c r="H149" t="s">
         <v>111</v>
       </c>
-      <c r="I149" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C150" s="5"/>
       <c r="D150" s="7"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F150" t="s">
-        <v>9</v>
-      </c>
-      <c r="G150" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H150" t="s">
         <v>111</v>
       </c>
+      <c r="I150" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C151" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D151" s="7"/>
-      <c r="E151" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E151" s="1"/>
       <c r="F151" t="s">
         <v>9</v>
       </c>
@@ -7440,15 +7446,15 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44418</v>
+        <v>44440</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
       <c r="E152" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F152" t="s">
         <v>9</v>
@@ -7462,10 +7468,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -7479,12 +7485,34 @@
         <v>121</v>
       </c>
       <c r="H153" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" t="s">
+        <v>121</v>
+      </c>
+      <c r="H154" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D117 D119:D1048576">
+  <conditionalFormatting sqref="D1:D118 D120:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24AEF74-A752-437B-9B48-762DAAEDCF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA54223-7D19-4B6C-B1A0-8589ACC17E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="222">
   <si>
     <t>Fecha</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>Óleo</t>
+  </si>
+  <si>
+    <t>Otraparte</t>
   </si>
 </sst>
 </file>
@@ -3810,7 +3813,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -3949,7 +3952,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -4083,10 +4086,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I154" totalsRowShown="0">
-  <autoFilter ref="A1:I154" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I154">
-    <sortCondition descending="1" ref="A1:A154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I155" totalsRowShown="0">
+  <autoFilter ref="A1:I155" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I155">
+    <sortCondition descending="1" ref="A1:A155"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4366,7 +4369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -4416,75 +4419,75 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45188</v>
+        <v>45193</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45179</v>
+        <v>45188</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>111</v>
@@ -4492,51 +4495,51 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45150</v>
+        <v>45170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45148</v>
+        <v>45150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45139</v>
+        <v>45148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
@@ -4544,23 +4547,23 @@
         <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45120</v>
+        <v>45139</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
         <v>111</v>
@@ -4568,21 +4571,18 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" t="s">
         <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>186</v>
       </c>
       <c r="H10" t="s">
         <v>111</v>
@@ -4590,59 +4590,59 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
       <c r="H11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>186</v>
       </c>
       <c r="H12" t="s">
         <v>110</v>
       </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -4656,15 +4656,15 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -4678,15 +4678,15 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -4695,20 +4695,20 @@
         <v>186</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -4717,15 +4717,15 @@
         <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -4766,15 +4766,15 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45065</v>
+        <v>45067</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -4783,15 +4783,15 @@
         <v>186</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -4810,56 +4810,56 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
+      <c r="G21" t="s">
+        <v>186</v>
+      </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45059</v>
+        <v>45061</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
       </c>
-      <c r="G22" t="s">
-        <v>186</v>
-      </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4868,20 +4868,20 @@
         <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
@@ -4890,59 +4890,59 @@
         <v>186</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45052</v>
+        <v>45056</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
       <c r="H25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -4952,132 +4952,137 @@
       <c r="F27" t="s">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
-        <v>186</v>
-      </c>
       <c r="H27" t="s">
         <v>110</v>
       </c>
+      <c r="I27" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
       </c>
+      <c r="G28" t="s">
+        <v>186</v>
+      </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="G29" t="s">
-        <v>186</v>
-      </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45036</v>
+        <v>45038</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
         <v>110</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="F32" t="s">
         <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>126</v>
       </c>
       <c r="H32" t="s">
         <v>110</v>
       </c>
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F33" t="s">
         <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
       </c>
       <c r="H33" t="s">
         <v>110</v>
@@ -5085,10 +5090,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -5096,19 +5101,16 @@
       <c r="F34" t="s">
         <v>5</v>
       </c>
-      <c r="G34" t="s">
-        <v>126</v>
-      </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -5116,16 +5118,19 @@
       <c r="F35" t="s">
         <v>5</v>
       </c>
+      <c r="G35" t="s">
+        <v>126</v>
+      </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -5133,68 +5138,63 @@
       <c r="F36" t="s">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
-        <v>126</v>
-      </c>
       <c r="H36" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="1"/>
       <c r="F37" t="s">
         <v>5</v>
       </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
       <c r="H37" t="s">
         <v>110</v>
       </c>
-      <c r="I37" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
       <c r="E39" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
@@ -5202,21 +5202,24 @@
       <c r="H39" t="s">
         <v>111</v>
       </c>
+      <c r="I39" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="1"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
         <v>111</v>
@@ -5224,81 +5227,81 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="1"/>
       <c r="F42" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" t="s">
         <v>5</v>
       </c>
-      <c r="G43" t="s">
-        <v>126</v>
-      </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I43" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44973</v>
+        <v>44982</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>126</v>
       </c>
       <c r="H44" t="s">
         <v>111</v>
@@ -5306,32 +5309,29 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44962</v>
+        <v>44973</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -5350,29 +5350,32 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="1"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
+      <c r="G47" t="s">
+        <v>126</v>
+      </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44955</v>
+        <v>44959</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="7" t="s">
@@ -5380,67 +5383,64 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44947</v>
+        <v>44955</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44945</v>
+        <v>44947</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="1"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" t="s">
         <v>4</v>
@@ -5449,12 +5449,12 @@
         <v>110</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>13</v>
@@ -5476,52 +5476,52 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44942</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="1"/>
       <c r="F53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
         <v>110</v>
       </c>
+      <c r="I53" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F54" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>126</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
-      </c>
-      <c r="I54" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="1"/>
@@ -5537,38 +5537,38 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B56" s="1"/>
+        <v>44932</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C56" s="5" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="1"/>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I56" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E57" s="1"/>
       <c r="F57" t="s">
         <v>5</v>
-      </c>
-      <c r="G57" t="s">
-        <v>126</v>
       </c>
       <c r="H57" t="s">
         <v>110</v>
@@ -5576,70 +5576,73 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C58" s="5"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>126</v>
       </c>
       <c r="H58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="1"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F60" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>126</v>
       </c>
       <c r="H60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="7" t="s">
@@ -5647,43 +5650,43 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H61" t="s">
-        <v>114</v>
-      </c>
-      <c r="I61" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44912</v>
+        <v>44918</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" t="s">
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44903</v>
+        <v>44912</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="1"/>
@@ -5691,59 +5694,56 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>114</v>
-      </c>
-      <c r="I63" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44896</v>
+        <v>44903</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="7"/>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I64" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44879</v>
+        <v>44896</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D65" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" t="s">
         <v>5</v>
       </c>
-      <c r="G65" t="s">
-        <v>126</v>
-      </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -5762,10 +5762,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -5784,10 +5784,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44869</v>
+        <v>44877</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -5797,46 +5797,49 @@
       <c r="F68" t="s">
         <v>5</v>
       </c>
+      <c r="G68" t="s">
+        <v>126</v>
+      </c>
       <c r="H68" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44864</v>
+        <v>44869</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
       <c r="E69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
       </c>
-      <c r="G69" t="s">
-        <v>126</v>
-      </c>
       <c r="H69" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44858</v>
+        <v>44864</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="1"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>126</v>
       </c>
       <c r="H70" t="s">
         <v>111</v>
@@ -5844,167 +5847,167 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D71" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="1"/>
       <c r="F71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>44856</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
       <c r="E72" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
         <v>5</v>
       </c>
-      <c r="G72" t="s">
-        <v>126</v>
-      </c>
       <c r="H72" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44850</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>126</v>
       </c>
       <c r="H73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44845</v>
+        <v>44850</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="1"/>
       <c r="F74" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44843</v>
+        <v>44845</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C76" s="5"/>
       <c r="D76" s="7"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F76" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>126</v>
       </c>
       <c r="H76" t="s">
         <v>111</v>
       </c>
-      <c r="I76" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="5"/>
+        <v>44840</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D77" s="7"/>
-      <c r="E77" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E77" s="1"/>
       <c r="F77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="I77" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="1"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F78" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="7" t="s">
@@ -6012,18 +6015,18 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="7" t="s">
@@ -6034,32 +6037,31 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B81" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D81" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="1"/>
       <c r="F81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="5"/>
@@ -6079,29 +6081,30 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F83" t="s">
         <v>5</v>
       </c>
+      <c r="G83" t="s">
+        <v>126</v>
+      </c>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>37</v>
@@ -6112,18 +6115,15 @@
         <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>110</v>
-      </c>
-      <c r="I84" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>37</v>
@@ -6137,46 +6137,48 @@
         <v>110</v>
       </c>
       <c r="I85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D86" s="7"/>
       <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I86" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D87" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H87" t="s">
         <v>111</v>
@@ -6184,13 +6186,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44815</v>
+        <v>44821</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
       <c r="E88" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
@@ -6204,13 +6206,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
       <c r="E89" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
         <v>5</v>
@@ -6219,21 +6221,19 @@
         <v>126</v>
       </c>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F90" t="s">
         <v>5</v>
       </c>
@@ -6241,152 +6241,154 @@
         <v>126</v>
       </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D91" s="7"/>
       <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>126</v>
       </c>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="7"/>
+        <v>44793</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>126</v>
       </c>
       <c r="H93" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44784</v>
+        <v>44790</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C94" s="5"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>44784</v>
+      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
         <v>5</v>
       </c>
+      <c r="G95" t="s">
+        <v>126</v>
+      </c>
       <c r="H95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44770</v>
+        <v>44782</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D96" s="7"/>
-      <c r="E96" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E96" s="1"/>
       <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B97" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
       <c r="E97" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
       <c r="E98" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F98" t="s">
         <v>5</v>
@@ -6400,13 +6402,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44753</v>
+        <v>44758</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
       <c r="E99" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s">
         <v>5</v>
@@ -6415,20 +6417,18 @@
         <v>126</v>
       </c>
       <c r="H99" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
       <c r="E100" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6437,14 +6437,16 @@
         <v>126</v>
       </c>
       <c r="H100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
       <c r="E101" s="1" t="s">
@@ -6457,12 +6459,12 @@
         <v>126</v>
       </c>
       <c r="H101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="5"/>
@@ -6482,59 +6484,60 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B103" s="1"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
       <c r="E103" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>126</v>
       </c>
       <c r="H103" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44738</v>
+        <v>44740</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
       <c r="E104" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F104" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" s="5"/>
-      <c r="D105" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" s="1"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F105" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
       </c>
       <c r="H105" t="s">
         <v>111</v>
@@ -6542,56 +6545,53 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44731</v>
+        <v>44734</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D106" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E106" s="1"/>
       <c r="F106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44728</v>
+        <v>44731</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C107" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D107" s="7"/>
-      <c r="E107" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E107" s="1"/>
       <c r="F107" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H107" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
       <c r="E108" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
         <v>5</v>
@@ -6600,61 +6600,63 @@
         <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44713</v>
+        <v>44727</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E109" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F109" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
       </c>
       <c r="H109" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44709</v>
+        <v>44713</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="1"/>
       <c r="F110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B111" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
       <c r="E111" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -6663,173 +6665,173 @@
         <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44703</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F112" t="s">
         <v>5</v>
       </c>
+      <c r="G112" t="s">
+        <v>126</v>
+      </c>
       <c r="H112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="5"/>
+        <v>44703</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D113" s="7"/>
-      <c r="E113" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E113" s="1"/>
       <c r="F113" t="s">
         <v>5</v>
       </c>
-      <c r="G113" t="s">
-        <v>126</v>
-      </c>
       <c r="H113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44698</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="7"/>
-      <c r="E114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F114" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>126</v>
       </c>
       <c r="H114" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D115" s="7"/>
-      <c r="E115" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E115" s="1"/>
       <c r="F115" t="s">
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C116" s="5"/>
       <c r="D116" s="7"/>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H116" t="s">
-        <v>110</v>
-      </c>
-      <c r="I116" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44689</v>
+        <v>44693</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="7"/>
       <c r="E117" s="1"/>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H117" t="s">
         <v>110</v>
       </c>
+      <c r="I117" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D118" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="1"/>
       <c r="F118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
       <c r="E119" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
       </c>
-      <c r="G119" t="s">
-        <v>126</v>
-      </c>
       <c r="H119" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B120" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
       <c r="E120" s="1" t="s">
@@ -6847,198 +6849,199 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44664</v>
+        <v>44680</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
       <c r="E121" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
       </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
       <c r="H121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B122" s="1"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
       <c r="E122" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F122" t="s">
         <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C123" s="5"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F123" t="s">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D124" s="7"/>
-      <c r="E124" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E124" s="1"/>
       <c r="F124" t="s">
         <v>5</v>
       </c>
       <c r="H124" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44630</v>
+        <v>44647</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="1"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44614</v>
+        <v>44630</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D126" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E126" s="1"/>
       <c r="F126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44604</v>
+        <v>44614</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C127" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D127" s="7"/>
-      <c r="E127" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E127" s="1"/>
       <c r="F127" t="s">
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44600</v>
+        <v>44604</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C128" s="5"/>
       <c r="D128" s="7"/>
-      <c r="E128" s="1"/>
+      <c r="E128" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44597</v>
+        <v>44600</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C129" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D129" s="7"/>
-      <c r="E129" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E129" s="1"/>
       <c r="F129" t="s">
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
       <c r="E130" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F130" t="s">
         <v>5</v>
       </c>
       <c r="H130" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -7049,81 +7052,78 @@
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
       <c r="E132" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F132" t="s">
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
       <c r="E133" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
         <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>110</v>
-      </c>
-      <c r="I133" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C134" s="5"/>
       <c r="D134" s="7"/>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I134" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="1"/>
@@ -7131,70 +7131,73 @@
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="I135" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="5"/>
+        <v>44582</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D136" s="7"/>
-      <c r="E136" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E136" s="1"/>
       <c r="F136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B137" s="1"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H137" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
       <c r="E138" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -7202,10 +7205,7 @@
         <v>85</v>
       </c>
       <c r="F139" t="s">
-        <v>9</v>
-      </c>
-      <c r="G139" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H139" t="s">
         <v>110</v>
@@ -7213,18 +7213,21 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C140" s="5"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F140" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G140" t="s">
+        <v>121</v>
       </c>
       <c r="H140" t="s">
         <v>110</v>
@@ -7232,13 +7235,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44558</v>
+        <v>44564</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="1"/>
@@ -7246,38 +7249,38 @@
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="5"/>
+        <v>44558</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D142" s="7"/>
-      <c r="E142" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E142" s="1"/>
       <c r="F142" t="s">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44526</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="5"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F143" t="s">
         <v>5</v>
       </c>
@@ -7287,109 +7290,109 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D144" s="7"/>
       <c r="E144" s="1"/>
       <c r="F144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B145" s="1"/>
+        <v>44519</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D145" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="1"/>
       <c r="F145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H145" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44495</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="5"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F146" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E147" s="1"/>
       <c r="F147" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G147" t="s">
+        <v>121</v>
       </c>
       <c r="H147" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C148" s="5"/>
       <c r="D148" s="7"/>
-      <c r="E148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F148" t="s">
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44462</v>
+        <v>44471</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="1"/>
@@ -7397,65 +7400,62 @@
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44446</v>
+        <v>44462</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C150" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D150" s="7"/>
-      <c r="E150" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E150" s="1"/>
       <c r="F150" t="s">
         <v>5</v>
       </c>
       <c r="H150" t="s">
         <v>111</v>
       </c>
-      <c r="I150" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C151" s="5"/>
       <c r="D151" s="7"/>
-      <c r="E151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F151" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H151" t="s">
         <v>111</v>
       </c>
+      <c r="I151" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C152" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D152" s="7"/>
-      <c r="E152" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E152" s="1"/>
       <c r="F152" t="s">
         <v>9</v>
       </c>
@@ -7468,15 +7468,15 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44418</v>
+        <v>44440</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
       <c r="E153" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F153" t="s">
         <v>9</v>
@@ -7490,10 +7490,10 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -7507,12 +7507,34 @@
         <v>121</v>
       </c>
       <c r="H154" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" t="s">
+        <v>121</v>
+      </c>
+      <c r="H155" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D118 D120:D1048576">
+  <conditionalFormatting sqref="D1:D119 D121:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA54223-7D19-4B6C-B1A0-8589ACC17E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F930FEFA-BB57-403D-851B-026BE9ADFC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="228">
   <si>
     <t>Fecha</t>
   </si>
@@ -706,6 +706,24 @@
   </si>
   <si>
     <t>Otraparte</t>
+  </si>
+  <si>
+    <t>Iglesia de San Antonio</t>
+  </si>
+  <si>
+    <t>Sueño de mujer en lago</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>David de las Heras</t>
+  </si>
+  <si>
+    <t>Parque de San Antonio</t>
+  </si>
+  <si>
+    <t>Lago Calima</t>
   </si>
 </sst>
 </file>
@@ -3813,6 +3831,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -3951,145 +4103,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I155" totalsRowShown="0">
-  <autoFilter ref="A1:I155" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I155">
-    <sortCondition descending="1" ref="A1:A155"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I158" totalsRowShown="0">
+  <autoFilter ref="A1:I158" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I158">
+    <sortCondition descending="1" ref="A1:A158"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4369,10 +4387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4419,32 +4437,32 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45193</v>
+        <v>45234</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45188</v>
+        <v>45225</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
@@ -4452,39 +4470,39 @@
         <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45179</v>
+        <v>45213</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45178</v>
+        <v>45193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -4495,13 +4513,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45170</v>
+        <v>45188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
@@ -4509,53 +4527,53 @@
         <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45150</v>
+        <v>45179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45148</v>
+        <v>45178</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>208</v>
@@ -4571,100 +4589,91 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45120</v>
+        <v>45150</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>209</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45110</v>
+        <v>45148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45105</v>
+        <v>45139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45099</v>
+        <v>45120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
-        <v>186</v>
-      </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45087</v>
+        <v>45110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -4673,42 +4682,42 @@
         <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45084</v>
+        <v>45105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>186</v>
       </c>
       <c r="H15" t="s">
         <v>110</v>
       </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -4717,20 +4726,20 @@
         <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45072</v>
+        <v>45087</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -4744,15 +4753,15 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45069</v>
+        <v>45084</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
@@ -4766,15 +4775,15 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45067</v>
+        <v>45079</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -4783,20 +4792,20 @@
         <v>186</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -4805,20 +4814,20 @@
         <v>186</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45063</v>
+        <v>45069</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -4827,39 +4836,42 @@
         <v>186</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45061</v>
+        <v>45067</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
       </c>
+      <c r="G22" t="s">
+        <v>186</v>
+      </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45059</v>
+        <v>45065</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4868,20 +4880,20 @@
         <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45058</v>
+        <v>45063</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
@@ -4890,86 +4902,83 @@
         <v>186</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
-      <c r="G25" t="s">
-        <v>186</v>
-      </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
+      <c r="G26" t="s">
+        <v>186</v>
+      </c>
       <c r="H26" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45047</v>
+        <v>45058</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
+      <c r="G27" t="s">
+        <v>186</v>
+      </c>
       <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45046</v>
+        <v>45056</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -4978,20 +4987,20 @@
         <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45039</v>
+        <v>45052</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4999,144 +5008,156 @@
       <c r="H29" t="s">
         <v>119</v>
       </c>
+      <c r="I29" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45038</v>
+        <v>45047</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-      <c r="G30" t="s">
-        <v>186</v>
-      </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I30" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45036</v>
+        <v>45046</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F31" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>186</v>
       </c>
       <c r="H31" t="s">
         <v>110</v>
       </c>
-      <c r="I31" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45030</v>
+        <v>45039</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45023</v>
+        <v>45038</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45018</v>
+        <v>45036</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="1"/>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
         <v>110</v>
       </c>
+      <c r="I34" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45017</v>
+        <v>45030</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" t="s">
         <v>5</v>
       </c>
-      <c r="G35" t="s">
-        <v>126</v>
-      </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45011</v>
+        <v>45023</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F36" t="s">
         <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>126</v>
       </c>
       <c r="H36" t="s">
         <v>110</v>
@@ -5144,10 +5165,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45010</v>
+        <v>45018</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -5155,153 +5176,144 @@
       <c r="F37" t="s">
         <v>5</v>
       </c>
-      <c r="G37" t="s">
-        <v>126</v>
-      </c>
       <c r="H37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45009</v>
+        <v>45017</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="7"/>
       <c r="E38" s="1"/>
       <c r="F38" t="s">
         <v>5</v>
       </c>
+      <c r="G38" t="s">
+        <v>126</v>
+      </c>
       <c r="H38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45008</v>
+        <v>45011</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" t="s">
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45005</v>
+        <v>45010</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="F40" t="s">
         <v>5</v>
       </c>
+      <c r="G40" t="s">
+        <v>126</v>
+      </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45004</v>
+        <v>45009</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F42" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I42" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F43" t="s">
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I43" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44982</v>
+        <v>45004</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="D44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
         <v>111</v>
@@ -5309,13 +5321,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44973</v>
+        <v>45001</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="1"/>
@@ -5323,42 +5335,42 @@
         <v>220</v>
       </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44962</v>
+        <v>44987</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" t="s">
         <v>5</v>
       </c>
-      <c r="G46" t="s">
-        <v>126</v>
-      </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="I46" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44961</v>
+        <v>44982</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
       <c r="E47" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5367,23 +5379,23 @@
         <v>126</v>
       </c>
       <c r="H47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44959</v>
+        <v>44973</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H48" t="s">
         <v>111</v>
@@ -5391,18 +5403,21 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44955</v>
+        <v>44962</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="1"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F49" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>126</v>
       </c>
       <c r="H49" t="s">
         <v>110</v>
@@ -5410,32 +5425,32 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44947</v>
+        <v>44961</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
       <c r="E50" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
       </c>
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
       <c r="H50" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44945</v>
+        <v>44959</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="7" t="s">
@@ -5443,85 +5458,84 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44943</v>
+        <v>44955</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="H52" t="s">
         <v>110</v>
       </c>
-      <c r="I52" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44942</v>
+        <v>44947</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C53" s="5"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44945</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="F54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
         <v>110</v>
       </c>
+      <c r="I54" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44937</v>
+        <v>44943</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="1"/>
@@ -5529,21 +5543,21 @@
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I55" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44932</v>
+        <v>44942</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="1"/>
@@ -5551,24 +5565,24 @@
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I56" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F57" t="s">
         <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>126</v>
       </c>
       <c r="H57" t="s">
         <v>110</v>
@@ -5576,62 +5590,60 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44928</v>
+        <v>44937</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I58" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44924</v>
+        <v>44932</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="1"/>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="I59" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44922</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E60" s="1"/>
       <c r="F60" t="s">
         <v>5</v>
-      </c>
-      <c r="G60" t="s">
-        <v>126</v>
       </c>
       <c r="H60" t="s">
         <v>110</v>
@@ -5639,92 +5651,92 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44920</v>
+        <v>44928</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="1"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F61" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>126</v>
       </c>
       <c r="H61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44918</v>
+        <v>44924</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="7"/>
       <c r="E62" s="1"/>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>114</v>
-      </c>
-      <c r="I62" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44912</v>
+        <v>44922</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C63" s="5"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
+      <c r="G63" t="s">
+        <v>126</v>
+      </c>
       <c r="H63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44903</v>
+        <v>44920</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H64" t="s">
-        <v>114</v>
-      </c>
-      <c r="I64" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44896</v>
+        <v>44918</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7" t="s">
@@ -5735,81 +5747,78 @@
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44879</v>
+        <v>44912</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D66" s="7"/>
-      <c r="E66" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E66" s="1"/>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-      <c r="G66" t="s">
-        <v>126</v>
-      </c>
       <c r="H66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44878</v>
+        <v>44903</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E67" s="1"/>
       <c r="F67" t="s">
         <v>5</v>
       </c>
-      <c r="G67" t="s">
-        <v>126</v>
-      </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="I67" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44877</v>
+        <v>44896</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D68" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="1"/>
       <c r="F68" t="s">
         <v>5</v>
       </c>
-      <c r="G68" t="s">
-        <v>126</v>
-      </c>
       <c r="H68" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44869</v>
+        <v>44879</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -5819,21 +5828,24 @@
       <c r="F69" t="s">
         <v>5</v>
       </c>
+      <c r="G69" t="s">
+        <v>126</v>
+      </c>
       <c r="H69" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44864</v>
+        <v>44878</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
       <c r="E70" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -5842,56 +5854,61 @@
         <v>126</v>
       </c>
       <c r="H70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44858</v>
+        <v>44877</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="1"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
       </c>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44856</v>
+        <v>44869</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
       <c r="E72" s="1" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="F72" t="s">
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B73" s="1"/>
+        <v>44864</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
       <c r="E73" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
         <v>5</v>
@@ -5905,37 +5922,37 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44850</v>
+        <v>44858</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44845</v>
+        <v>44856</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C75" s="5"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F75" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H75" t="s">
         <v>114</v>
@@ -5943,15 +5960,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44843</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
       <c r="E76" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
         <v>5</v>
@@ -5965,154 +5980,155 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44840</v>
+        <v>44850</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="1"/>
       <c r="F77" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>111</v>
-      </c>
-      <c r="I77" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="5"/>
+        <v>44845</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E78" s="1"/>
       <c r="F78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44834</v>
+        <v>44843</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="1"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>126</v>
       </c>
       <c r="H79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44833</v>
+        <v>44840</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D80" s="7"/>
       <c r="E80" s="1"/>
       <c r="F80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44831</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" s="1"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B82" s="1"/>
+        <v>44834</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D82" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B83" s="1"/>
+        <v>44833</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D83" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44825</v>
+        <v>44831</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="7"/>
       <c r="E84" s="1"/>
       <c r="F84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H84" t="s">
         <v>111</v>
@@ -6120,65 +6136,58 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44824</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44827</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F85" t="s">
         <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>126</v>
       </c>
       <c r="H85" t="s">
         <v>110</v>
       </c>
-      <c r="I85" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F86" t="s">
         <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>126</v>
       </c>
       <c r="H86" t="s">
         <v>110</v>
       </c>
-      <c r="I86" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44822</v>
+        <v>44825</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D87" s="7"/>
       <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H87" t="s">
         <v>111</v>
@@ -6186,76 +6195,80 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="5"/>
+        <v>44824</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E88" s="1"/>
       <c r="F88" t="s">
         <v>5</v>
       </c>
-      <c r="G88" t="s">
-        <v>126</v>
-      </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44815</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="5"/>
+        <v>44823</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D89" s="7"/>
-      <c r="E89" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E89" s="1"/>
       <c r="F89" t="s">
         <v>5</v>
       </c>
-      <c r="G89" t="s">
-        <v>126</v>
-      </c>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I89" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44814</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D90" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44821</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F91" t="s">
         <v>5</v>
       </c>
@@ -6268,29 +6281,33 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44801</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>44815</v>
+      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="1"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F92" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>126</v>
       </c>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44793</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -6299,82 +6316,79 @@
         <v>126</v>
       </c>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="5"/>
+        <v>44808</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E94" s="1"/>
       <c r="F94" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
       </c>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D95" s="7"/>
+        <v>44801</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="1"/>
+        <v>44793</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F96" t="s">
         <v>5</v>
       </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44770</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>44790</v>
+      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
       <c r="E97" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H97" t="s">
         <v>110</v>
@@ -6382,14 +6396,14 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44760</v>
+        <v>44784</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D98" s="7"/>
-      <c r="E98" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E98" s="1"/>
       <c r="F98" t="s">
         <v>5</v>
       </c>
@@ -6397,44 +6411,45 @@
         <v>126</v>
       </c>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44758</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="5"/>
+        <v>44782</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D99" s="7"/>
-      <c r="E99" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E99" s="1"/>
       <c r="F99" t="s">
         <v>5</v>
       </c>
-      <c r="G99" t="s">
-        <v>126</v>
-      </c>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44753</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
       <c r="E100" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H100" t="s">
         <v>110</v>
@@ -6442,15 +6457,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44760</v>
+      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
       <c r="E101" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F101" t="s">
         <v>5</v>
@@ -6459,18 +6472,18 @@
         <v>126</v>
       </c>
       <c r="H101" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44746</v>
+        <v>44758</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
       <c r="E102" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s">
         <v>5</v>
@@ -6479,18 +6492,18 @@
         <v>126</v>
       </c>
       <c r="H102" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44745</v>
+        <v>44753</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
       <c r="E103" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F103" t="s">
         <v>5</v>
@@ -6504,34 +6517,35 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44740</v>
+        <v>44747</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
       <c r="E104" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F104" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
       </c>
       <c r="H104" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44738</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>44746</v>
+      </c>
+      <c r="B105" s="1"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
       <c r="E105" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F105" t="s">
         <v>5</v>
@@ -6540,42 +6554,43 @@
         <v>126</v>
       </c>
       <c r="H105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44734</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B106" s="1"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="1"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F106" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>126</v>
       </c>
       <c r="H106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44731</v>
+        <v>44740</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C107" s="5"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H107" t="s">
         <v>114</v>
@@ -6583,15 +6598,15 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44728</v>
+        <v>44738</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
       <c r="E108" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F108" t="s">
         <v>5</v>
@@ -6600,26 +6615,23 @@
         <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44727</v>
+        <v>44734</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D109" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="1"/>
       <c r="F109" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H109" t="s">
         <v>111</v>
@@ -6627,20 +6639,18 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44713</v>
+        <v>44731</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D110" s="7"/>
       <c r="E110" s="1"/>
       <c r="F110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H110" t="s">
         <v>114</v>
@@ -6648,15 +6658,15 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44709</v>
+        <v>44728</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
       <c r="E111" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -6665,18 +6675,20 @@
         <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B112" s="1"/>
+        <v>44727</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
       <c r="E112" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F112" t="s">
         <v>5</v>
@@ -6685,37 +6697,41 @@
         <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44703</v>
+        <v>44713</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D113" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B114" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
       <c r="E114" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F114" t="s">
         <v>5</v>
@@ -6729,139 +6745,137 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44698</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F115" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>126</v>
       </c>
       <c r="H115" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44697</v>
+        <v>44703</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D116" s="7"/>
-      <c r="E116" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E116" s="1"/>
       <c r="F116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44693</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="5"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F117" t="s">
         <v>5</v>
       </c>
+      <c r="G117" t="s">
+        <v>126</v>
+      </c>
       <c r="H117" t="s">
-        <v>110</v>
-      </c>
-      <c r="I117" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44689</v>
+        <v>44698</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D118" s="7"/>
       <c r="E118" s="1"/>
       <c r="F118" t="s">
         <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44686</v>
+        <v>44697</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
       <c r="E119" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="F119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44681</v>
+        <v>44693</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D120" s="7"/>
-      <c r="E120" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E120" s="1"/>
       <c r="F120" t="s">
         <v>5</v>
-      </c>
-      <c r="G120" t="s">
-        <v>126</v>
       </c>
       <c r="H120" t="s">
         <v>110</v>
       </c>
+      <c r="I120" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B121" s="1"/>
+        <v>44689</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D121" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="1"/>
       <c r="F121" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H121" t="s">
         <v>110</v>
@@ -6869,13 +6883,15 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44664</v>
-      </c>
-      <c r="B122" s="1"/>
+        <v>44686</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
       <c r="E122" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F122" t="s">
         <v>5</v>
@@ -6886,18 +6902,21 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44653</v>
+        <v>44681</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
       <c r="E123" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F123" t="s">
         <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>126</v>
       </c>
       <c r="H123" t="s">
         <v>110</v>
@@ -6905,67 +6924,66 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44650</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44680</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="7"/>
-      <c r="E124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F124" t="s">
         <v>5</v>
       </c>
+      <c r="G124" t="s">
+        <v>126</v>
+      </c>
       <c r="H124" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44647</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B125" s="1"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
       <c r="E125" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44630</v>
+        <v>44653</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C126" s="5"/>
-      <c r="D126" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="1"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44614</v>
+        <v>44650</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>132</v>
@@ -6976,258 +6994,255 @@
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44604</v>
+        <v>44647</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
       <c r="E128" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44600</v>
+        <v>44630</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D129" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E129" s="1"/>
       <c r="F129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H129" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44597</v>
+        <v>44614</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C130" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D130" s="7"/>
-      <c r="E130" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E130" s="1"/>
       <c r="F130" t="s">
         <v>5</v>
       </c>
       <c r="H130" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44595</v>
+        <v>44604</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
       <c r="E131" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F131" t="s">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44593</v>
+        <v>44600</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C132" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D132" s="7"/>
-      <c r="E132" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E132" s="1"/>
       <c r="F132" t="s">
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
       <c r="E133" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F133" t="s">
         <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44588</v>
+        <v>44595</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
       <c r="E134" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>110</v>
-      </c>
-      <c r="I134" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44585</v>
+        <v>44593</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C135" s="5"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F135" t="s">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>111</v>
-      </c>
-      <c r="I135" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44582</v>
+        <v>44590</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C136" s="5"/>
       <c r="D136" s="7"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F136" t="s">
         <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B137" s="1"/>
+        <v>44588</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H137" t="s">
         <v>110</v>
       </c>
+      <c r="I137" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44576</v>
+        <v>44585</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C138" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D138" s="7"/>
-      <c r="E138" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E138" s="1"/>
       <c r="F138" t="s">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="I138" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44575</v>
+        <v>44582</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D139" s="7"/>
-      <c r="E139" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E139" s="1"/>
       <c r="F139" t="s">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44567</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B140" s="1"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
       <c r="E140" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F140" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H140" t="s">
         <v>110</v>
@@ -7235,68 +7250,73 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44564</v>
+        <v>44576</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C141" s="5"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F141" t="s">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44558</v>
+        <v>44575</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C142" s="5"/>
       <c r="D142" s="7"/>
-      <c r="E142" s="1"/>
+      <c r="E142" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F142" t="s">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B143" s="1"/>
+        <v>44567</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
       <c r="E143" s="1" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="F143" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G143" t="s">
+        <v>121</v>
       </c>
       <c r="H143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44526</v>
+        <v>44564</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="1"/>
@@ -7304,23 +7324,23 @@
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44519</v>
+        <v>44558</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D145" s="7"/>
       <c r="E145" s="1"/>
       <c r="F145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H145" t="s">
         <v>114</v>
@@ -7328,13 +7348,13 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44507</v>
+        <v>44532</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
       <c r="E146" s="1" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F146" t="s">
         <v>5</v>
@@ -7345,70 +7365,65 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44495</v>
+        <v>44526</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="1"/>
       <c r="F147" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44487</v>
+        <v>44519</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C148" s="5"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D148" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E148" s="1"/>
       <c r="F148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H148" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44471</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="5"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F149" t="s">
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44462</v>
+        <v>44495</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>37</v>
@@ -7416,23 +7431,26 @@
       <c r="D150" s="7"/>
       <c r="E150" s="1"/>
       <c r="F150" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G150" t="s">
+        <v>121</v>
       </c>
       <c r="H150" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44446</v>
+        <v>44487</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
       <c r="E151" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F151" t="s">
         <v>5</v>
@@ -7440,16 +7458,13 @@
       <c r="H151" t="s">
         <v>111</v>
       </c>
-      <c r="I151" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44445</v>
+        <v>44471</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>132</v>
@@ -7457,32 +7472,26 @@
       <c r="D152" s="7"/>
       <c r="E152" s="1"/>
       <c r="F152" t="s">
-        <v>9</v>
-      </c>
-      <c r="G152" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44440</v>
+        <v>44462</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C153" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D153" s="7"/>
-      <c r="E153" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E153" s="1"/>
       <c r="F153" t="s">
-        <v>9</v>
-      </c>
-      <c r="G153" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H153" t="s">
         <v>111</v>
@@ -7490,38 +7499,38 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
       <c r="E154" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
-      </c>
-      <c r="G154" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H154" t="s">
         <v>111</v>
       </c>
+      <c r="I154" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44417</v>
+        <v>44445</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C155" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D155" s="7"/>
-      <c r="E155" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E155" s="1"/>
       <c r="F155" t="s">
         <v>9</v>
       </c>
@@ -7529,12 +7538,78 @@
         <v>121</v>
       </c>
       <c r="H155" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" t="s">
+        <v>121</v>
+      </c>
+      <c r="H156" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" t="s">
+        <v>121</v>
+      </c>
+      <c r="H157" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" t="s">
+        <v>121</v>
+      </c>
+      <c r="H158" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D119 D121:D1048576">
+  <conditionalFormatting sqref="D1:D122 D124:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F930FEFA-BB57-403D-851B-026BE9ADFC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E2940-50F0-44A4-8BC7-D09808CC5EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="231">
   <si>
     <t>Fecha</t>
   </si>
@@ -724,6 +724,15 @@
   </si>
   <si>
     <t>Lago Calima</t>
+  </si>
+  <si>
+    <t>Rayo de luz sobre mano</t>
+  </si>
+  <si>
+    <t>wellbeeart</t>
+  </si>
+  <si>
+    <t>Anatomía</t>
   </si>
 </sst>
 </file>
@@ -3831,140 +3840,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -4103,11 +3978,145 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I158" totalsRowShown="0">
-  <autoFilter ref="A1:I158" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I158">
-    <sortCondition descending="1" ref="A1:A158"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I159" totalsRowShown="0">
+  <autoFilter ref="A1:I159" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I159">
+    <sortCondition descending="1" ref="A1:A159"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4387,10 +4396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4437,151 +4446,151 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45234</v>
+        <v>45244</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45225</v>
+        <v>45234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45213</v>
+        <v>45225</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45193</v>
+        <v>45213</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45188</v>
+        <v>45193</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45179</v>
+        <v>45188</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>111</v>
@@ -4589,51 +4598,51 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45150</v>
+        <v>45170</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45148</v>
+        <v>45150</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45139</v>
+        <v>45148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
@@ -4641,23 +4650,23 @@
         <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45120</v>
+        <v>45139</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
         <v>111</v>
@@ -4665,21 +4674,18 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>186</v>
       </c>
       <c r="H14" t="s">
         <v>111</v>
@@ -4687,59 +4693,59 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
+      <c r="G15" t="s">
+        <v>186</v>
+      </c>
       <c r="H15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>186</v>
       </c>
       <c r="H16" t="s">
         <v>110</v>
       </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -4753,15 +4759,15 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
@@ -4775,15 +4781,15 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -4792,20 +4798,20 @@
         <v>186</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -4814,15 +4820,15 @@
         <v>186</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -4841,10 +4847,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -4863,15 +4869,15 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45065</v>
+        <v>45067</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4880,15 +4886,15 @@
         <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -4907,56 +4913,56 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45059</v>
+        <v>45061</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
-      <c r="G26" t="s">
-        <v>186</v>
-      </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -4965,20 +4971,20 @@
         <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -4987,59 +4993,59 @@
         <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45052</v>
+        <v>45056</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
+      <c r="G29" t="s">
+        <v>186</v>
+      </c>
       <c r="H29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -5049,132 +5055,137 @@
       <c r="F31" t="s">
         <v>5</v>
       </c>
-      <c r="G31" t="s">
-        <v>186</v>
-      </c>
       <c r="H31" t="s">
         <v>110</v>
       </c>
+      <c r="I31" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
       <c r="H32" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
       </c>
-      <c r="G33" t="s">
-        <v>186</v>
-      </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45036</v>
+        <v>45038</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
-      </c>
-      <c r="I34" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
         <v>110</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" t="s">
         <v>5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>126</v>
       </c>
       <c r="H36" t="s">
         <v>110</v>
       </c>
+      <c r="I36" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F37" t="s">
         <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
       </c>
       <c r="H37" t="s">
         <v>110</v>
@@ -5182,10 +5193,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -5193,19 +5204,16 @@
       <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="G38" t="s">
-        <v>126</v>
-      </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -5213,16 +5221,19 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
+      <c r="G39" t="s">
+        <v>126</v>
+      </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -5230,68 +5241,63 @@
       <c r="F40" t="s">
         <v>5</v>
       </c>
-      <c r="G40" t="s">
-        <v>126</v>
-      </c>
       <c r="H40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
         <v>5</v>
       </c>
+      <c r="G41" t="s">
+        <v>126</v>
+      </c>
       <c r="H41" t="s">
         <v>110</v>
       </c>
-      <c r="I41" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" t="s">
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
@@ -5299,21 +5305,24 @@
       <c r="H43" t="s">
         <v>111</v>
       </c>
+      <c r="I43" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="1"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
         <v>111</v>
@@ -5321,81 +5330,81 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="1"/>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I46" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-      <c r="G47" t="s">
-        <v>126</v>
-      </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I47" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44973</v>
+        <v>44982</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F48" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>126</v>
       </c>
       <c r="H48" t="s">
         <v>111</v>
@@ -5403,32 +5412,29 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44962</v>
+        <v>44973</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -5447,29 +5453,32 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="1"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F51" t="s">
         <v>5</v>
       </c>
+      <c r="G51" t="s">
+        <v>126</v>
+      </c>
       <c r="H51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44955</v>
+        <v>44959</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7" t="s">
@@ -5477,67 +5486,64 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44947</v>
+        <v>44955</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44945</v>
+        <v>44947</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="1"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
         <v>4</v>
@@ -5546,12 +5552,12 @@
         <v>110</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>13</v>
@@ -5573,52 +5579,52 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44942</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="1"/>
       <c r="F57" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H57" t="s">
         <v>110</v>
       </c>
+      <c r="I57" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F58" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>126</v>
       </c>
       <c r="H58" t="s">
-        <v>111</v>
-      </c>
-      <c r="I58" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="1"/>
@@ -5634,38 +5640,38 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>44932</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C60" s="5" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I60" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E61" s="1"/>
       <c r="F61" t="s">
         <v>5</v>
-      </c>
-      <c r="G61" t="s">
-        <v>126</v>
       </c>
       <c r="H61" t="s">
         <v>110</v>
@@ -5673,70 +5679,73 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>126</v>
       </c>
       <c r="H62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D63" s="7"/>
-      <c r="E63" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="1"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>126</v>
       </c>
       <c r="H64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7" t="s">
@@ -5744,43 +5753,43 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H65" t="s">
-        <v>114</v>
-      </c>
-      <c r="I65" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44912</v>
+        <v>44918</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44903</v>
+        <v>44912</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="1"/>
@@ -5788,59 +5797,56 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>114</v>
-      </c>
-      <c r="I67" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44896</v>
+        <v>44903</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="7"/>
       <c r="E68" s="1"/>
       <c r="F68" t="s">
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44879</v>
+        <v>44896</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D69" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" t="s">
         <v>5</v>
       </c>
-      <c r="G69" t="s">
-        <v>126</v>
-      </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -5859,10 +5865,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -5881,10 +5887,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44869</v>
+        <v>44877</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -5894,46 +5900,49 @@
       <c r="F72" t="s">
         <v>5</v>
       </c>
+      <c r="G72" t="s">
+        <v>126</v>
+      </c>
       <c r="H72" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44864</v>
+        <v>44869</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
       <c r="E73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F73" t="s">
         <v>5</v>
       </c>
-      <c r="G73" t="s">
-        <v>126</v>
-      </c>
       <c r="H73" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44858</v>
+        <v>44864</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="1"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>126</v>
       </c>
       <c r="H74" t="s">
         <v>111</v>
@@ -5941,167 +5950,167 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D75" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="1"/>
       <c r="F75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B76" s="1"/>
+        <v>44856</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
       <c r="E76" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F76" t="s">
         <v>5</v>
       </c>
-      <c r="G76" t="s">
-        <v>126</v>
-      </c>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44850</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>126</v>
       </c>
       <c r="H77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44845</v>
+        <v>44850</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="1"/>
       <c r="F78" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44843</v>
+        <v>44845</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E79" s="1"/>
       <c r="F79" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C80" s="5"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F80" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>126</v>
       </c>
       <c r="H80" t="s">
         <v>111</v>
       </c>
-      <c r="I80" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="5"/>
+        <v>44840</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D81" s="7"/>
-      <c r="E81" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E81" s="1"/>
       <c r="F81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="I81" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="1"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F82" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="7" t="s">
@@ -6109,18 +6118,18 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="7" t="s">
@@ -6131,32 +6140,31 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="5"/>
@@ -6176,29 +6184,30 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F87" t="s">
         <v>5</v>
       </c>
+      <c r="G87" t="s">
+        <v>126</v>
+      </c>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>37</v>
@@ -6209,18 +6218,15 @@
         <v>5</v>
       </c>
       <c r="H88" t="s">
-        <v>110</v>
-      </c>
-      <c r="I88" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>37</v>
@@ -6234,46 +6240,48 @@
         <v>110</v>
       </c>
       <c r="I89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D90" s="7"/>
       <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I90" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D91" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H91" t="s">
         <v>111</v>
@@ -6281,13 +6289,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44815</v>
+        <v>44821</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
       <c r="E92" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
         <v>5</v>
@@ -6301,13 +6309,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
       <c r="E93" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -6316,21 +6324,19 @@
         <v>126</v>
       </c>
       <c r="H93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F94" t="s">
         <v>5</v>
       </c>
@@ -6338,152 +6344,154 @@
         <v>126</v>
       </c>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D95" s="7"/>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>126</v>
       </c>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="7"/>
+        <v>44793</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
       </c>
       <c r="H97" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44784</v>
+        <v>44790</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C98" s="5"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F98" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>44784</v>
+      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="1"/>
       <c r="F99" t="s">
         <v>5</v>
       </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44770</v>
+        <v>44782</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D100" s="7"/>
-      <c r="E100" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E100" s="1"/>
       <c r="F100" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H100" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
       <c r="E101" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
       <c r="E102" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F102" t="s">
         <v>5</v>
@@ -6497,13 +6505,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44753</v>
+        <v>44758</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
       <c r="E103" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F103" t="s">
         <v>5</v>
@@ -6512,20 +6520,18 @@
         <v>126</v>
       </c>
       <c r="H103" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="B104" s="1"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
       <c r="E104" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F104" t="s">
         <v>5</v>
@@ -6534,14 +6540,16 @@
         <v>126</v>
       </c>
       <c r="H104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B105" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
       <c r="E105" s="1" t="s">
@@ -6554,12 +6562,12 @@
         <v>126</v>
       </c>
       <c r="H105" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
@@ -6579,59 +6587,60 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B107" s="1"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
       <c r="E107" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F107" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44738</v>
+        <v>44740</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
       <c r="E108" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F108" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H108" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E109" s="1"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F109" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
       </c>
       <c r="H109" t="s">
         <v>111</v>
@@ -6639,56 +6648,53 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44731</v>
+        <v>44734</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D110" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44728</v>
+        <v>44731</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E111" s="1"/>
       <c r="F111" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H111" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
       <c r="E112" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
         <v>5</v>
@@ -6697,61 +6703,63 @@
         <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44713</v>
+        <v>44727</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F113" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>126</v>
       </c>
       <c r="H113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44709</v>
+        <v>44713</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="1"/>
       <c r="F114" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B115" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
       <c r="E115" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -6760,173 +6768,173 @@
         <v>126</v>
       </c>
       <c r="H115" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44703</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="7"/>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F116" t="s">
         <v>5</v>
       </c>
+      <c r="G116" t="s">
+        <v>126</v>
+      </c>
       <c r="H116" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="5"/>
+        <v>44703</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D117" s="7"/>
-      <c r="E117" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E117" s="1"/>
       <c r="F117" t="s">
         <v>5</v>
       </c>
-      <c r="G117" t="s">
-        <v>126</v>
-      </c>
       <c r="H117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44698</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="5"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F118" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>126</v>
       </c>
       <c r="H118" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D119" s="7"/>
-      <c r="E119" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E119" s="1"/>
       <c r="F119" t="s">
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C120" s="5"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>110</v>
-      </c>
-      <c r="I120" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44689</v>
+        <v>44693</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" s="7"/>
       <c r="E121" s="1"/>
       <c r="F121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H121" t="s">
         <v>110</v>
       </c>
+      <c r="I121" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D122" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="1"/>
       <c r="F122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
       <c r="E123" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F123" t="s">
         <v>5</v>
       </c>
-      <c r="G123" t="s">
-        <v>126</v>
-      </c>
       <c r="H123" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B124" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
       <c r="E124" s="1" t="s">
@@ -6944,198 +6952,199 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44664</v>
+        <v>44680</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
       <c r="E125" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
       </c>
+      <c r="G125" t="s">
+        <v>126</v>
+      </c>
       <c r="H125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B126" s="1"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
       <c r="E126" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C127" s="5"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F127" t="s">
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C128" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D128" s="7"/>
-      <c r="E128" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E128" s="1"/>
       <c r="F128" t="s">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44630</v>
+        <v>44647</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C129" s="5"/>
-      <c r="D129" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E129" s="1"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44614</v>
+        <v>44630</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D130" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E130" s="1"/>
       <c r="F130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44604</v>
+        <v>44614</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C131" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D131" s="7"/>
-      <c r="E131" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E131" s="1"/>
       <c r="F131" t="s">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44600</v>
+        <v>44604</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F132" t="s">
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44597</v>
+        <v>44600</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D133" s="7"/>
-      <c r="E133" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E133" s="1"/>
       <c r="F133" t="s">
         <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
       <c r="E134" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -7146,81 +7155,78 @@
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
         <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>110</v>
-      </c>
-      <c r="I137" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C138" s="5"/>
       <c r="D138" s="7"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F138" t="s">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I138" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="1"/>
@@ -7228,70 +7234,73 @@
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="I139" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="5"/>
+        <v>44582</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D140" s="7"/>
-      <c r="E140" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E140" s="1"/>
       <c r="F140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B141" s="1"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
       <c r="E141" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
       <c r="E142" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F142" t="s">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -7299,10 +7308,7 @@
         <v>85</v>
       </c>
       <c r="F143" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H143" t="s">
         <v>110</v>
@@ -7310,18 +7316,21 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="7"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F144" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G144" t="s">
+        <v>121</v>
       </c>
       <c r="H144" t="s">
         <v>110</v>
@@ -7329,13 +7338,13 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44558</v>
+        <v>44564</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="1"/>
@@ -7343,38 +7352,38 @@
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="5"/>
+        <v>44558</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D146" s="7"/>
-      <c r="E146" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E146" s="1"/>
       <c r="F146" t="s">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44526</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="5"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F147" t="s">
         <v>5</v>
       </c>
@@ -7384,109 +7393,109 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D148" s="7"/>
       <c r="E148" s="1"/>
       <c r="F148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B149" s="1"/>
+        <v>44519</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D149" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E149" s="1"/>
       <c r="F149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H149" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44495</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="5"/>
       <c r="D150" s="7"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F150" t="s">
-        <v>9</v>
-      </c>
-      <c r="G150" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D151" s="7"/>
-      <c r="E151" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E151" s="1"/>
       <c r="F151" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G151" t="s">
+        <v>121</v>
       </c>
       <c r="H151" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C152" s="5"/>
       <c r="D152" s="7"/>
-      <c r="E152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F152" t="s">
         <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44462</v>
+        <v>44471</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="1"/>
@@ -7494,65 +7503,62 @@
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44446</v>
+        <v>44462</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C154" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D154" s="7"/>
-      <c r="E154" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E154" s="1"/>
       <c r="F154" t="s">
         <v>5</v>
       </c>
       <c r="H154" t="s">
         <v>111</v>
       </c>
-      <c r="I154" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C155" s="5"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="1"/>
+      <c r="E155" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F155" t="s">
-        <v>9</v>
-      </c>
-      <c r="G155" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H155" t="s">
         <v>111</v>
       </c>
+      <c r="I155" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C156" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D156" s="7"/>
-      <c r="E156" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E156" s="1"/>
       <c r="F156" t="s">
         <v>9</v>
       </c>
@@ -7565,15 +7571,15 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44418</v>
+        <v>44440</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
       <c r="E157" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F157" t="s">
         <v>9</v>
@@ -7587,10 +7593,10 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -7604,12 +7610,34 @@
         <v>121</v>
       </c>
       <c r="H158" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" t="s">
+        <v>121</v>
+      </c>
+      <c r="H159" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D122 D124:D1048576">
+  <conditionalFormatting sqref="D1:D123 D125:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E2940-50F0-44A4-8BC7-D09808CC5EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D102236-9BEA-439B-9F52-B757E47F9E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="234">
   <si>
     <t>Fecha</t>
   </si>
@@ -733,6 +733,15 @@
   </si>
   <si>
     <t>Anatomía</t>
+  </si>
+  <si>
+    <t>Acróbata</t>
+  </si>
+  <si>
+    <t>Roger Penrose</t>
+  </si>
+  <si>
+    <t>Pablo Cuartas</t>
   </si>
 </sst>
 </file>
@@ -3840,6 +3849,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -3978,145 +4121,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I159" totalsRowShown="0">
-  <autoFilter ref="A1:I159" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I159">
-    <sortCondition descending="1" ref="A1:A159"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I161" totalsRowShown="0">
+  <autoFilter ref="A1:I161" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I161">
+    <sortCondition descending="1" ref="A1:A161"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4396,10 +4405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I157" sqref="A157:I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4446,18 +4455,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45244</v>
+        <v>45265</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>230</v>
@@ -4465,32 +4472,33 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45234</v>
+        <v>45264</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="I3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45225</v>
+        <v>45244</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
@@ -4498,42 +4506,42 @@
         <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45213</v>
+        <v>45234</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45193</v>
+        <v>45225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
         <v>111</v>
@@ -4541,18 +4549,18 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45188</v>
+        <v>45213</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>110</v>
@@ -4560,89 +4568,89 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45179</v>
+        <v>45193</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45178</v>
+        <v>45188</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45170</v>
+        <v>45179</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45150</v>
+        <v>45178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45148</v>
+        <v>45170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
@@ -4650,64 +4658,61 @@
         <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45139</v>
+        <v>45150</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45120</v>
+        <v>45148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45110</v>
+        <v>45139</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H15" t="s">
         <v>111</v>
@@ -4715,37 +4720,34 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45105</v>
+        <v>45120</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45099</v>
+        <v>45110</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -4754,15 +4756,15 @@
         <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -4772,24 +4774,24 @@
       <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="s">
-        <v>186</v>
-      </c>
       <c r="H18" t="s">
         <v>110</v>
       </c>
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -4803,15 +4805,15 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -4820,20 +4822,20 @@
         <v>186</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45072</v>
+        <v>45084</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -4847,15 +4849,15 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45069</v>
+        <v>45079</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
@@ -4864,15 +4866,15 @@
         <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45067</v>
+        <v>45072</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -4891,15 +4893,15 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
@@ -4908,20 +4910,20 @@
         <v>186</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45063</v>
+        <v>45067</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
@@ -4930,39 +4932,42 @@
         <v>186</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45061</v>
+        <v>45065</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
+      <c r="G26" t="s">
+        <v>186</v>
+      </c>
       <c r="H26" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45059</v>
+        <v>45063</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -4971,26 +4976,23 @@
         <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>186</v>
       </c>
       <c r="H28" t="s">
         <v>119</v>
@@ -4998,15 +5000,15 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45056</v>
+        <v>45059</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -5015,105 +5017,105 @@
         <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45052</v>
+        <v>45058</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>186</v>
       </c>
       <c r="H30" t="s">
         <v>119</v>
       </c>
-      <c r="I30" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45047</v>
+        <v>45056</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
+      <c r="G31" t="s">
+        <v>186</v>
+      </c>
       <c r="H31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45046</v>
+        <v>45052</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
-      <c r="G32" t="s">
-        <v>186</v>
-      </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I32" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45039</v>
+        <v>45047</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45038</v>
+        <v>45046</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -5122,83 +5124,82 @@
         <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45030</v>
+        <v>45038</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
+      <c r="G36" t="s">
+        <v>186</v>
+      </c>
       <c r="H36" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45023</v>
+        <v>45036</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="F37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
         <v>110</v>
       </c>
+      <c r="I37" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45018</v>
+        <v>45030</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D38" s="7"/>
       <c r="E38" s="1"/>
       <c r="F38" t="s">
@@ -5207,17 +5208,22 @@
       <c r="H38" t="s">
         <v>110</v>
       </c>
+      <c r="I38" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45017</v>
+        <v>45023</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
@@ -5225,15 +5231,15 @@
         <v>126</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45011</v>
+        <v>45018</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -5247,10 +5253,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -5262,19 +5268,17 @@
         <v>126</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45009</v>
+        <v>45011</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="1"/>
       <c r="F42" t="s">
@@ -5283,163 +5287,161 @@
       <c r="H42" t="s">
         <v>110</v>
       </c>
-      <c r="I42" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45008</v>
+        <v>45010</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" t="s">
         <v>5</v>
       </c>
+      <c r="G43" t="s">
+        <v>126</v>
+      </c>
       <c r="H43" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" t="s">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I44" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45004</v>
+        <v>45008</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="1"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H45" t="s">
         <v>111</v>
       </c>
+      <c r="I45" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F46" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>44987</v>
+        <v>45004</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I47" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>44982</v>
+        <v>45001</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44973</v>
+        <v>44987</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="1"/>
       <c r="F49" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I49" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44962</v>
+        <v>44982</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
       <c r="E50" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -5448,64 +5450,67 @@
         <v>126</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44961</v>
+        <v>44973</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D51" s="7"/>
-      <c r="E51" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44959</v>
+        <v>44962</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="1"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F52" t="s">
         <v>5</v>
       </c>
+      <c r="G52" t="s">
+        <v>126</v>
+      </c>
       <c r="H52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44955</v>
+        <v>44961</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="1"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F53" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>126</v>
       </c>
       <c r="H53" t="s">
         <v>110</v>
@@ -5513,32 +5518,29 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44947</v>
+        <v>44959</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="F54" t="s">
         <v>5</v>
       </c>
       <c r="H54" t="s">
         <v>111</v>
       </c>
-      <c r="I54" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44945</v>
+        <v>44955</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="7" t="s">
@@ -5546,48 +5548,45 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="H55" t="s">
         <v>110</v>
       </c>
-      <c r="I55" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44943</v>
+        <v>44947</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C56" s="5"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" t="s">
         <v>4</v>
@@ -5596,35 +5595,40 @@
         <v>110</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44943</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
         <v>110</v>
       </c>
+      <c r="I58" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="1"/>
@@ -5632,98 +5636,96 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I59" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>126</v>
       </c>
       <c r="H60" t="s">
-        <v>111</v>
-      </c>
-      <c r="I60" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>44937</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C61" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="1"/>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I61" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44928</v>
+        <v>44932</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D62" s="7"/>
-      <c r="E62" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E62" s="1"/>
       <c r="F62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I62" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44924</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>44930</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="1"/>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44922</v>
+        <v>44928</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -5742,59 +5744,59 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44920</v>
+        <v>44924</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="7"/>
       <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="1"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
+      <c r="G66" t="s">
+        <v>126</v>
+      </c>
       <c r="H66" t="s">
-        <v>114</v>
-      </c>
-      <c r="I66" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44912</v>
+        <v>44920</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H67" t="s">
         <v>111</v>
@@ -5802,15 +5804,15 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44903</v>
+        <v>44918</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" t="s">
         <v>5</v>
@@ -5819,20 +5821,20 @@
         <v>114</v>
       </c>
       <c r="I68" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44896</v>
+        <v>44912</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="7"/>
       <c r="E69" s="1"/>
       <c r="F69" t="s">
         <v>5</v>
@@ -5843,54 +5845,51 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44879</v>
+        <v>44903</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E70" s="1"/>
       <c r="F70" t="s">
         <v>5</v>
       </c>
-      <c r="G70" t="s">
-        <v>126</v>
-      </c>
       <c r="H70" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="I70" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44878</v>
+        <v>44896</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D71" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="1"/>
       <c r="F71" t="s">
         <v>5</v>
       </c>
-      <c r="G71" t="s">
-        <v>126</v>
-      </c>
       <c r="H71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44877</v>
+        <v>44879</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -5909,10 +5908,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44869</v>
+        <v>44878</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -5922,21 +5921,24 @@
       <c r="F73" t="s">
         <v>5</v>
       </c>
+      <c r="G73" t="s">
+        <v>126</v>
+      </c>
       <c r="H73" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44864</v>
+        <v>44877</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
       <c r="E74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
         <v>5</v>
@@ -5945,62 +5947,64 @@
         <v>126</v>
       </c>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44858</v>
+        <v>44869</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="1"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44856</v>
+        <v>44864</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
       <c r="E76" s="1" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="F76" t="s">
         <v>5</v>
       </c>
+      <c r="G76" t="s">
+        <v>126</v>
+      </c>
       <c r="H76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B77" s="1"/>
+        <v>44858</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H77" t="s">
         <v>111</v>
@@ -6008,73 +6012,71 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44850</v>
+        <v>44856</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C78" s="5"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F79" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>126</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44843</v>
+        <v>44850</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D80" s="7"/>
-      <c r="E80" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E80" s="1"/>
       <c r="F80" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44840</v>
+        <v>44845</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="1"/>
@@ -6082,73 +6084,76 @@
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
-      </c>
-      <c r="I81" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B82" s="1"/>
+        <v>44843</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
       <c r="E82" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
         <v>5</v>
       </c>
+      <c r="G82" t="s">
+        <v>126</v>
+      </c>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44834</v>
+        <v>44840</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D83" s="7"/>
       <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="I83" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44833</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" s="1"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44831</v>
+        <v>44834</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="7" t="s">
@@ -6156,99 +6161,96 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>44833</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D86" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D87" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44827</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F88" t="s">
         <v>5</v>
       </c>
+      <c r="G88" t="s">
+        <v>126</v>
+      </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44824</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F89" t="s">
         <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>126</v>
       </c>
       <c r="H89" t="s">
         <v>110</v>
       </c>
-      <c r="I89" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44823</v>
+        <v>44825</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>37</v>
@@ -6259,69 +6261,70 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>110</v>
-      </c>
-      <c r="I90" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44822</v>
+        <v>44824</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D91" s="7"/>
       <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I91" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="5"/>
+        <v>44823</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D92" s="7"/>
-      <c r="E92" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E92" s="1"/>
       <c r="F92" t="s">
         <v>5</v>
       </c>
-      <c r="G92" t="s">
-        <v>126</v>
-      </c>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I92" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44815</v>
-      </c>
-      <c r="B93" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D93" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H93" t="s">
         <v>111</v>
@@ -6329,13 +6332,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
       <c r="E94" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
         <v>5</v>
@@ -6344,21 +6347,19 @@
         <v>126</v>
       </c>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44815</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F95" t="s">
         <v>5</v>
       </c>
@@ -6371,18 +6372,19 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44801</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="1"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F96" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
       </c>
       <c r="H96" t="s">
         <v>110</v>
@@ -6390,11 +6392,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44808</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="1"/>
       <c r="F97" t="s">
         <v>5</v>
       </c>
@@ -6402,21 +6409,23 @@
         <v>126</v>
       </c>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B98" s="1"/>
+        <v>44801</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D98" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="1"/>
       <c r="F98" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H98" t="s">
         <v>110</v>
@@ -6424,14 +6433,11 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="1"/>
+        <v>44793</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F99" t="s">
         <v>5</v>
       </c>
@@ -6439,99 +6445,96 @@
         <v>126</v>
       </c>
       <c r="H99" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44790</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44770</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="5"/>
+        <v>44784</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D101" s="7"/>
-      <c r="E101" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H101" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="5"/>
+        <v>44782</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D102" s="7"/>
-      <c r="E102" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E102" s="1"/>
       <c r="F102" t="s">
         <v>5</v>
       </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
       <c r="H102" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44758</v>
-      </c>
-      <c r="B103" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
       <c r="E103" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H103" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44753</v>
+        <v>44760</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
       <c r="E104" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F104" t="s">
         <v>5</v>
@@ -6540,20 +6543,18 @@
         <v>126</v>
       </c>
       <c r="H104" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44758</v>
+      </c>
+      <c r="B105" s="1"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
       <c r="E105" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F105" t="s">
         <v>5</v>
@@ -6562,18 +6563,18 @@
         <v>126</v>
       </c>
       <c r="H105" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44746</v>
+        <v>44753</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
       <c r="E106" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F106" t="s">
         <v>5</v>
@@ -6587,9 +6588,11 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44745</v>
-      </c>
-      <c r="B107" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
       <c r="E107" s="1" t="s">
@@ -6602,39 +6605,38 @@
         <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44746</v>
+      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
       <c r="E108" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F108" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44738</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B109" s="1"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
       <c r="E109" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -6643,123 +6645,121 @@
         <v>126</v>
       </c>
       <c r="H109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44734</v>
+        <v>44740</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E110" s="1"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F110" t="s">
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44731</v>
+        <v>44738</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C111" s="5"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F111" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44728</v>
+        <v>44734</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D112" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="1"/>
       <c r="F112" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44727</v>
+        <v>44731</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C113" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D113" s="7"/>
-      <c r="E113" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E113" s="1"/>
       <c r="F113" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H113" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44713</v>
+        <v>44728</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F114" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>126</v>
       </c>
       <c r="H114" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44709</v>
+        <v>44727</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
       <c r="E115" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -6773,52 +6773,56 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>44713</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="1"/>
       <c r="F116" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H116" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44703</v>
+        <v>44709</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C117" s="5"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F117" t="s">
         <v>5</v>
       </c>
+      <c r="G117" t="s">
+        <v>126</v>
+      </c>
       <c r="H117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44702</v>
+        <v>44705</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
@@ -6827,124 +6831,122 @@
         <v>126</v>
       </c>
       <c r="H118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="1"/>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44697</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B120" s="1"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
       <c r="E120" s="1" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="F120" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>126</v>
       </c>
       <c r="H120" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="1"/>
       <c r="F121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>110</v>
-      </c>
-      <c r="I121" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44689</v>
+        <v>44697</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="1"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F122" t="s">
         <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C123" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D123" s="7"/>
-      <c r="E123" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E123" s="1"/>
       <c r="F123" t="s">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I123" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D124" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="1"/>
       <c r="F124" t="s">
-        <v>5</v>
-      </c>
-      <c r="G124" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H124" t="s">
         <v>110</v>
@@ -6952,55 +6954,60 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B125" s="1"/>
+        <v>44686</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
       <c r="E125" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
       </c>
-      <c r="G125" t="s">
-        <v>126</v>
-      </c>
       <c r="H125" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44664</v>
-      </c>
-      <c r="B126" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
       <c r="E126" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
       </c>
+      <c r="G126" t="s">
+        <v>126</v>
+      </c>
       <c r="H126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44680</v>
+      </c>
+      <c r="B127" s="1"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
       <c r="E127" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F127" t="s">
         <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>126</v>
       </c>
       <c r="H127" t="s">
         <v>110</v>
@@ -7008,34 +7015,32 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44650</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="7"/>
-      <c r="E128" s="1"/>
+      <c r="E128" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44647</v>
+        <v>44653</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
       <c r="E129" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
         <v>5</v>
@@ -7046,56 +7051,56 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44630</v>
+        <v>44650</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" s="7"/>
       <c r="E130" s="1"/>
       <c r="F130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H130" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44614</v>
+        <v>44647</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C131" s="5"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F131" t="s">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44604</v>
+        <v>44630</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C132" s="5"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D132" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="1"/>
       <c r="F132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H132" t="s">
         <v>111</v>
@@ -7103,10 +7108,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44600</v>
+        <v>44614</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>132</v>
@@ -7117,20 +7122,20 @@
         <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44597</v>
+        <v>44604</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
       <c r="E134" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
@@ -7141,72 +7146,72 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44595</v>
+        <v>44600</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C135" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D135" s="7"/>
-      <c r="E135" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E135" s="1"/>
       <c r="F135" t="s">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44593</v>
+        <v>44597</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F136" t="s">
         <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44590</v>
+        <v>44595</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44588</v>
+        <v>44593</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
       <c r="E138" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -7214,101 +7219,101 @@
       <c r="H138" t="s">
         <v>110</v>
       </c>
-      <c r="I138" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44585</v>
+        <v>44590</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C139" s="5"/>
       <c r="D139" s="7"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F139" t="s">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>111</v>
-      </c>
-      <c r="I139" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44582</v>
+        <v>44588</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C140" s="5"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="I140" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="5"/>
+        <v>44585</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D141" s="7"/>
-      <c r="E141" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E141" s="1"/>
       <c r="F141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I141" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44576</v>
+        <v>44582</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C142" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D142" s="7"/>
-      <c r="E142" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E142" s="1"/>
       <c r="F142" t="s">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44575</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B143" s="1"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
       <c r="E143" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H143" t="s">
         <v>110</v>
@@ -7316,38 +7321,35 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44567</v>
+        <v>44576</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
       <c r="E144" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
-      </c>
-      <c r="G144" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44564</v>
+        <v>44575</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C145" s="5"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F145" t="s">
         <v>5</v>
       </c>
@@ -7357,46 +7359,51 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44558</v>
+        <v>44567</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C146" s="5"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F146" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G146" t="s">
+        <v>121</v>
       </c>
       <c r="H146" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="5"/>
+        <v>44564</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E147" s="1"/>
       <c r="F147" t="s">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44526</v>
+        <v>44558</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>132</v>
@@ -7407,38 +7414,38 @@
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44519</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B149" s="1"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E149" s="1"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="5"/>
+        <v>44526</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D150" s="7"/>
-      <c r="E150" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E150" s="1"/>
       <c r="F150" t="s">
         <v>5</v>
       </c>
@@ -7448,21 +7455,18 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C151" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D151" s="7"/>
       <c r="E151" s="1"/>
       <c r="F151" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H151" t="s">
         <v>114</v>
@@ -7470,15 +7474,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44487</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B152" s="1"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
       <c r="E152" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F152" t="s">
         <v>5</v>
@@ -7489,35 +7491,38 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44471</v>
+        <v>44495</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="1"/>
       <c r="F153" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G153" t="s">
+        <v>121</v>
       </c>
       <c r="H153" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44462</v>
+        <v>44487</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C154" s="5"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F154" t="s">
         <v>5</v>
       </c>
@@ -7527,43 +7532,37 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44446</v>
+        <v>44471</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C155" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D155" s="7"/>
-      <c r="E155" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E155" s="1"/>
       <c r="F155" t="s">
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>111</v>
-      </c>
-      <c r="I155" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44445</v>
+        <v>44462</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="1"/>
       <c r="F156" t="s">
-        <v>9</v>
-      </c>
-      <c r="G156" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H156" t="s">
         <v>111</v>
@@ -7571,10 +7570,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -7582,27 +7581,27 @@
         <v>61</v>
       </c>
       <c r="F157" t="s">
-        <v>9</v>
-      </c>
-      <c r="G157" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H157" t="s">
         <v>111</v>
       </c>
+      <c r="I157" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44418</v>
+        <v>44445</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C158" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D158" s="7"/>
-      <c r="E158" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E158" s="1"/>
       <c r="F158" t="s">
         <v>9</v>
       </c>
@@ -7615,15 +7614,15 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44417</v>
+        <v>44440</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
       <c r="E159" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F159" t="s">
         <v>9</v>
@@ -7632,12 +7631,56 @@
         <v>121</v>
       </c>
       <c r="H159" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" t="s">
+        <v>121</v>
+      </c>
+      <c r="H160" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" t="s">
+        <v>121</v>
+      </c>
+      <c r="H161" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D123 D125:D1048576">
+  <conditionalFormatting sqref="D1:D125 D127:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D102236-9BEA-439B-9F52-B757E47F9E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FCF6B8-8D44-4698-98D3-BA242495AFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="236">
   <si>
     <t>Fecha</t>
   </si>
@@ -742,6 +742,12 @@
   </si>
   <si>
     <t>Pablo Cuartas</t>
+  </si>
+  <si>
+    <t>Río San Rafael</t>
+  </si>
+  <si>
+    <t>San Rafael</t>
   </si>
 </sst>
 </file>
@@ -3849,140 +3855,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -4121,11 +3993,145 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I161" totalsRowShown="0">
-  <autoFilter ref="A1:I161" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I161">
-    <sortCondition descending="1" ref="A1:A161"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I162" totalsRowShown="0">
+  <autoFilter ref="A1:I162" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I162">
+    <sortCondition descending="1" ref="A1:A162"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4405,10 +4411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I157" sqref="A157:I157"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4455,207 +4461,216 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45265</v>
+        <v>45286</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45244</v>
+        <v>45264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>114</v>
+      </c>
+      <c r="I4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45234</v>
+        <v>45244</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45225</v>
+        <v>45234</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45213</v>
+        <v>45225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45193</v>
+        <v>45213</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45188</v>
+        <v>45193</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45179</v>
+        <v>45188</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
         <v>111</v>
@@ -4663,51 +4678,51 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45150</v>
+        <v>45170</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45148</v>
+        <v>45150</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45139</v>
+        <v>45148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
@@ -4715,23 +4730,23 @@
         <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45120</v>
+        <v>45139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
         <v>111</v>
@@ -4739,21 +4754,18 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" t="s">
         <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>186</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
@@ -4761,59 +4773,59 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
+      <c r="G18" t="s">
+        <v>186</v>
+      </c>
       <c r="H18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>186</v>
       </c>
       <c r="H19" t="s">
         <v>110</v>
       </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -4827,15 +4839,15 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -4849,15 +4861,15 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
@@ -4866,20 +4878,20 @@
         <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4888,15 +4900,15 @@
         <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -4915,10 +4927,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -4937,15 +4949,15 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45065</v>
+        <v>45067</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -4954,15 +4966,15 @@
         <v>186</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -4981,56 +4993,56 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
       </c>
+      <c r="G28" t="s">
+        <v>186</v>
+      </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45059</v>
+        <v>45061</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="G29" t="s">
-        <v>186</v>
-      </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -5039,20 +5051,20 @@
         <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -5061,56 +5073,59 @@
         <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45052</v>
+        <v>45056</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
       <c r="H32" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I33" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -5120,132 +5135,134 @@
       <c r="F34" t="s">
         <v>5</v>
       </c>
-      <c r="G34" t="s">
-        <v>186</v>
-      </c>
       <c r="H34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
+      <c r="G35" t="s">
+        <v>186</v>
+      </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
-        <v>186</v>
-      </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45036</v>
+        <v>45038</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F37" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>186</v>
       </c>
       <c r="H37" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="1"/>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
         <v>110</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" t="s">
         <v>5</v>
-      </c>
-      <c r="G39" t="s">
-        <v>126</v>
       </c>
       <c r="H39" t="s">
         <v>110</v>
       </c>
+      <c r="I39" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F40" t="s">
         <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>126</v>
       </c>
       <c r="H40" t="s">
         <v>110</v>
@@ -5253,10 +5270,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -5264,19 +5281,16 @@
       <c r="F41" t="s">
         <v>5</v>
       </c>
-      <c r="G41" t="s">
-        <v>126</v>
-      </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -5284,16 +5298,19 @@
       <c r="F42" t="s">
         <v>5</v>
       </c>
+      <c r="G42" t="s">
+        <v>126</v>
+      </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -5301,68 +5318,63 @@
       <c r="F43" t="s">
         <v>5</v>
       </c>
-      <c r="G43" t="s">
-        <v>126</v>
-      </c>
       <c r="H43" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="7"/>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
         <v>5</v>
       </c>
+      <c r="G44" t="s">
+        <v>126</v>
+      </c>
       <c r="H44" t="s">
         <v>110</v>
       </c>
-      <c r="I44" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" t="s">
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I45" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
       <c r="E46" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
@@ -5370,21 +5382,24 @@
       <c r="H46" t="s">
         <v>111</v>
       </c>
+      <c r="I46" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="1"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
         <v>111</v>
@@ -5392,81 +5407,81 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="1"/>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H49" t="s">
-        <v>113</v>
-      </c>
-      <c r="I49" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D50" s="7"/>
-      <c r="E50" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" t="s">
         <v>5</v>
       </c>
-      <c r="G50" t="s">
-        <v>126</v>
-      </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I50" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44973</v>
+        <v>44982</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F51" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>126</v>
       </c>
       <c r="H51" t="s">
         <v>111</v>
@@ -5474,32 +5489,29 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44962</v>
+        <v>44973</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E52" s="1"/>
       <c r="F52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -5518,29 +5530,32 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="1"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F54" t="s">
         <v>5</v>
       </c>
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44955</v>
+        <v>44959</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="7" t="s">
@@ -5548,67 +5563,64 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44947</v>
+        <v>44955</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D56" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="1"/>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H56" t="s">
-        <v>111</v>
-      </c>
-      <c r="I56" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44945</v>
+        <v>44947</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="1"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
         <v>4</v>
@@ -5617,12 +5629,12 @@
         <v>110</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>13</v>
@@ -5644,52 +5656,52 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44942</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
         <v>110</v>
       </c>
+      <c r="I60" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>126</v>
       </c>
       <c r="H61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I61" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="1"/>
@@ -5705,38 +5717,38 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>44932</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C63" s="5" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="1"/>
       <c r="F63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I63" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E64" s="1"/>
       <c r="F64" t="s">
         <v>5</v>
-      </c>
-      <c r="G64" t="s">
-        <v>126</v>
       </c>
       <c r="H64" t="s">
         <v>110</v>
@@ -5744,70 +5756,73 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>126</v>
       </c>
       <c r="H65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D66" s="7"/>
-      <c r="E66" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E66" s="1"/>
       <c r="F66" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="1"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F67" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>126</v>
       </c>
       <c r="H67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="7" t="s">
@@ -5815,43 +5830,43 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H68" t="s">
-        <v>114</v>
-      </c>
-      <c r="I68" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44912</v>
+        <v>44918</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" t="s">
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44903</v>
+        <v>44912</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="1"/>
@@ -5859,59 +5874,56 @@
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>114</v>
-      </c>
-      <c r="I70" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44896</v>
+        <v>44903</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="7"/>
       <c r="E71" s="1"/>
       <c r="F71" t="s">
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I71" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44879</v>
+        <v>44896</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D72" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" t="s">
         <v>5</v>
       </c>
-      <c r="G72" t="s">
-        <v>126</v>
-      </c>
       <c r="H72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -5930,10 +5942,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -5952,10 +5964,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44869</v>
+        <v>44877</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -5965,46 +5977,49 @@
       <c r="F75" t="s">
         <v>5</v>
       </c>
+      <c r="G75" t="s">
+        <v>126</v>
+      </c>
       <c r="H75" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44864</v>
+        <v>44869</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
       <c r="E76" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
         <v>5</v>
       </c>
-      <c r="G76" t="s">
-        <v>126</v>
-      </c>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44858</v>
+        <v>44864</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="1"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F77" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>126</v>
       </c>
       <c r="H77" t="s">
         <v>111</v>
@@ -6012,167 +6027,167 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B79" s="1"/>
+        <v>44856</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
       <c r="E79" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F79" t="s">
         <v>5</v>
       </c>
-      <c r="G79" t="s">
-        <v>126</v>
-      </c>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44850</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>126</v>
       </c>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44845</v>
+        <v>44850</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="1"/>
       <c r="F81" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44843</v>
+        <v>44845</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E82" s="1"/>
       <c r="F82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C83" s="5"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F83" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>126</v>
       </c>
       <c r="H83" t="s">
         <v>111</v>
       </c>
-      <c r="I83" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="5"/>
+        <v>44840</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D84" s="7"/>
-      <c r="E84" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E84" s="1"/>
       <c r="F84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="I84" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B85" s="1"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="1"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F85" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="7" t="s">
@@ -6180,18 +6195,18 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="7" t="s">
@@ -6202,32 +6217,31 @@
         <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B88" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D88" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="5"/>
@@ -6247,29 +6261,30 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F90" t="s">
         <v>5</v>
       </c>
+      <c r="G90" t="s">
+        <v>126</v>
+      </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>37</v>
@@ -6280,18 +6295,15 @@
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>110</v>
-      </c>
-      <c r="I91" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>37</v>
@@ -6305,46 +6317,48 @@
         <v>110</v>
       </c>
       <c r="I92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D93" s="7"/>
       <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I93" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D94" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="1"/>
       <c r="F94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H94" t="s">
         <v>111</v>
@@ -6352,13 +6366,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44815</v>
+        <v>44821</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
       <c r="E95" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
         <v>5</v>
@@ -6372,13 +6386,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
       <c r="E96" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
         <v>5</v>
@@ -6387,21 +6401,19 @@
         <v>126</v>
       </c>
       <c r="H96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F97" t="s">
         <v>5</v>
       </c>
@@ -6409,152 +6421,154 @@
         <v>126</v>
       </c>
       <c r="H97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D98" s="7"/>
       <c r="E98" s="1"/>
       <c r="F98" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
       </c>
       <c r="H98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="1"/>
       <c r="F99" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="7"/>
+        <v>44793</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>126</v>
       </c>
       <c r="H100" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44784</v>
+        <v>44790</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C101" s="5"/>
       <c r="D101" s="7"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F101" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>44784</v>
+      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="1"/>
       <c r="F102" t="s">
         <v>5</v>
       </c>
+      <c r="G102" t="s">
+        <v>126</v>
+      </c>
       <c r="H102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44770</v>
+        <v>44782</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C103" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D103" s="7"/>
-      <c r="E103" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E103" s="1"/>
       <c r="F103" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H103" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B104" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
       <c r="E104" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H104" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
       <c r="E105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s">
         <v>5</v>
@@ -6568,13 +6582,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44753</v>
+        <v>44758</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
       <c r="E106" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F106" t="s">
         <v>5</v>
@@ -6583,20 +6597,18 @@
         <v>126</v>
       </c>
       <c r="H106" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="B107" s="1"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
       <c r="E107" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s">
         <v>5</v>
@@ -6605,14 +6617,16 @@
         <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B108" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
       <c r="E108" s="1" t="s">
@@ -6625,12 +6639,12 @@
         <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="5"/>
@@ -6650,59 +6664,60 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B110" s="1"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
       <c r="E110" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F110" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44738</v>
+        <v>44740</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
       <c r="E111" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F111" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E112" s="1"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F112" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>126</v>
       </c>
       <c r="H112" t="s">
         <v>111</v>
@@ -6710,56 +6725,53 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44731</v>
+        <v>44734</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D113" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44728</v>
+        <v>44731</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D114" s="7"/>
-      <c r="E114" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E114" s="1"/>
       <c r="F114" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H114" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
       <c r="E115" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -6768,61 +6780,63 @@
         <v>126</v>
       </c>
       <c r="H115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44713</v>
+        <v>44727</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F116" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>126</v>
       </c>
       <c r="H116" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44709</v>
+        <v>44713</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="1"/>
       <c r="F117" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B118" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
@@ -6831,173 +6845,173 @@
         <v>126</v>
       </c>
       <c r="H118" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44703</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="5"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F119" t="s">
         <v>5</v>
       </c>
+      <c r="G119" t="s">
+        <v>126</v>
+      </c>
       <c r="H119" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="5"/>
+        <v>44703</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D120" s="7"/>
-      <c r="E120" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E120" s="1"/>
       <c r="F120" t="s">
         <v>5</v>
       </c>
-      <c r="G120" t="s">
-        <v>126</v>
-      </c>
       <c r="H120" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44698</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F121" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
       </c>
       <c r="H121" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C122" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D122" s="7"/>
-      <c r="E122" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E122" s="1"/>
       <c r="F122" t="s">
         <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C123" s="5"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>110</v>
-      </c>
-      <c r="I123" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44689</v>
+        <v>44693</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="7"/>
       <c r="E124" s="1"/>
       <c r="F124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H124" t="s">
         <v>110</v>
       </c>
+      <c r="I124" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D125" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="1"/>
       <c r="F125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
       <c r="E126" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
       </c>
-      <c r="G126" t="s">
-        <v>126</v>
-      </c>
       <c r="H126" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B127" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
       <c r="E127" s="1" t="s">
@@ -7015,198 +7029,199 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44664</v>
+        <v>44680</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
       <c r="E128" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
+      <c r="G128" t="s">
+        <v>126</v>
+      </c>
       <c r="H128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B129" s="1"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
       <c r="E129" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F129" t="s">
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C130" s="5"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F130" t="s">
         <v>5</v>
       </c>
       <c r="H130" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D131" s="7"/>
-      <c r="E131" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E131" s="1"/>
       <c r="F131" t="s">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44630</v>
+        <v>44647</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C132" s="5"/>
-      <c r="D132" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E132" s="1"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44614</v>
+        <v>44630</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D133" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E133" s="1"/>
       <c r="F133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44604</v>
+        <v>44614</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C134" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D134" s="7"/>
-      <c r="E134" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E134" s="1"/>
       <c r="F134" t="s">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44600</v>
+        <v>44604</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C135" s="5"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F135" t="s">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44597</v>
+        <v>44600</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C136" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D136" s="7"/>
-      <c r="E136" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E136" s="1"/>
       <c r="F136" t="s">
         <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -7217,81 +7232,78 @@
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
       <c r="E139" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F139" t="s">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
       <c r="E140" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>110</v>
-      </c>
-      <c r="I140" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C141" s="5"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F141" t="s">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I141" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="1"/>
@@ -7299,70 +7311,73 @@
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="I142" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="5"/>
+        <v>44582</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D143" s="7"/>
-      <c r="E143" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E143" s="1"/>
       <c r="F143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B144" s="1"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
       <c r="E144" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H144" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
       <c r="E145" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -7370,10 +7385,7 @@
         <v>85</v>
       </c>
       <c r="F146" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H146" t="s">
         <v>110</v>
@@ -7381,18 +7393,21 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C147" s="5"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F147" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G147" t="s">
+        <v>121</v>
       </c>
       <c r="H147" t="s">
         <v>110</v>
@@ -7400,13 +7415,13 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44558</v>
+        <v>44564</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="1"/>
@@ -7414,38 +7429,38 @@
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="5"/>
+        <v>44558</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E149" s="1"/>
       <c r="F149" t="s">
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44526</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="5"/>
       <c r="D150" s="7"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F150" t="s">
         <v>5</v>
       </c>
@@ -7455,109 +7470,109 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D151" s="7"/>
       <c r="E151" s="1"/>
       <c r="F151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B152" s="1"/>
+        <v>44519</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C152" s="5"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D152" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E152" s="1"/>
       <c r="F152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H152" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44495</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="5"/>
       <c r="D153" s="7"/>
-      <c r="E153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F153" t="s">
-        <v>9</v>
-      </c>
-      <c r="G153" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D154" s="7"/>
-      <c r="E154" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E154" s="1"/>
       <c r="F154" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G154" t="s">
+        <v>121</v>
       </c>
       <c r="H154" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C155" s="5"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="1"/>
+      <c r="E155" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F155" t="s">
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44462</v>
+        <v>44471</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="1"/>
@@ -7565,65 +7580,62 @@
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44446</v>
+        <v>44462</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C157" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D157" s="7"/>
-      <c r="E157" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E157" s="1"/>
       <c r="F157" t="s">
         <v>5</v>
       </c>
       <c r="H157" t="s">
         <v>111</v>
       </c>
-      <c r="I157" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C158" s="5"/>
       <c r="D158" s="7"/>
-      <c r="E158" s="1"/>
+      <c r="E158" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F158" t="s">
-        <v>9</v>
-      </c>
-      <c r="G158" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H158" t="s">
         <v>111</v>
       </c>
+      <c r="I158" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C159" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D159" s="7"/>
-      <c r="E159" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E159" s="1"/>
       <c r="F159" t="s">
         <v>9</v>
       </c>
@@ -7636,15 +7648,15 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>44418</v>
+        <v>44440</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
       <c r="E160" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F160" t="s">
         <v>9</v>
@@ -7658,10 +7670,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -7675,12 +7687,34 @@
         <v>121</v>
       </c>
       <c r="H161" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" t="s">
+        <v>121</v>
+      </c>
+      <c r="H162" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D125 D127:D1048576">
+  <conditionalFormatting sqref="D1:D126 D128:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FCF6B8-8D44-4698-98D3-BA242495AFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FDB7A8-6B3F-4B1F-8FCA-5A3A4697AE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="240">
   <si>
     <t>Fecha</t>
   </si>
@@ -748,6 +748,18 @@
   </si>
   <si>
     <t>San Rafael</t>
+  </si>
+  <si>
+    <t>Levi y Azi</t>
+  </si>
+  <si>
+    <t>Scavenger's Reign</t>
+  </si>
+  <si>
+    <t>Transbordador</t>
+  </si>
+  <si>
+    <t>z=+100km</t>
   </si>
 </sst>
 </file>
@@ -4128,10 +4140,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I162" totalsRowShown="0">
-  <autoFilter ref="A1:I162" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I162">
-    <sortCondition descending="1" ref="A1:A162"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I164" totalsRowShown="0">
+  <autoFilter ref="A1:I164" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I164">
+    <sortCondition descending="1" ref="A1:A164"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4411,10 +4423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4461,77 +4473,78 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45286</v>
+        <v>45307</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>238</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>186</v>
-      </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45265</v>
+        <v>45295</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45264</v>
+        <v>45286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>186</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45244</v>
+        <v>45265</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>230</v>
@@ -4539,35 +4552,33 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45234</v>
+        <v>45264</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45225</v>
+        <v>45244</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
@@ -4575,20 +4586,20 @@
         <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45213</v>
+        <v>45234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4597,23 +4608,23 @@
         <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45193</v>
+        <v>45225</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
         <v>111</v>
@@ -4621,18 +4632,21 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45188</v>
+        <v>45213</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
       </c>
       <c r="H10" t="s">
         <v>110</v>
@@ -4640,89 +4654,89 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45179</v>
+        <v>45193</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45178</v>
+        <v>45188</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45170</v>
+        <v>45179</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45150</v>
+        <v>45178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45148</v>
+        <v>45170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
@@ -4730,64 +4744,61 @@
         <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45139</v>
+        <v>45150</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45120</v>
+        <v>45148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="1"/>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45110</v>
+        <v>45139</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H18" t="s">
         <v>111</v>
@@ -4795,37 +4806,34 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45105</v>
+        <v>45120</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45099</v>
+        <v>45110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -4834,15 +4842,15 @@
         <v>186</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -4852,24 +4860,24 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-      <c r="G21" t="s">
-        <v>186</v>
-      </c>
       <c r="H21" t="s">
         <v>110</v>
       </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
@@ -4883,15 +4891,15 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4900,20 +4908,20 @@
         <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45072</v>
+        <v>45084</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
@@ -4927,15 +4935,15 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45069</v>
+        <v>45079</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
@@ -4944,15 +4952,15 @@
         <v>186</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45067</v>
+        <v>45072</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -4971,15 +4979,15 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -4988,20 +4996,20 @@
         <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45063</v>
+        <v>45067</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -5010,39 +5018,42 @@
         <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45061</v>
+        <v>45065</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
+      <c r="G29" t="s">
+        <v>186</v>
+      </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45059</v>
+        <v>45063</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -5051,26 +5062,23 @@
         <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>186</v>
       </c>
       <c r="H31" t="s">
         <v>119</v>
@@ -5078,15 +5086,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45056</v>
+        <v>45059</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -5095,102 +5103,105 @@
         <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45052</v>
+        <v>45058</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
       </c>
-      <c r="I33" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45047</v>
+        <v>45056</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
       </c>
+      <c r="G34" t="s">
+        <v>186</v>
+      </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45046</v>
+        <v>45052</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
-      <c r="G35" t="s">
-        <v>186</v>
-      </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I35" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45039</v>
+        <v>45047</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45038</v>
+        <v>45046</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
@@ -5199,83 +5210,82 @@
         <v>186</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45030</v>
+        <v>45038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
+      <c r="G39" t="s">
+        <v>186</v>
+      </c>
       <c r="H39" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45023</v>
+        <v>45036</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="F40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
         <v>110</v>
       </c>
+      <c r="I40" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45018</v>
+        <v>45030</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
@@ -5284,17 +5294,22 @@
       <c r="H41" t="s">
         <v>110</v>
       </c>
+      <c r="I41" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45017</v>
+        <v>45023</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
@@ -5302,15 +5317,15 @@
         <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45011</v>
+        <v>45018</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -5324,10 +5339,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -5339,19 +5354,17 @@
         <v>126</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45009</v>
+        <v>45011</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="7"/>
       <c r="E45" s="1"/>
       <c r="F45" t="s">
@@ -5360,163 +5373,161 @@
       <c r="H45" t="s">
         <v>110</v>
       </c>
-      <c r="I45" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45008</v>
+        <v>45010</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" t="s">
         <v>5</v>
       </c>
+      <c r="G46" t="s">
+        <v>126</v>
+      </c>
       <c r="H46" t="s">
-        <v>111</v>
-      </c>
-      <c r="I46" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" t="s">
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I47" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45004</v>
+        <v>45008</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="1"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
         <v>111</v>
       </c>
+      <c r="I48" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F49" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>44987</v>
+        <v>45004</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>113</v>
-      </c>
-      <c r="I50" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>44982</v>
+        <v>45001</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="D51" s="7"/>
-      <c r="E51" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44973</v>
+        <v>44987</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="1"/>
       <c r="F52" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I52" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44962</v>
+        <v>44982</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
       <c r="E53" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F53" t="s">
         <v>5</v>
@@ -5525,64 +5536,67 @@
         <v>126</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44961</v>
+        <v>44973</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44959</v>
+        <v>44962</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="1"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F55" t="s">
         <v>5</v>
       </c>
+      <c r="G55" t="s">
+        <v>126</v>
+      </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44955</v>
+        <v>44961</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="1"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>126</v>
       </c>
       <c r="H56" t="s">
         <v>110</v>
@@ -5590,32 +5604,29 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44947</v>
+        <v>44959</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="1"/>
       <c r="F57" t="s">
         <v>5</v>
       </c>
       <c r="H57" t="s">
         <v>111</v>
       </c>
-      <c r="I57" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44945</v>
+        <v>44955</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="7" t="s">
@@ -5623,48 +5634,45 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="H58" t="s">
         <v>110</v>
       </c>
-      <c r="I58" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44943</v>
+        <v>44947</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I59" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" t="s">
         <v>4</v>
@@ -5673,35 +5681,40 @@
         <v>110</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44943</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="1"/>
       <c r="F61" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
         <v>110</v>
       </c>
+      <c r="I61" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="1"/>
@@ -5709,98 +5722,96 @@
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I62" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F63" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>126</v>
       </c>
       <c r="H63" t="s">
-        <v>111</v>
-      </c>
-      <c r="I63" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B64" s="1"/>
+        <v>44937</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C64" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I64" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44928</v>
+        <v>44932</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I65" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44924</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>44930</v>
+      </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="1"/>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44922</v>
+        <v>44928</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -5819,59 +5830,59 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44920</v>
+        <v>44924</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="7"/>
       <c r="E68" s="1"/>
       <c r="F68" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="1"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F69" t="s">
         <v>5</v>
       </c>
+      <c r="G69" t="s">
+        <v>126</v>
+      </c>
       <c r="H69" t="s">
-        <v>114</v>
-      </c>
-      <c r="I69" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44912</v>
+        <v>44920</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H70" t="s">
         <v>111</v>
@@ -5879,15 +5890,15 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44903</v>
+        <v>44918</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" t="s">
         <v>5</v>
@@ -5896,20 +5907,20 @@
         <v>114</v>
       </c>
       <c r="I71" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44896</v>
+        <v>44912</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="1"/>
       <c r="F72" t="s">
         <v>5</v>
@@ -5920,54 +5931,51 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44879</v>
+        <v>44903</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E73" s="1"/>
       <c r="F73" t="s">
         <v>5</v>
       </c>
-      <c r="G73" t="s">
-        <v>126</v>
-      </c>
       <c r="H73" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="I73" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44878</v>
+        <v>44896</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D74" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="1"/>
       <c r="F74" t="s">
         <v>5</v>
       </c>
-      <c r="G74" t="s">
-        <v>126</v>
-      </c>
       <c r="H74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44877</v>
+        <v>44879</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -5986,10 +5994,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44869</v>
+        <v>44878</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -5999,21 +6007,24 @@
       <c r="F76" t="s">
         <v>5</v>
       </c>
+      <c r="G76" t="s">
+        <v>126</v>
+      </c>
       <c r="H76" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44864</v>
+        <v>44877</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
       <c r="E77" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -6022,62 +6033,64 @@
         <v>126</v>
       </c>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44858</v>
+        <v>44869</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="1"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44856</v>
+        <v>44864</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
       <c r="E79" s="1" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="F79" t="s">
         <v>5</v>
       </c>
+      <c r="G79" t="s">
+        <v>126</v>
+      </c>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B80" s="1"/>
+        <v>44858</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D80" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H80" t="s">
         <v>111</v>
@@ -6085,73 +6098,71 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44850</v>
+        <v>44856</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C81" s="5"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F82" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>126</v>
       </c>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44843</v>
+        <v>44850</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D83" s="7"/>
-      <c r="E83" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44840</v>
+        <v>44845</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="1"/>
@@ -6159,73 +6170,76 @@
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
-      </c>
-      <c r="I84" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>44843</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
       <c r="E85" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
+      <c r="G85" t="s">
+        <v>126</v>
+      </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44834</v>
+        <v>44840</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D86" s="7"/>
       <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="I86" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44833</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B87" s="1"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="1"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44831</v>
+        <v>44834</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="7" t="s">
@@ -6233,99 +6247,96 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>44833</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D89" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="1"/>
       <c r="F89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D90" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44827</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F91" t="s">
         <v>5</v>
       </c>
+      <c r="G91" t="s">
+        <v>126</v>
+      </c>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44824</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F92" t="s">
         <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>126</v>
       </c>
       <c r="H92" t="s">
         <v>110</v>
       </c>
-      <c r="I92" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44823</v>
+        <v>44825</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>37</v>
@@ -6336,69 +6347,70 @@
         <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-      <c r="I93" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44822</v>
+        <v>44824</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D94" s="7"/>
       <c r="E94" s="1"/>
       <c r="F94" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I94" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="5"/>
+        <v>44823</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D95" s="7"/>
-      <c r="E95" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E95" s="1"/>
       <c r="F95" t="s">
         <v>5</v>
       </c>
-      <c r="G95" t="s">
-        <v>126</v>
-      </c>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I95" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44815</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D96" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H96" t="s">
         <v>111</v>
@@ -6406,13 +6418,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
       <c r="E97" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
         <v>5</v>
@@ -6421,21 +6433,19 @@
         <v>126</v>
       </c>
       <c r="H97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44815</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F98" t="s">
         <v>5</v>
       </c>
@@ -6448,18 +6458,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44801</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E99" s="1"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F99" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
       </c>
       <c r="H99" t="s">
         <v>110</v>
@@ -6467,11 +6478,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44808</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="1"/>
       <c r="F100" t="s">
         <v>5</v>
       </c>
@@ -6479,21 +6495,23 @@
         <v>126</v>
       </c>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>44801</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C101" s="5"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D101" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="1"/>
       <c r="F101" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H101" t="s">
         <v>110</v>
@@ -6501,14 +6519,11 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="1"/>
+        <v>44793</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F102" t="s">
         <v>5</v>
       </c>
@@ -6516,99 +6531,96 @@
         <v>126</v>
       </c>
       <c r="H102" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44790</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44770</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="5"/>
+        <v>44784</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D104" s="7"/>
-      <c r="E104" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E104" s="1"/>
       <c r="F104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G104" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H104" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="5"/>
+        <v>44782</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D105" s="7"/>
-      <c r="E105" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E105" s="1"/>
       <c r="F105" t="s">
         <v>5</v>
       </c>
-      <c r="G105" t="s">
-        <v>126</v>
-      </c>
       <c r="H105" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44758</v>
-      </c>
-      <c r="B106" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
       <c r="E106" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H106" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44753</v>
+        <v>44760</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
       <c r="E107" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F107" t="s">
         <v>5</v>
@@ -6617,20 +6629,18 @@
         <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44758</v>
+      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
       <c r="E108" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s">
         <v>5</v>
@@ -6639,18 +6649,18 @@
         <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44746</v>
+        <v>44753</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
       <c r="E109" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -6664,9 +6674,11 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44745</v>
-      </c>
-      <c r="B110" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
       <c r="E110" s="1" t="s">
@@ -6679,39 +6691,38 @@
         <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44746</v>
+      </c>
+      <c r="B111" s="1"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
       <c r="E111" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F111" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44738</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B112" s="1"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
       <c r="E112" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F112" t="s">
         <v>5</v>
@@ -6720,123 +6731,121 @@
         <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44734</v>
+        <v>44740</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" s="1"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F113" t="s">
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44731</v>
+        <v>44738</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C114" s="5"/>
       <c r="D114" s="7"/>
-      <c r="E114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F114" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>126</v>
       </c>
       <c r="H114" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44728</v>
+        <v>44734</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C115" s="5"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D115" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="1"/>
       <c r="F115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44727</v>
+        <v>44731</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D116" s="7"/>
-      <c r="E116" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E116" s="1"/>
       <c r="F116" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H116" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44713</v>
+        <v>44728</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>126</v>
       </c>
       <c r="H117" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44709</v>
+        <v>44727</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
@@ -6850,52 +6859,56 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>44713</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="1"/>
       <c r="F119" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44703</v>
+        <v>44709</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C120" s="5"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F120" t="s">
         <v>5</v>
       </c>
+      <c r="G120" t="s">
+        <v>126</v>
+      </c>
       <c r="H120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44702</v>
+        <v>44705</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
       <c r="E121" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
@@ -6904,124 +6917,122 @@
         <v>126</v>
       </c>
       <c r="H121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="1"/>
       <c r="F122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44697</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B123" s="1"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
       <c r="E123" s="1" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="F123" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>126</v>
       </c>
       <c r="H123" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="1"/>
       <c r="F124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H124" t="s">
-        <v>110</v>
-      </c>
-      <c r="I124" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44689</v>
+        <v>44697</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="1"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F125" t="s">
         <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C126" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D126" s="7"/>
-      <c r="E126" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E126" s="1"/>
       <c r="F126" t="s">
         <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I126" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C127" s="5"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D127" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="1"/>
       <c r="F127" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H127" t="s">
         <v>110</v>
@@ -7029,55 +7040,60 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B128" s="1"/>
+        <v>44686</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
       <c r="E128" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
-      <c r="G128" t="s">
-        <v>126</v>
-      </c>
       <c r="H128" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44664</v>
-      </c>
-      <c r="B129" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
       <c r="E129" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F129" t="s">
         <v>5</v>
       </c>
+      <c r="G129" t="s">
+        <v>126</v>
+      </c>
       <c r="H129" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44680</v>
+      </c>
+      <c r="B130" s="1"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
       <c r="E130" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F130" t="s">
         <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>126</v>
       </c>
       <c r="H130" t="s">
         <v>110</v>
@@ -7085,34 +7101,32 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44650</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F131" t="s">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44647</v>
+        <v>44653</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
       <c r="E132" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
         <v>5</v>
@@ -7123,56 +7137,56 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44630</v>
+        <v>44650</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D133" s="7"/>
       <c r="E133" s="1"/>
       <c r="F133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44614</v>
+        <v>44647</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C134" s="5"/>
       <c r="D134" s="7"/>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44604</v>
+        <v>44630</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C135" s="5"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D135" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" s="1"/>
       <c r="F135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H135" t="s">
         <v>111</v>
@@ -7180,10 +7194,10 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44600</v>
+        <v>44614</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>132</v>
@@ -7194,20 +7208,20 @@
         <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44597</v>
+        <v>44604</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
@@ -7218,72 +7232,72 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44595</v>
+        <v>44600</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C138" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D138" s="7"/>
-      <c r="E138" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E138" s="1"/>
       <c r="F138" t="s">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44593</v>
+        <v>44597</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
       <c r="E139" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F139" t="s">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44590</v>
+        <v>44595</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
       <c r="E140" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44588</v>
+        <v>44593</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
       <c r="E141" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F141" t="s">
         <v>5</v>
@@ -7291,101 +7305,101 @@
       <c r="H141" t="s">
         <v>110</v>
       </c>
-      <c r="I141" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44585</v>
+        <v>44590</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C142" s="5"/>
       <c r="D142" s="7"/>
-      <c r="E142" s="1"/>
+      <c r="E142" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F142" t="s">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>111</v>
-      </c>
-      <c r="I142" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44582</v>
+        <v>44588</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C143" s="5"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F143" t="s">
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="I143" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="5"/>
+        <v>44585</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D144" s="7"/>
-      <c r="E144" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E144" s="1"/>
       <c r="F144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I144" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44576</v>
+        <v>44582</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C145" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D145" s="7"/>
-      <c r="E145" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E145" s="1"/>
       <c r="F145" t="s">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44575</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B146" s="1"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
       <c r="E146" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H146" t="s">
         <v>110</v>
@@ -7393,38 +7407,35 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44567</v>
+        <v>44576</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
       <c r="E147" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F147" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44564</v>
+        <v>44575</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C148" s="5"/>
       <c r="D148" s="7"/>
-      <c r="E148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F148" t="s">
         <v>5</v>
       </c>
@@ -7434,46 +7445,51 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44558</v>
+        <v>44567</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C149" s="5"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F149" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G149" t="s">
+        <v>121</v>
       </c>
       <c r="H149" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="5"/>
+        <v>44564</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D150" s="7"/>
-      <c r="E150" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E150" s="1"/>
       <c r="F150" t="s">
         <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44526</v>
+        <v>44558</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>132</v>
@@ -7484,38 +7500,38 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44519</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B152" s="1"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E152" s="1"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="5"/>
+        <v>44526</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D153" s="7"/>
-      <c r="E153" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E153" s="1"/>
       <c r="F153" t="s">
         <v>5</v>
       </c>
@@ -7525,21 +7541,18 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C154" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D154" s="7"/>
       <c r="E154" s="1"/>
       <c r="F154" t="s">
-        <v>9</v>
-      </c>
-      <c r="G154" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H154" t="s">
         <v>114</v>
@@ -7547,15 +7560,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44487</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B155" s="1"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
       <c r="E155" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F155" t="s">
         <v>5</v>
@@ -7566,35 +7577,38 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44471</v>
+        <v>44495</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="1"/>
       <c r="F156" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G156" t="s">
+        <v>121</v>
       </c>
       <c r="H156" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44462</v>
+        <v>44487</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C157" s="5"/>
       <c r="D157" s="7"/>
-      <c r="E157" s="1"/>
+      <c r="E157" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F157" t="s">
         <v>5</v>
       </c>
@@ -7604,43 +7618,37 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44446</v>
+        <v>44471</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C158" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D158" s="7"/>
-      <c r="E158" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E158" s="1"/>
       <c r="F158" t="s">
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>111</v>
-      </c>
-      <c r="I158" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44445</v>
+        <v>44462</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="1"/>
       <c r="F159" t="s">
-        <v>9</v>
-      </c>
-      <c r="G159" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H159" t="s">
         <v>111</v>
@@ -7648,10 +7656,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -7659,27 +7667,27 @@
         <v>61</v>
       </c>
       <c r="F160" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H160" t="s">
         <v>111</v>
       </c>
+      <c r="I160" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>44418</v>
+        <v>44445</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C161" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D161" s="7"/>
-      <c r="E161" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E161" s="1"/>
       <c r="F161" t="s">
         <v>9</v>
       </c>
@@ -7692,15 +7700,15 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>44417</v>
+        <v>44440</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
       <c r="E162" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F162" t="s">
         <v>9</v>
@@ -7709,12 +7717,56 @@
         <v>121</v>
       </c>
       <c r="H162" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" t="s">
+        <v>121</v>
+      </c>
+      <c r="H163" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" t="s">
+        <v>121</v>
+      </c>
+      <c r="H164" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D126 D128:D1048576">
+  <conditionalFormatting sqref="D1:D128 D130:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FDB7A8-6B3F-4B1F-8FCA-5A3A4697AE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73882E96-D8AF-47A2-B321-AE39854C8D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="244">
   <si>
     <t>Fecha</t>
   </si>
@@ -760,6 +760,18 @@
   </si>
   <si>
     <t>z=+100km</t>
+  </si>
+  <si>
+    <t>Plaza de Armas</t>
+  </si>
+  <si>
+    <t>Cusco</t>
+  </si>
+  <si>
+    <t>Huacachina 2</t>
+  </si>
+  <si>
+    <t>Huacachina</t>
   </si>
 </sst>
 </file>
@@ -3867,6 +3879,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -4005,145 +4151,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I164" totalsRowShown="0">
-  <autoFilter ref="A1:I164" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I164">
-    <sortCondition descending="1" ref="A1:A164"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I167" totalsRowShown="0">
+  <autoFilter ref="A1:I167" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I167">
+    <sortCondition descending="1" ref="A1:A167"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4423,10 +4435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4473,55 +4485,59 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45307</v>
+        <v>45318</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45295</v>
+        <v>45314</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>237</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45286</v>
+        <v>45313</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4535,151 +4551,153 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45265</v>
+        <v>45307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>238</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45264</v>
+        <v>45295</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45244</v>
+        <v>45286</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45234</v>
+        <v>45265</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>186</v>
-      </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45225</v>
+        <v>45264</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>225</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
         <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45213</v>
+        <v>45244</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45193</v>
+        <v>45234</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45188</v>
+        <v>45225</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
@@ -4687,39 +4705,42 @@
         <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45179</v>
+        <v>45213</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
+      <c r="G13" t="s">
+        <v>186</v>
+      </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45178</v>
+        <v>45193</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -4730,13 +4751,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45170</v>
+        <v>45188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
@@ -4744,53 +4765,53 @@
         <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45150</v>
+        <v>45179</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45148</v>
+        <v>45178</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F17" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>208</v>
@@ -4806,100 +4827,91 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45120</v>
+        <v>45150</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>209</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45110</v>
+        <v>45148</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45105</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45099</v>
+        <v>45120</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" t="s">
         <v>5</v>
       </c>
-      <c r="G22" t="s">
-        <v>186</v>
-      </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45087</v>
+        <v>45110</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4908,42 +4920,42 @@
         <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45084</v>
+        <v>45105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>186</v>
       </c>
       <c r="H24" t="s">
         <v>110</v>
       </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
@@ -4952,20 +4964,20 @@
         <v>186</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45072</v>
+        <v>45087</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -4979,15 +4991,15 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45069</v>
+        <v>45084</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -5001,15 +5013,15 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45067</v>
+        <v>45079</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -5018,20 +5030,20 @@
         <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -5040,20 +5052,20 @@
         <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45063</v>
+        <v>45069</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -5062,39 +5074,42 @@
         <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45061</v>
+        <v>45067</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
+      <c r="G31" t="s">
+        <v>186</v>
+      </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45059</v>
+        <v>45065</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -5103,20 +5118,20 @@
         <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45058</v>
+        <v>45063</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -5125,83 +5140,83 @@
         <v>186</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
       </c>
-      <c r="G34" t="s">
-        <v>186</v>
-      </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
+      <c r="G35" t="s">
+        <v>186</v>
+      </c>
       <c r="H35" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45047</v>
+        <v>45058</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
+      <c r="G36" t="s">
+        <v>186</v>
+      </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45046</v>
+        <v>45056</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
@@ -5210,20 +5225,20 @@
         <v>186</v>
       </c>
       <c r="H37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45039</v>
+        <v>45052</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
       <c r="E38" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5231,144 +5246,153 @@
       <c r="H38" t="s">
         <v>119</v>
       </c>
+      <c r="I38" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45038</v>
+        <v>45047</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
       <c r="E39" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" t="s">
-        <v>186</v>
-      </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45036</v>
+        <v>45046</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F40" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>186</v>
       </c>
       <c r="H40" t="s">
         <v>110</v>
       </c>
-      <c r="I40" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45030</v>
+        <v>45039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F41" t="s">
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45023</v>
+        <v>45038</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45018</v>
+        <v>45036</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="1"/>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
         <v>110</v>
       </c>
+      <c r="I43" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45017</v>
+        <v>45030</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
         <v>5</v>
       </c>
-      <c r="G44" t="s">
-        <v>126</v>
-      </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45011</v>
+        <v>45023</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F45" t="s">
         <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
       </c>
       <c r="H45" t="s">
         <v>110</v>
@@ -5376,10 +5400,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45010</v>
+        <v>45018</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -5387,153 +5411,144 @@
       <c r="F46" t="s">
         <v>5</v>
       </c>
-      <c r="G46" t="s">
-        <v>126</v>
-      </c>
       <c r="H46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45009</v>
+        <v>45017</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="7"/>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
         <v>5</v>
       </c>
+      <c r="G47" t="s">
+        <v>126</v>
+      </c>
       <c r="H47" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45008</v>
+        <v>45011</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" t="s">
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
-      </c>
-      <c r="I48" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>45005</v>
+        <v>45010</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" t="s">
         <v>5</v>
       </c>
+      <c r="G49" t="s">
+        <v>126</v>
+      </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>45004</v>
+        <v>45009</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="7"/>
       <c r="E50" s="1"/>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I50" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F51" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I51" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>44987</v>
+        <v>45005</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C52" s="5"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F52" t="s">
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
-      </c>
-      <c r="I52" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>44982</v>
+        <v>45004</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="D53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="F53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H53" t="s">
         <v>111</v>
@@ -5541,13 +5556,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>44973</v>
+        <v>45001</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="1"/>
@@ -5555,42 +5570,42 @@
         <v>220</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44962</v>
+        <v>44987</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" t="s">
         <v>5</v>
       </c>
-      <c r="G55" t="s">
-        <v>126</v>
-      </c>
       <c r="H55" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="I55" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44961</v>
+        <v>44982</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
       <c r="E56" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F56" t="s">
         <v>5</v>
@@ -5599,23 +5614,23 @@
         <v>126</v>
       </c>
       <c r="H56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44959</v>
+        <v>44973</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="1"/>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H57" t="s">
         <v>111</v>
@@ -5623,18 +5638,21 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44955</v>
+        <v>44962</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="1"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F58" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>126</v>
       </c>
       <c r="H58" t="s">
         <v>110</v>
@@ -5642,32 +5660,32 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44947</v>
+        <v>44961</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
       <c r="E59" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F59" t="s">
         <v>5</v>
       </c>
+      <c r="G59" t="s">
+        <v>126</v>
+      </c>
       <c r="H59" t="s">
-        <v>111</v>
-      </c>
-      <c r="I59" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44945</v>
+        <v>44959</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="7" t="s">
@@ -5675,85 +5693,84 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>110</v>
-      </c>
-      <c r="I60" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44943</v>
+        <v>44955</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="H61" t="s">
         <v>110</v>
       </c>
-      <c r="I61" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44942</v>
+        <v>44947</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44945</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
         <v>110</v>
       </c>
+      <c r="I63" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44937</v>
+        <v>44943</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="1"/>
@@ -5761,21 +5778,21 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I64" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44932</v>
+        <v>44942</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="1"/>
@@ -5783,24 +5800,24 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I65" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F66" t="s">
         <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>126</v>
       </c>
       <c r="H66" t="s">
         <v>110</v>
@@ -5808,62 +5825,60 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44928</v>
+        <v>44937</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E67" s="1"/>
       <c r="F67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I67" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44924</v>
+        <v>44932</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="1"/>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="I68" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44922</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D69" s="7"/>
-      <c r="E69" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E69" s="1"/>
       <c r="F69" t="s">
         <v>5</v>
-      </c>
-      <c r="G69" t="s">
-        <v>126</v>
       </c>
       <c r="H69" t="s">
         <v>110</v>
@@ -5871,92 +5886,92 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44920</v>
+        <v>44928</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="1"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>126</v>
       </c>
       <c r="H70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44918</v>
+        <v>44924</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="7"/>
       <c r="E71" s="1"/>
       <c r="F71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>114</v>
-      </c>
-      <c r="I71" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44912</v>
+        <v>44922</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C72" s="5"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F72" t="s">
         <v>5</v>
       </c>
+      <c r="G72" t="s">
+        <v>126</v>
+      </c>
       <c r="H72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44903</v>
+        <v>44920</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H73" t="s">
-        <v>114</v>
-      </c>
-      <c r="I73" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44896</v>
+        <v>44918</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="7" t="s">
@@ -5967,81 +5982,78 @@
         <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44879</v>
+        <v>44912</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-      <c r="G75" t="s">
-        <v>126</v>
-      </c>
       <c r="H75" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44878</v>
+        <v>44903</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E76" s="1"/>
       <c r="F76" t="s">
         <v>5</v>
       </c>
-      <c r="G76" t="s">
-        <v>126</v>
-      </c>
       <c r="H76" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="I76" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44877</v>
+        <v>44896</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" t="s">
         <v>5</v>
       </c>
-      <c r="G77" t="s">
-        <v>126</v>
-      </c>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44869</v>
+        <v>44879</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -6051,21 +6063,24 @@
       <c r="F78" t="s">
         <v>5</v>
       </c>
+      <c r="G78" t="s">
+        <v>126</v>
+      </c>
       <c r="H78" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44864</v>
+        <v>44878</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
       <c r="E79" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
         <v>5</v>
@@ -6074,56 +6089,61 @@
         <v>126</v>
       </c>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44858</v>
+        <v>44877</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="1"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F80" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>126</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44856</v>
+        <v>44869</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
       <c r="E81" s="1" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B82" s="1"/>
+        <v>44864</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
       <c r="E82" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F82" t="s">
         <v>5</v>
@@ -6137,37 +6157,37 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44850</v>
+        <v>44858</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44845</v>
+        <v>44856</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C84" s="5"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F84" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
         <v>114</v>
@@ -6175,15 +6195,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44843</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B85" s="1"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
       <c r="E85" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
@@ -6197,154 +6215,155 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44840</v>
+        <v>44850</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I86" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="5"/>
+        <v>44845</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D87" s="7"/>
-      <c r="E87" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44834</v>
+        <v>44843</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="1"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F88" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
       </c>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44833</v>
+        <v>44840</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D89" s="7"/>
       <c r="E89" s="1"/>
       <c r="F89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="I89" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44831</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="1"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>44834</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D91" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B92" s="1"/>
+        <v>44833</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D92" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44825</v>
+        <v>44831</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="7"/>
       <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H93" t="s">
         <v>111</v>
@@ -6352,142 +6371,139 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44824</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44827</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F94" t="s">
         <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
       </c>
       <c r="H94" t="s">
         <v>110</v>
       </c>
-      <c r="I94" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44823</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F95" t="s">
         <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>126</v>
       </c>
       <c r="H95" t="s">
         <v>110</v>
       </c>
-      <c r="I95" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44822</v>
+        <v>44825</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D96" s="7"/>
       <c r="E96" s="1"/>
       <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H96" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="1"/>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" t="s">
+        <v>110</v>
+      </c>
+      <c r="I97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="1"/>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>110</v>
+      </c>
+      <c r="I98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>44822</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>121</v>
+      </c>
+      <c r="H99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>44821</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="1" t="s">
+      <c r="B100" s="1"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" t="s">
-        <v>126</v>
-      </c>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>44815</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F98" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" t="s">
-        <v>126</v>
-      </c>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>44814</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" t="s">
-        <v>126</v>
-      </c>
-      <c r="H99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="1"/>
       <c r="F100" t="s">
         <v>5</v>
       </c>
@@ -6498,31 +6514,35 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44801</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>44815</v>
+      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="1"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F101" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>126</v>
       </c>
       <c r="H101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44793</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
         <v>5</v>
@@ -6531,97 +6551,94 @@
         <v>126</v>
       </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="5"/>
+        <v>44808</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D103" s="7"/>
-      <c r="E103" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E103" s="1"/>
       <c r="F103" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>126</v>
       </c>
       <c r="H103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" s="7"/>
+        <v>44801</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E104" s="1"/>
       <c r="F104" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" t="s">
+        <v>220</v>
+      </c>
+      <c r="H104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>44793</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
         <v>126</v>
       </c>
-      <c r="H104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="1"/>
-      <c r="F105" t="s">
-        <v>5</v>
-      </c>
       <c r="H105" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44770</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>44790</v>
+      </c>
+      <c r="B106" s="1"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
       <c r="E106" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H106" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44760</v>
+        <v>44784</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="5"/>
+      <c r="C107" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D107" s="7"/>
-      <c r="E107" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E107" s="1"/>
       <c r="F107" t="s">
         <v>5</v>
       </c>
@@ -6629,60 +6646,59 @@
         <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44758</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="5"/>
+        <v>44782</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D108" s="7"/>
-      <c r="E108" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E108" s="1"/>
       <c r="F108" t="s">
         <v>5</v>
       </c>
-      <c r="G108" t="s">
-        <v>126</v>
-      </c>
       <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44753</v>
-      </c>
-      <c r="B109" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
       <c r="E109" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44760</v>
+      </c>
+      <c r="B110" s="1"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
       <c r="E110" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
         <v>5</v>
@@ -6691,18 +6707,18 @@
         <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44746</v>
+        <v>44758</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
       <c r="E111" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -6711,18 +6727,18 @@
         <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44745</v>
+        <v>44753</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
       <c r="E112" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s">
         <v>5</v>
@@ -6734,36 +6750,37 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44740</v>
+        <v>44747</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
       <c r="E113" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F113" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>126</v>
       </c>
       <c r="H113" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44738</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>44746</v>
+      </c>
+      <c r="B114" s="1"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
       <c r="E114" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F114" t="s">
         <v>5</v>
@@ -6772,58 +6789,59 @@
         <v>126</v>
       </c>
       <c r="H114" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44734</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B115" s="1"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="1"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>126</v>
+      </c>
+      <c r="H115" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" t="s">
         <v>6</v>
-      </c>
-      <c r="H115" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>44731</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="1"/>
-      <c r="F116" t="s">
-        <v>8</v>
       </c>
       <c r="H116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44728</v>
+        <v>44738</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
       <c r="E117" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F117" t="s">
         <v>5</v>
@@ -6832,63 +6850,58 @@
         <v>126</v>
       </c>
       <c r="H117" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44727</v>
+        <v>44734</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D118" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="1"/>
       <c r="F118" t="s">
-        <v>5</v>
-      </c>
-      <c r="G118" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H118" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44713</v>
+        <v>44731</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D119" s="7"/>
       <c r="E119" s="1"/>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H119" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44709</v>
+        <v>44728</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
       <c r="E120" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -6897,18 +6910,20 @@
         <v>126</v>
       </c>
       <c r="H120" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B121" s="1"/>
+        <v>44727</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
       <c r="E121" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
@@ -6917,37 +6932,41 @@
         <v>126</v>
       </c>
       <c r="H121" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44703</v>
+        <v>44713</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D122" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E122" s="1"/>
       <c r="F122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B123" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
       <c r="E123" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F123" t="s">
         <v>5</v>
@@ -6959,141 +6978,139 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>126</v>
+      </c>
+      <c r="H124" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>44703</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="1"/>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>44702</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>126</v>
+      </c>
+      <c r="H126" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
         <v>44698</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D124" s="7"/>
-      <c r="E124" s="1"/>
-      <c r="F124" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>44697</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F125" t="s">
-        <v>6</v>
-      </c>
-      <c r="H125" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>44693</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="1"/>
-      <c r="F126" t="s">
-        <v>5</v>
-      </c>
-      <c r="H126" t="s">
-        <v>110</v>
-      </c>
-      <c r="I126" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>44689</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="D127" s="7"/>
       <c r="E127" s="1"/>
       <c r="F127" t="s">
         <v>6</v>
       </c>
       <c r="H127" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44686</v>
+        <v>44697</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
       <c r="E128" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="F128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44681</v>
+        <v>44693</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C129" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D129" s="7"/>
-      <c r="E129" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E129" s="1"/>
       <c r="F129" t="s">
         <v>5</v>
-      </c>
-      <c r="G129" t="s">
-        <v>126</v>
       </c>
       <c r="H129" t="s">
         <v>110</v>
       </c>
+      <c r="I129" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B130" s="1"/>
+        <v>44689</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C130" s="5"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D130" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="1"/>
       <c r="F130" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H130" t="s">
         <v>110</v>
@@ -7101,13 +7118,15 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44664</v>
-      </c>
-      <c r="B131" s="1"/>
+        <v>44686</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
       <c r="E131" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F131" t="s">
         <v>5</v>
@@ -7118,18 +7137,21 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44653</v>
+        <v>44681</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
       <c r="E132" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F132" t="s">
         <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>126</v>
       </c>
       <c r="H132" t="s">
         <v>110</v>
@@ -7137,67 +7159,66 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44650</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44680</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="5"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F133" t="s">
         <v>5</v>
       </c>
+      <c r="G133" t="s">
+        <v>126</v>
+      </c>
       <c r="H133" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44647</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B134" s="1"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
       <c r="E134" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44630</v>
+        <v>44653</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C135" s="5"/>
-      <c r="D135" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E135" s="1"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44614</v>
+        <v>44650</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>132</v>
@@ -7208,258 +7229,255 @@
         <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44604</v>
+        <v>44647</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44600</v>
+        <v>44630</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D138" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E138" s="1"/>
       <c r="F138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44597</v>
+        <v>44614</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C139" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D139" s="7"/>
-      <c r="E139" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E139" s="1"/>
       <c r="F139" t="s">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44595</v>
+        <v>44604</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
       <c r="E140" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44593</v>
+        <v>44600</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C141" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D141" s="7"/>
-      <c r="E141" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E141" s="1"/>
       <c r="F141" t="s">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
       <c r="E142" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F142" t="s">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44588</v>
+        <v>44595</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
       <c r="E143" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F143" t="s">
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>110</v>
-      </c>
-      <c r="I143" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44585</v>
+        <v>44593</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="7"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F144" t="s">
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>111</v>
-      </c>
-      <c r="I144" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44582</v>
+        <v>44590</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C145" s="5"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F145" t="s">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B146" s="1"/>
+        <v>44588</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
       <c r="E146" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H146" t="s">
         <v>110</v>
       </c>
+      <c r="I146" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44576</v>
+        <v>44585</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C147" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E147" s="1"/>
       <c r="F147" t="s">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="I147" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44575</v>
+        <v>44582</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C148" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D148" s="7"/>
-      <c r="E148" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="E148" s="1"/>
       <c r="F148" t="s">
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44567</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B149" s="1"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
       <c r="E149" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
-        <v>9</v>
-      </c>
-      <c r="G149" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H149" t="s">
         <v>110</v>
@@ -7467,68 +7485,73 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44564</v>
+        <v>44576</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C150" s="5"/>
       <c r="D150" s="7"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F150" t="s">
         <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44558</v>
+        <v>44575</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C151" s="5"/>
       <c r="D151" s="7"/>
-      <c r="E151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F151" t="s">
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B152" s="1"/>
+        <v>44567</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
       <c r="E152" s="1" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="F152" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G152" t="s">
+        <v>121</v>
       </c>
       <c r="H152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44526</v>
+        <v>44564</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="1"/>
@@ -7536,23 +7559,23 @@
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44519</v>
+        <v>44558</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D154" s="7"/>
       <c r="E154" s="1"/>
       <c r="F154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H154" t="s">
         <v>114</v>
@@ -7560,13 +7583,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44507</v>
+        <v>44532</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
       <c r="E155" s="1" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F155" t="s">
         <v>5</v>
@@ -7577,70 +7600,65 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44495</v>
+        <v>44526</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="1"/>
       <c r="F156" t="s">
-        <v>9</v>
-      </c>
-      <c r="G156" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44487</v>
+        <v>44519</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C157" s="5"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D157" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E157" s="1"/>
       <c r="F157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H157" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44471</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="5"/>
       <c r="D158" s="7"/>
-      <c r="E158" s="1"/>
+      <c r="E158" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F158" t="s">
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44462</v>
+        <v>44495</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>37</v>
@@ -7648,23 +7666,26 @@
       <c r="D159" s="7"/>
       <c r="E159" s="1"/>
       <c r="F159" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G159" t="s">
+        <v>121</v>
       </c>
       <c r="H159" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>44446</v>
+        <v>44487</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
       <c r="E160" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F160" t="s">
         <v>5</v>
@@ -7672,16 +7693,13 @@
       <c r="H160" t="s">
         <v>111</v>
       </c>
-      <c r="I160" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>44445</v>
+        <v>44471</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>132</v>
@@ -7689,71 +7707,65 @@
       <c r="D161" s="7"/>
       <c r="E161" s="1"/>
       <c r="F161" t="s">
-        <v>9</v>
-      </c>
-      <c r="G161" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>44440</v>
+        <v>44462</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C162" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D162" s="7"/>
-      <c r="E162" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E162" s="1"/>
       <c r="F162" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H162" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
       <c r="E163" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
-      </c>
-      <c r="G163" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H163" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>44417</v>
+        <v>44445</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C164" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D164" s="7"/>
-      <c r="E164" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E164" s="1"/>
       <c r="F164" t="s">
         <v>9</v>
       </c>
@@ -7761,12 +7773,78 @@
         <v>121</v>
       </c>
       <c r="H164" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" t="s">
+        <v>121</v>
+      </c>
+      <c r="H165" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" t="s">
+        <v>121</v>
+      </c>
+      <c r="H166" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" t="s">
+        <v>121</v>
+      </c>
+      <c r="H167" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D128 D130:D1048576">
+  <conditionalFormatting sqref="D1:D131 D133:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73882E96-D8AF-47A2-B321-AE39854C8D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE72ACB6-48B4-4D15-8CFE-5D4093402D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="245">
   <si>
     <t>Fecha</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>Huacachina</t>
+  </si>
+  <si>
+    <t>Eclipse en el Mar</t>
   </si>
 </sst>
 </file>
@@ -3879,7 +3882,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -4013,7 +4016,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -4152,10 +4155,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I167" totalsRowShown="0">
-  <autoFilter ref="A1:I167" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I167">
-    <sortCondition descending="1" ref="A1:A167"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I168" totalsRowShown="0">
+  <autoFilter ref="A1:I168" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I168">
+    <sortCondition descending="1" ref="A1:A168"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4435,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4485,37 +4488,34 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45318</v>
+        <v>45330</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>244</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -4524,15 +4524,15 @@
         <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
@@ -4551,37 +4551,40 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45307</v>
+        <v>45313</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
+      <c r="G5" t="s">
+        <v>186</v>
+      </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45295</v>
+        <v>45307</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
@@ -4591,235 +4594,235 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45286</v>
+        <v>45295</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>186</v>
-      </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45265</v>
+        <v>45286</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
       <c r="H8" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45244</v>
+        <v>45264</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" t="s">
         <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>114</v>
+      </c>
+      <c r="I10" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45234</v>
+        <v>45244</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45225</v>
+        <v>45234</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45213</v>
+        <v>45225</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45193</v>
+        <v>45213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
+      <c r="G14" t="s">
+        <v>186</v>
+      </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45188</v>
+        <v>45193</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45179</v>
+        <v>45188</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
         <v>111</v>
@@ -4827,51 +4830,51 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45150</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45148</v>
+        <v>45150</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45139</v>
+        <v>45148</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
@@ -4879,23 +4882,23 @@
         <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45120</v>
+        <v>45139</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H22" t="s">
         <v>111</v>
@@ -4903,21 +4906,18 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" t="s">
         <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>186</v>
       </c>
       <c r="H23" t="s">
         <v>111</v>
@@ -4925,59 +4925,59 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
+      <c r="G24" t="s">
+        <v>186</v>
+      </c>
       <c r="H24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>186</v>
       </c>
       <c r="H25" t="s">
         <v>110</v>
       </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -4991,15 +4991,15 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -5013,15 +5013,15 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -5030,20 +5030,20 @@
         <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -5052,15 +5052,15 @@
         <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -5079,10 +5079,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -5101,15 +5101,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45065</v>
+        <v>45067</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -5118,15 +5118,15 @@
         <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -5145,56 +5145,56 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
       </c>
+      <c r="G34" t="s">
+        <v>186</v>
+      </c>
       <c r="H34" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45059</v>
+        <v>45061</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
-      <c r="G35" t="s">
-        <v>186</v>
-      </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -5203,20 +5203,20 @@
         <v>186</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
@@ -5225,56 +5225,59 @@
         <v>186</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45052</v>
+        <v>45056</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
       <c r="E38" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
+      <c r="G38" t="s">
+        <v>186</v>
+      </c>
       <c r="H38" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
       <c r="E39" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I39" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -5284,132 +5287,134 @@
       <c r="F40" t="s">
         <v>5</v>
       </c>
-      <c r="G40" t="s">
-        <v>186</v>
-      </c>
       <c r="H40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
       </c>
+      <c r="G41" t="s">
+        <v>186</v>
+      </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G42" t="s">
-        <v>186</v>
-      </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45036</v>
+        <v>45038</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F43" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>186</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
         <v>110</v>
       </c>
       <c r="I44" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" t="s">
         <v>5</v>
-      </c>
-      <c r="G45" t="s">
-        <v>126</v>
       </c>
       <c r="H45" t="s">
         <v>110</v>
       </c>
+      <c r="I45" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F46" t="s">
         <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>126</v>
       </c>
       <c r="H46" t="s">
         <v>110</v>
@@ -5417,10 +5422,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -5428,19 +5433,16 @@
       <c r="F47" t="s">
         <v>5</v>
       </c>
-      <c r="G47" t="s">
-        <v>126</v>
-      </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -5448,16 +5450,19 @@
       <c r="F48" t="s">
         <v>5</v>
       </c>
+      <c r="G48" t="s">
+        <v>126</v>
+      </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -5465,68 +5470,63 @@
       <c r="F49" t="s">
         <v>5</v>
       </c>
-      <c r="G49" t="s">
-        <v>126</v>
-      </c>
       <c r="H49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="7"/>
       <c r="E50" s="1"/>
       <c r="F50" t="s">
         <v>5</v>
       </c>
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
       <c r="H50" t="s">
         <v>110</v>
       </c>
-      <c r="I50" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D51" s="7"/>
-      <c r="E51" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="s">
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
       <c r="E52" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -5534,21 +5534,24 @@
       <c r="H52" t="s">
         <v>111</v>
       </c>
+      <c r="I52" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="1"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
         <v>111</v>
@@ -5556,81 +5559,81 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H55" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" t="s">
         <v>5</v>
       </c>
-      <c r="G56" t="s">
-        <v>126</v>
-      </c>
       <c r="H56" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I56" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44973</v>
+        <v>44982</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F57" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>126</v>
       </c>
       <c r="H57" t="s">
         <v>111</v>
@@ -5638,32 +5641,29 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44962</v>
+        <v>44973</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -5682,29 +5682,32 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="1"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
+      <c r="G60" t="s">
+        <v>126</v>
+      </c>
       <c r="H60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44955</v>
+        <v>44959</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="7" t="s">
@@ -5712,67 +5715,64 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44947</v>
+        <v>44955</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D62" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="1"/>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H62" t="s">
-        <v>111</v>
-      </c>
-      <c r="I62" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44945</v>
+        <v>44947</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="1"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
         <v>4</v>
@@ -5781,12 +5781,12 @@
         <v>110</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>13</v>
@@ -5808,52 +5808,52 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44942</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="1"/>
       <c r="F66" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
         <v>110</v>
       </c>
+      <c r="I66" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F67" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>126</v>
       </c>
       <c r="H67" t="s">
-        <v>111</v>
-      </c>
-      <c r="I67" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="1"/>
@@ -5869,38 +5869,38 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B69" s="1"/>
+        <v>44932</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C69" s="5" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="1"/>
       <c r="F69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I69" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E70" s="1"/>
       <c r="F70" t="s">
         <v>5</v>
-      </c>
-      <c r="G70" t="s">
-        <v>126</v>
       </c>
       <c r="H70" t="s">
         <v>110</v>
@@ -5908,70 +5908,73 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C71" s="5"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
       </c>
       <c r="H71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D72" s="7"/>
-      <c r="E72" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E72" s="1"/>
       <c r="F72" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="1"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F73" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>126</v>
       </c>
       <c r="H73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="7" t="s">
@@ -5979,43 +5982,43 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H74" t="s">
-        <v>114</v>
-      </c>
-      <c r="I74" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44912</v>
+        <v>44918</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" t="s">
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44903</v>
+        <v>44912</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="1"/>
@@ -6023,59 +6026,56 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>114</v>
-      </c>
-      <c r="I76" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44896</v>
+        <v>44903</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" s="7"/>
       <c r="E77" s="1"/>
       <c r="F77" t="s">
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I77" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44879</v>
+        <v>44896</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" t="s">
         <v>5</v>
       </c>
-      <c r="G78" t="s">
-        <v>126</v>
-      </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -6094,10 +6094,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44869</v>
+        <v>44877</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -6129,46 +6129,49 @@
       <c r="F81" t="s">
         <v>5</v>
       </c>
+      <c r="G81" t="s">
+        <v>126</v>
+      </c>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44864</v>
+        <v>44869</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
       <c r="E82" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
         <v>5</v>
       </c>
-      <c r="G82" t="s">
-        <v>126</v>
-      </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44858</v>
+        <v>44864</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="1"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>126</v>
       </c>
       <c r="H83" t="s">
         <v>111</v>
@@ -6176,167 +6179,167 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D84" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="1"/>
       <c r="F84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>44856</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
       <c r="E85" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
-      <c r="G85" t="s">
-        <v>126</v>
-      </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44850</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F86" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>126</v>
       </c>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44845</v>
+        <v>44850</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44843</v>
+        <v>44845</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C89" s="5"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F89" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>126</v>
       </c>
       <c r="H89" t="s">
         <v>111</v>
       </c>
-      <c r="I89" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="5"/>
+        <v>44840</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D90" s="7"/>
-      <c r="E90" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="I90" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="1"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F91" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="7" t="s">
@@ -6344,18 +6347,18 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="7" t="s">
@@ -6366,32 +6369,31 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D94" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="1"/>
       <c r="F94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="5"/>
@@ -6411,29 +6413,30 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F96" t="s">
         <v>5</v>
       </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>37</v>
@@ -6444,18 +6447,15 @@
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-      <c r="I97" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>37</v>
@@ -6469,46 +6469,48 @@
         <v>110</v>
       </c>
       <c r="I98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D99" s="7"/>
       <c r="E99" s="1"/>
       <c r="F99" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H99" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I99" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C100" s="5"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D100" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="1"/>
       <c r="F100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H100" t="s">
         <v>111</v>
@@ -6516,13 +6518,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44815</v>
+        <v>44821</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
       <c r="E101" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
         <v>5</v>
@@ -6536,13 +6538,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
       <c r="E102" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
         <v>5</v>
@@ -6551,21 +6553,19 @@
         <v>126</v>
       </c>
       <c r="H102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F103" t="s">
         <v>5</v>
       </c>
@@ -6573,152 +6573,154 @@
         <v>126</v>
       </c>
       <c r="H103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D104" s="7"/>
       <c r="E104" s="1"/>
       <c r="F104" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
       </c>
       <c r="H104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="1"/>
       <c r="F105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H105" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="7"/>
+        <v>44793</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>126</v>
       </c>
       <c r="H106" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44784</v>
+        <v>44790</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C107" s="5"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F107" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>44784</v>
+      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="1"/>
       <c r="F108" t="s">
         <v>5</v>
       </c>
+      <c r="G108" t="s">
+        <v>126</v>
+      </c>
       <c r="H108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44770</v>
+        <v>44782</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D109" s="7"/>
-      <c r="E109" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E109" s="1"/>
       <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B110" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
       <c r="E110" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G110" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H110" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
       <c r="E111" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -6732,13 +6734,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44753</v>
+        <v>44758</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
       <c r="E112" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F112" t="s">
         <v>5</v>
@@ -6747,20 +6749,18 @@
         <v>126</v>
       </c>
       <c r="H112" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="B113" s="1"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
       <c r="E113" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F113" t="s">
         <v>5</v>
@@ -6769,14 +6769,16 @@
         <v>126</v>
       </c>
       <c r="H113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B114" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
       <c r="E114" s="1" t="s">
@@ -6789,12 +6791,12 @@
         <v>126</v>
       </c>
       <c r="H114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="5"/>
@@ -6814,59 +6816,60 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B116" s="1"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
       <c r="E116" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F116" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>126</v>
       </c>
       <c r="H116" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44738</v>
+        <v>44740</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
       <c r="E117" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F117" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E118" s="1"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F118" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>126</v>
       </c>
       <c r="H118" t="s">
         <v>111</v>
@@ -6874,56 +6877,53 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44731</v>
+        <v>44734</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D119" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44728</v>
+        <v>44731</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D120" s="7"/>
-      <c r="E120" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E120" s="1"/>
       <c r="F120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H120" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
       <c r="E121" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
@@ -6932,61 +6932,63 @@
         <v>126</v>
       </c>
       <c r="H121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44713</v>
+        <v>44727</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F122" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>126</v>
       </c>
       <c r="H122" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44709</v>
+        <v>44713</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="1"/>
       <c r="F123" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B124" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
       <c r="E124" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F124" t="s">
         <v>5</v>
@@ -6995,173 +6997,173 @@
         <v>126</v>
       </c>
       <c r="H124" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44703</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="7"/>
-      <c r="E125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F125" t="s">
         <v>5</v>
       </c>
+      <c r="G125" t="s">
+        <v>126</v>
+      </c>
       <c r="H125" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="5"/>
+        <v>44703</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D126" s="7"/>
-      <c r="E126" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E126" s="1"/>
       <c r="F126" t="s">
         <v>5</v>
       </c>
-      <c r="G126" t="s">
-        <v>126</v>
-      </c>
       <c r="H126" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44698</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F127" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D128" s="7"/>
-      <c r="E128" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E128" s="1"/>
       <c r="F128" t="s">
         <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C129" s="5"/>
       <c r="D129" s="7"/>
-      <c r="E129" s="1"/>
+      <c r="E129" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H129" t="s">
-        <v>110</v>
-      </c>
-      <c r="I129" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44689</v>
+        <v>44693</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D130" s="7"/>
       <c r="E130" s="1"/>
       <c r="F130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H130" t="s">
         <v>110</v>
       </c>
+      <c r="I130" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D131" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="1"/>
       <c r="F131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
       <c r="E132" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F132" t="s">
         <v>5</v>
       </c>
-      <c r="G132" t="s">
-        <v>126</v>
-      </c>
       <c r="H132" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B133" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
       <c r="E133" s="1" t="s">
@@ -7179,198 +7181,199 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44664</v>
+        <v>44680</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
       <c r="E134" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
+      <c r="G134" t="s">
+        <v>126</v>
+      </c>
       <c r="H134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B135" s="1"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
       <c r="E135" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F135" t="s">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C136" s="5"/>
       <c r="D136" s="7"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F136" t="s">
         <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C137" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D137" s="7"/>
-      <c r="E137" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E137" s="1"/>
       <c r="F137" t="s">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44630</v>
+        <v>44647</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C138" s="5"/>
-      <c r="D138" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E138" s="1"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44614</v>
+        <v>44630</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D139" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E139" s="1"/>
       <c r="F139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44604</v>
+        <v>44614</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C140" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D140" s="7"/>
-      <c r="E140" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E140" s="1"/>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44600</v>
+        <v>44604</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C141" s="5"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F141" t="s">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44597</v>
+        <v>44600</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C142" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D142" s="7"/>
-      <c r="E142" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E142" s="1"/>
       <c r="F142" t="s">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
       <c r="E143" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F143" t="s">
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -7381,81 +7384,78 @@
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
       <c r="E145" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
       <c r="E146" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>110</v>
-      </c>
-      <c r="I146" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C147" s="5"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F147" t="s">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I147" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="1"/>
@@ -7463,70 +7463,73 @@
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="I148" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="5"/>
+        <v>44582</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E149" s="1"/>
       <c r="F149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B150" s="1"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
       <c r="E150" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H150" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
       <c r="E151" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F151" t="s">
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -7534,10 +7537,7 @@
         <v>85</v>
       </c>
       <c r="F152" t="s">
-        <v>9</v>
-      </c>
-      <c r="G152" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H152" t="s">
         <v>110</v>
@@ -7545,18 +7545,21 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C153" s="5"/>
       <c r="D153" s="7"/>
-      <c r="E153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F153" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G153" t="s">
+        <v>121</v>
       </c>
       <c r="H153" t="s">
         <v>110</v>
@@ -7564,13 +7567,13 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44558</v>
+        <v>44564</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="1"/>
@@ -7578,38 +7581,38 @@
         <v>5</v>
       </c>
       <c r="H154" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="5"/>
+        <v>44558</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D155" s="7"/>
-      <c r="E155" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E155" s="1"/>
       <c r="F155" t="s">
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44526</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="5"/>
       <c r="D156" s="7"/>
-      <c r="E156" s="1"/>
+      <c r="E156" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F156" t="s">
         <v>5</v>
       </c>
@@ -7619,109 +7622,109 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D157" s="7"/>
       <c r="E157" s="1"/>
       <c r="F157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B158" s="1"/>
+        <v>44519</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C158" s="5"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D158" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E158" s="1"/>
       <c r="F158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H158" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44495</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="5"/>
       <c r="D159" s="7"/>
-      <c r="E159" s="1"/>
+      <c r="E159" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F159" t="s">
-        <v>9</v>
-      </c>
-      <c r="G159" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D160" s="7"/>
-      <c r="E160" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E160" s="1"/>
       <c r="F160" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G160" t="s">
+        <v>121</v>
       </c>
       <c r="H160" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C161" s="5"/>
       <c r="D161" s="7"/>
-      <c r="E161" s="1"/>
+      <c r="E161" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F161" t="s">
         <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>44462</v>
+        <v>44471</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="1"/>
@@ -7729,65 +7732,62 @@
         <v>5</v>
       </c>
       <c r="H162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>44446</v>
+        <v>44462</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C163" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D163" s="7"/>
-      <c r="E163" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E163" s="1"/>
       <c r="F163" t="s">
         <v>5</v>
       </c>
       <c r="H163" t="s">
         <v>111</v>
       </c>
-      <c r="I163" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C164" s="5"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="1"/>
+      <c r="E164" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F164" t="s">
-        <v>9</v>
-      </c>
-      <c r="G164" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H164" t="s">
         <v>111</v>
       </c>
+      <c r="I164" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C165" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D165" s="7"/>
-      <c r="E165" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E165" s="1"/>
       <c r="F165" t="s">
         <v>9</v>
       </c>
@@ -7800,15 +7800,15 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>44418</v>
+        <v>44440</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
       <c r="E166" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F166" t="s">
         <v>9</v>
@@ -7822,10 +7822,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -7839,12 +7839,34 @@
         <v>121</v>
       </c>
       <c r="H167" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" t="s">
+        <v>121</v>
+      </c>
+      <c r="H168" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D131 D133:D1048576">
+  <conditionalFormatting sqref="D1:D132 D134:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE72ACB6-48B4-4D15-8CFE-5D4093402D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8290DA-09A6-48E8-93C7-85B6A32AF306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27615" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="249">
   <si>
     <t>Fecha</t>
   </si>
@@ -765,9 +765,6 @@
     <t>Plaza de Armas</t>
   </si>
   <si>
-    <t>Cusco</t>
-  </si>
-  <si>
     <t>Huacachina 2</t>
   </si>
   <si>
@@ -775,6 +772,21 @@
   </si>
   <si>
     <t>Eclipse en el Mar</t>
+  </si>
+  <si>
+    <t>Paracas</t>
+  </si>
+  <si>
+    <t>Paracas, Perú</t>
+  </si>
+  <si>
+    <t>Huacachina, Perú</t>
+  </si>
+  <si>
+    <t>Cusco, Perú</t>
+  </si>
+  <si>
+    <t>Claustro San Ignacio</t>
   </si>
 </sst>
 </file>
@@ -3882,141 +3894,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
@@ -4154,11 +4032,145 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I168" totalsRowShown="0">
-  <autoFilter ref="A1:I168" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I168">
-    <sortCondition descending="1" ref="A1:A168"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I170" totalsRowShown="0">
+  <autoFilter ref="A1:I170" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I170">
+    <sortCondition descending="1" ref="A1:A170"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4438,7 +4450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -4488,56 +4500,53 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45330</v>
+        <v>45339</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45318</v>
+        <v>45330</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>243</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4546,20 +4555,20 @@
         <v>186</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -4573,117 +4582,122 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45307</v>
+        <v>45313</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45295</v>
+        <v>45312</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>237</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45286</v>
+        <v>45307</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>238</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>186</v>
-      </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45265</v>
+        <v>45295</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45264</v>
+        <v>45286</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45244</v>
+        <v>45265</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>230</v>
@@ -4691,35 +4705,33 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45234</v>
+        <v>45264</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45225</v>
+        <v>45244</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
@@ -4727,20 +4739,20 @@
         <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45213</v>
+        <v>45234</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -4749,23 +4761,23 @@
         <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45193</v>
+        <v>45225</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H15" t="s">
         <v>111</v>
@@ -4773,18 +4785,21 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45188</v>
+        <v>45213</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>186</v>
       </c>
       <c r="H16" t="s">
         <v>110</v>
@@ -4792,89 +4807,89 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45179</v>
+        <v>45193</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45178</v>
+        <v>45188</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45170</v>
+        <v>45179</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="1"/>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45150</v>
+        <v>45178</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45148</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
@@ -4882,64 +4897,61 @@
         <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45139</v>
+        <v>45150</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45120</v>
+        <v>45148</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45110</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H24" t="s">
         <v>111</v>
@@ -4947,37 +4959,34 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45105</v>
+        <v>45120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45099</v>
+        <v>45110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -4986,15 +4995,15 @@
         <v>186</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -5004,24 +5013,24 @@
       <c r="F27" t="s">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
-        <v>186</v>
-      </c>
       <c r="H27" t="s">
         <v>110</v>
       </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -5035,15 +5044,15 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -5052,20 +5061,20 @@
         <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45072</v>
+        <v>45084</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -5079,15 +5088,15 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45069</v>
+        <v>45079</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -5096,15 +5105,15 @@
         <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45067</v>
+        <v>45072</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -5123,15 +5132,15 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -5140,20 +5149,20 @@
         <v>186</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45063</v>
+        <v>45067</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -5162,39 +5171,42 @@
         <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45061</v>
+        <v>45065</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
+      <c r="G35" t="s">
+        <v>186</v>
+      </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45059</v>
+        <v>45063</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -5203,26 +5215,23 @@
         <v>186</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>186</v>
       </c>
       <c r="H37" t="s">
         <v>119</v>
@@ -5230,15 +5239,15 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45056</v>
+        <v>45059</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
       <c r="E38" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5247,102 +5256,105 @@
         <v>186</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45052</v>
+        <v>45058</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
       <c r="E39" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>186</v>
       </c>
       <c r="H39" t="s">
         <v>119</v>
       </c>
-      <c r="I39" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45047</v>
+        <v>45056</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
       <c r="E40" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
       </c>
+      <c r="G40" t="s">
+        <v>186</v>
+      </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45046</v>
+        <v>45052</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
       </c>
-      <c r="G41" t="s">
-        <v>186</v>
-      </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45039</v>
+        <v>45047</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45038</v>
+        <v>45046</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
@@ -5351,83 +5363,82 @@
         <v>186</v>
       </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45030</v>
+        <v>45038</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F45" t="s">
         <v>5</v>
       </c>
+      <c r="G45" t="s">
+        <v>186</v>
+      </c>
       <c r="H45" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45023</v>
+        <v>45036</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
         <v>110</v>
       </c>
+      <c r="I46" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45018</v>
+        <v>45030</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D47" s="7"/>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
@@ -5436,17 +5447,22 @@
       <c r="H47" t="s">
         <v>110</v>
       </c>
+      <c r="I47" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45017</v>
+        <v>45023</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F48" t="s">
         <v>5</v>
       </c>
@@ -5454,15 +5470,15 @@
         <v>126</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>45011</v>
+        <v>45018</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -5476,10 +5492,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -5491,19 +5507,17 @@
         <v>126</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>45009</v>
+        <v>45011</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="7"/>
       <c r="E51" s="1"/>
       <c r="F51" t="s">
@@ -5512,163 +5526,161 @@
       <c r="H51" t="s">
         <v>110</v>
       </c>
-      <c r="I51" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>45008</v>
+        <v>45010</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E52" s="1"/>
       <c r="F52" t="s">
         <v>5</v>
       </c>
+      <c r="G52" t="s">
+        <v>126</v>
+      </c>
       <c r="H52" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D53" s="7"/>
-      <c r="E53" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="E53" s="1"/>
       <c r="F53" t="s">
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I53" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>45004</v>
+        <v>45008</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="1"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
         <v>111</v>
       </c>
+      <c r="I54" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C55" s="5"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>44987</v>
+        <v>45004</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>113</v>
-      </c>
-      <c r="I56" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>44982</v>
+        <v>45001</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E57" s="1"/>
       <c r="F57" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44973</v>
+        <v>44987</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I58" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44962</v>
+        <v>44982</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
       <c r="E59" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F59" t="s">
         <v>5</v>
@@ -5677,64 +5689,67 @@
         <v>126</v>
       </c>
       <c r="H59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44961</v>
+        <v>44973</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44959</v>
+        <v>44962</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="1"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F61" t="s">
         <v>5</v>
       </c>
+      <c r="G61" t="s">
+        <v>126</v>
+      </c>
       <c r="H61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44955</v>
+        <v>44961</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="1"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F62" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>126</v>
       </c>
       <c r="H62" t="s">
         <v>110</v>
@@ -5742,32 +5757,29 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44947</v>
+        <v>44959</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="s">
         <v>5</v>
       </c>
       <c r="H63" t="s">
         <v>111</v>
       </c>
-      <c r="I63" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44945</v>
+        <v>44955</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="7" t="s">
@@ -5775,48 +5787,45 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="H64" t="s">
         <v>110</v>
       </c>
-      <c r="I64" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44943</v>
+        <v>44947</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I65" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44942</v>
+        <v>44945</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" t="s">
         <v>4</v>
@@ -5825,35 +5834,40 @@
         <v>110</v>
       </c>
       <c r="I66" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44943</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="1"/>
       <c r="F67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
         <v>110</v>
       </c>
+      <c r="I67" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="1"/>
@@ -5861,98 +5875,96 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I68" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F69" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>126</v>
       </c>
       <c r="H69" t="s">
-        <v>111</v>
-      </c>
-      <c r="I69" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B70" s="1"/>
+        <v>44937</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C70" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="1"/>
       <c r="F70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I70" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44928</v>
+        <v>44932</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D71" s="7"/>
-      <c r="E71" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E71" s="1"/>
       <c r="F71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I71" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44924</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>44930</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="1"/>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44922</v>
+        <v>44928</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -5971,59 +5983,59 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44920</v>
+        <v>44924</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="7"/>
       <c r="E74" s="1"/>
       <c r="F74" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="1"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
+      <c r="G75" t="s">
+        <v>126</v>
+      </c>
       <c r="H75" t="s">
-        <v>114</v>
-      </c>
-      <c r="I75" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44912</v>
+        <v>44920</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H76" t="s">
         <v>111</v>
@@ -6031,15 +6043,15 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44903</v>
+        <v>44918</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" t="s">
         <v>5</v>
@@ -6048,20 +6060,20 @@
         <v>114</v>
       </c>
       <c r="I77" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44896</v>
+        <v>44912</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="7"/>
       <c r="E78" s="1"/>
       <c r="F78" t="s">
         <v>5</v>
@@ -6072,54 +6084,51 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44879</v>
+        <v>44903</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E79" s="1"/>
       <c r="F79" t="s">
         <v>5</v>
       </c>
-      <c r="G79" t="s">
-        <v>126</v>
-      </c>
       <c r="H79" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="I79" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44878</v>
+        <v>44896</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D80" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" t="s">
         <v>5</v>
       </c>
-      <c r="G80" t="s">
-        <v>126</v>
-      </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44877</v>
+        <v>44879</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -6138,10 +6147,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44869</v>
+        <v>44878</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -6151,21 +6160,24 @@
       <c r="F82" t="s">
         <v>5</v>
       </c>
+      <c r="G82" t="s">
+        <v>126</v>
+      </c>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44864</v>
+        <v>44877</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
       <c r="E83" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83" t="s">
         <v>5</v>
@@ -6174,62 +6186,64 @@
         <v>126</v>
       </c>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44858</v>
+        <v>44869</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" s="1"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44856</v>
+        <v>44864</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
       <c r="E85" s="1" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
+      <c r="G85" t="s">
+        <v>126</v>
+      </c>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>44858</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D86" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="1"/>
       <c r="F86" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H86" t="s">
         <v>111</v>
@@ -6237,73 +6251,71 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44850</v>
+        <v>44856</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C87" s="5"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F88" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
       </c>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44843</v>
+        <v>44850</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D89" s="7"/>
-      <c r="E89" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E89" s="1"/>
       <c r="F89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44840</v>
+        <v>44845</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="1"/>
@@ -6311,73 +6323,76 @@
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>111</v>
-      </c>
-      <c r="I90" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>44843</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
       <c r="E91" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
         <v>5</v>
       </c>
+      <c r="G91" t="s">
+        <v>126</v>
+      </c>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44834</v>
+        <v>44840</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D92" s="7"/>
       <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="I92" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44833</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B93" s="1"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="1"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44831</v>
+        <v>44834</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="7" t="s">
@@ -6385,99 +6400,96 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>44833</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D95" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44826</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D96" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44827</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F97" t="s">
         <v>5</v>
       </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44824</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F98" t="s">
         <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
       </c>
       <c r="H98" t="s">
         <v>110</v>
       </c>
-      <c r="I98" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44823</v>
+        <v>44825</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>37</v>
@@ -6488,69 +6500,70 @@
         <v>5</v>
       </c>
       <c r="H99" t="s">
-        <v>110</v>
-      </c>
-      <c r="I99" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44822</v>
+        <v>44824</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D100" s="7"/>
       <c r="E100" s="1"/>
       <c r="F100" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H100" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I100" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="5"/>
+        <v>44823</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D101" s="7"/>
-      <c r="E101" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E101" s="1"/>
       <c r="F101" t="s">
         <v>5</v>
       </c>
-      <c r="G101" t="s">
-        <v>126</v>
-      </c>
       <c r="H101" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I101" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44815</v>
-      </c>
-      <c r="B102" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C102" s="5"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D102" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="1"/>
       <c r="F102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H102" t="s">
         <v>111</v>
@@ -6558,13 +6571,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44814</v>
+        <v>44821</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
       <c r="E103" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
         <v>5</v>
@@ -6573,21 +6586,19 @@
         <v>126</v>
       </c>
       <c r="H103" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44815</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F104" t="s">
         <v>5</v>
       </c>
@@ -6600,18 +6611,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44801</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B105" s="1"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" s="1"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F105" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
       </c>
       <c r="H105" t="s">
         <v>110</v>
@@ -6619,11 +6631,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44808</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="1"/>
       <c r="F106" t="s">
         <v>5</v>
       </c>
@@ -6631,21 +6648,23 @@
         <v>126</v>
       </c>
       <c r="H106" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B107" s="1"/>
+        <v>44801</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C107" s="5"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D107" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="1"/>
       <c r="F107" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H107" t="s">
         <v>110</v>
@@ -6653,14 +6672,11 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44784</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="1"/>
+        <v>44793</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F108" t="s">
         <v>5</v>
       </c>
@@ -6668,99 +6684,96 @@
         <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44790</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="7"/>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44770</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C110" s="5"/>
+        <v>44784</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D110" s="7"/>
-      <c r="E110" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E110" s="1"/>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G110" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="5"/>
+        <v>44782</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E111" s="1"/>
       <c r="F111" t="s">
         <v>5</v>
       </c>
-      <c r="G111" t="s">
-        <v>126</v>
-      </c>
       <c r="H111" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44758</v>
-      </c>
-      <c r="B112" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
       <c r="E112" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H112" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44753</v>
+        <v>44760</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
       <c r="E113" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F113" t="s">
         <v>5</v>
@@ -6769,20 +6782,18 @@
         <v>126</v>
       </c>
       <c r="H113" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44758</v>
+      </c>
+      <c r="B114" s="1"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
       <c r="E114" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F114" t="s">
         <v>5</v>
@@ -6791,18 +6802,18 @@
         <v>126</v>
       </c>
       <c r="H114" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44746</v>
+        <v>44753</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
       <c r="E115" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -6816,9 +6827,11 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44745</v>
-      </c>
-      <c r="B116" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
       <c r="E116" s="1" t="s">
@@ -6831,39 +6844,38 @@
         <v>126</v>
       </c>
       <c r="H116" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44746</v>
+      </c>
+      <c r="B117" s="1"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
       <c r="E117" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>126</v>
       </c>
       <c r="H117" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44738</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
@@ -6872,123 +6884,121 @@
         <v>126</v>
       </c>
       <c r="H118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44734</v>
+        <v>44740</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="1"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F119" t="s">
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44731</v>
+        <v>44738</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C120" s="5"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F120" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>126</v>
       </c>
       <c r="H120" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44728</v>
+        <v>44734</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D121" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="1"/>
       <c r="F121" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44727</v>
+        <v>44731</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D122" s="7"/>
-      <c r="E122" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E122" s="1"/>
       <c r="F122" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H122" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44713</v>
+        <v>44728</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F123" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>126</v>
       </c>
       <c r="H123" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44709</v>
+        <v>44727</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
       <c r="E124" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F124" t="s">
         <v>5</v>
@@ -7002,52 +7012,56 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>44713</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="1"/>
       <c r="F125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G125" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44703</v>
+        <v>44709</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C126" s="5"/>
       <c r="D126" s="7"/>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F126" t="s">
         <v>5</v>
       </c>
+      <c r="G126" t="s">
+        <v>126</v>
+      </c>
       <c r="H126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44702</v>
+        <v>44705</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
       <c r="E127" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F127" t="s">
         <v>5</v>
@@ -7056,124 +7070,122 @@
         <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="1"/>
       <c r="F128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44697</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B129" s="1"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
       <c r="E129" s="1" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="F129" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>126</v>
       </c>
       <c r="H129" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44693</v>
+        <v>44698</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="1"/>
       <c r="F130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>110</v>
-      </c>
-      <c r="I130" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44689</v>
+        <v>44697</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E131" s="1"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F131" t="s">
         <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44686</v>
+        <v>44693</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C132" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D132" s="7"/>
-      <c r="E132" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E132" s="1"/>
       <c r="F132" t="s">
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I132" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C133" s="5"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D133" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="1"/>
       <c r="F133" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
         <v>110</v>
@@ -7181,55 +7193,60 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B134" s="1"/>
+        <v>44686</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
       <c r="E134" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
-      <c r="G134" t="s">
-        <v>126</v>
-      </c>
       <c r="H134" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44664</v>
-      </c>
-      <c r="B135" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
       <c r="E135" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F135" t="s">
         <v>5</v>
       </c>
+      <c r="G135" t="s">
+        <v>126</v>
+      </c>
       <c r="H135" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44680</v>
+      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F136" t="s">
         <v>5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>126</v>
       </c>
       <c r="H136" t="s">
         <v>110</v>
@@ -7237,34 +7254,32 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44650</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="5"/>
       <c r="D137" s="7"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44647</v>
+        <v>44653</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
       <c r="E138" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -7275,56 +7290,56 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44630</v>
+        <v>44650</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D139" s="7"/>
       <c r="E139" s="1"/>
       <c r="F139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44614</v>
+        <v>44647</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C140" s="5"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44604</v>
+        <v>44630</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D141" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="1"/>
       <c r="F141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H141" t="s">
         <v>111</v>
@@ -7332,10 +7347,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44600</v>
+        <v>44614</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>132</v>
@@ -7346,20 +7361,20 @@
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44597</v>
+        <v>44604</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
       <c r="E143" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
         <v>5</v>
@@ -7370,72 +7385,72 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44595</v>
+        <v>44600</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C144" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D144" s="7"/>
-      <c r="E144" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E144" s="1"/>
       <c r="F144" t="s">
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44593</v>
+        <v>44597</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
       <c r="E145" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44590</v>
+        <v>44595</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
       <c r="E146" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F146" t="s">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44588</v>
+        <v>44593</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
       <c r="E147" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F147" t="s">
         <v>5</v>
@@ -7443,101 +7458,101 @@
       <c r="H147" t="s">
         <v>110</v>
       </c>
-      <c r="I147" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44585</v>
+        <v>44590</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C148" s="5"/>
       <c r="D148" s="7"/>
-      <c r="E148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F148" t="s">
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>111</v>
-      </c>
-      <c r="I148" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44582</v>
+        <v>44588</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C149" s="5"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F149" t="s">
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="I149" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="5"/>
+        <v>44585</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D150" s="7"/>
-      <c r="E150" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E150" s="1"/>
       <c r="F150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I150" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44576</v>
+        <v>44582</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C151" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D151" s="7"/>
-      <c r="E151" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E151" s="1"/>
       <c r="F151" t="s">
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44575</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B152" s="1"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
       <c r="E152" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H152" t="s">
         <v>110</v>
@@ -7545,38 +7560,35 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44567</v>
+        <v>44576</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
       <c r="E153" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F153" t="s">
-        <v>9</v>
-      </c>
-      <c r="G153" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44564</v>
+        <v>44575</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C154" s="5"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F154" t="s">
         <v>5</v>
       </c>
@@ -7586,46 +7598,51 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44558</v>
+        <v>44567</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C155" s="5"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="1"/>
+      <c r="E155" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F155" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G155" t="s">
+        <v>121</v>
       </c>
       <c r="H155" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="5"/>
+        <v>44564</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D156" s="7"/>
-      <c r="E156" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E156" s="1"/>
       <c r="F156" t="s">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44526</v>
+        <v>44558</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>132</v>
@@ -7636,38 +7653,38 @@
         <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44519</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B158" s="1"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E158" s="1"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="5"/>
+        <v>44526</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D159" s="7"/>
-      <c r="E159" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E159" s="1"/>
       <c r="F159" t="s">
         <v>5</v>
       </c>
@@ -7677,21 +7694,18 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C160" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D160" s="7"/>
       <c r="E160" s="1"/>
       <c r="F160" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H160" t="s">
         <v>114</v>
@@ -7699,15 +7713,13 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>44487</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B161" s="1"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
       <c r="E161" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F161" t="s">
         <v>5</v>
@@ -7718,35 +7730,38 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>44471</v>
+        <v>44495</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="1"/>
       <c r="F162" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G162" t="s">
+        <v>121</v>
       </c>
       <c r="H162" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>44462</v>
+        <v>44487</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C163" s="5"/>
       <c r="D163" s="7"/>
-      <c r="E163" s="1"/>
+      <c r="E163" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F163" t="s">
         <v>5</v>
       </c>
@@ -7756,43 +7771,37 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>44446</v>
+        <v>44471</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C164" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D164" s="7"/>
-      <c r="E164" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E164" s="1"/>
       <c r="F164" t="s">
         <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>111</v>
-      </c>
-      <c r="I164" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>44445</v>
+        <v>44462</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="1"/>
       <c r="F165" t="s">
-        <v>9</v>
-      </c>
-      <c r="G165" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H165" t="s">
         <v>111</v>
@@ -7800,10 +7809,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -7811,27 +7820,27 @@
         <v>61</v>
       </c>
       <c r="F166" t="s">
-        <v>9</v>
-      </c>
-      <c r="G166" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H166" t="s">
         <v>111</v>
       </c>
+      <c r="I166" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>44418</v>
+        <v>44445</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C167" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D167" s="7"/>
-      <c r="E167" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E167" s="1"/>
       <c r="F167" t="s">
         <v>9</v>
       </c>
@@ -7844,15 +7853,15 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>44417</v>
+        <v>44440</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
       <c r="E168" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F168" t="s">
         <v>9</v>
@@ -7861,12 +7870,56 @@
         <v>121</v>
       </c>
       <c r="H168" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" t="s">
+        <v>121</v>
+      </c>
+      <c r="H169" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" t="s">
+        <v>121</v>
+      </c>
+      <c r="H170" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D132 D134:D1048576">
+  <conditionalFormatting sqref="D1:D134 D136:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8290DA-09A6-48E8-93C7-85B6A32AF306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240FB08-3C09-45F9-91F0-4A37D5982A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27615" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="251">
   <si>
     <t>Fecha</t>
   </si>
@@ -787,6 +787,12 @@
   </si>
   <si>
     <t>Claustro San Ignacio</t>
+  </si>
+  <si>
+    <t>Palacio de Bellas Artes</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
   </si>
 </sst>
 </file>
@@ -3894,6 +3900,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -4032,145 +4172,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I170" totalsRowShown="0">
-  <autoFilter ref="A1:I170" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I170">
-    <sortCondition descending="1" ref="A1:A170"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I171" totalsRowShown="0">
+  <autoFilter ref="A1:I171" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I171">
+    <sortCondition descending="1" ref="A1:A171"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4450,10 +4456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4500,18 +4506,21 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45339</v>
+        <v>45394</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>186</v>
       </c>
       <c r="H2" t="s">
         <v>119</v>
@@ -4519,56 +4528,53 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45330</v>
+        <v>45339</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45318</v>
+        <v>45330</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>243</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -4577,15 +4583,15 @@
         <v>186</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
@@ -4604,15 +4610,15 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45312</v>
+        <v>45313</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -4626,37 +4632,40 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45307</v>
+        <v>45312</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45295</v>
+        <v>45307</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
@@ -4666,235 +4675,235 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45286</v>
+        <v>45295</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>186</v>
-      </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45265</v>
+        <v>45286</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
       <c r="H11" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45244</v>
+        <v>45264</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>230</v>
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45234</v>
+        <v>45244</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45225</v>
+        <v>45234</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>186</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45213</v>
+        <v>45225</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45193</v>
+        <v>45213</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
+      <c r="G17" t="s">
+        <v>186</v>
+      </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45188</v>
+        <v>45193</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45179</v>
+        <v>45188</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="1"/>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>111</v>
@@ -4902,51 +4911,51 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45150</v>
+        <v>45170</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45148</v>
+        <v>45150</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45139</v>
+        <v>45148</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
@@ -4954,23 +4963,23 @@
         <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45120</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H25" t="s">
         <v>111</v>
@@ -4978,21 +4987,18 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" t="s">
         <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>186</v>
       </c>
       <c r="H26" t="s">
         <v>111</v>
@@ -5000,59 +5006,59 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
+      <c r="G27" t="s">
+        <v>186</v>
+      </c>
       <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>186</v>
       </c>
       <c r="H28" t="s">
         <v>110</v>
       </c>
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -5066,15 +5072,15 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -5088,15 +5094,15 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -5105,20 +5111,20 @@
         <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -5127,15 +5133,15 @@
         <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -5154,10 +5160,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -5176,15 +5182,15 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45065</v>
+        <v>45067</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -5193,15 +5199,15 @@
         <v>186</v>
       </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -5220,56 +5226,56 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
       </c>
+      <c r="G37" t="s">
+        <v>186</v>
+      </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45059</v>
+        <v>45061</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
       <c r="E38" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="G38" t="s">
-        <v>186</v>
-      </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
       <c r="E39" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
@@ -5278,20 +5284,20 @@
         <v>186</v>
       </c>
       <c r="H39" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
       <c r="E40" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -5300,56 +5306,59 @@
         <v>186</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45052</v>
+        <v>45056</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
       </c>
+      <c r="G41" t="s">
+        <v>186</v>
+      </c>
       <c r="H41" t="s">
-        <v>119</v>
-      </c>
-      <c r="I41" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I42" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -5359,132 +5368,134 @@
       <c r="F43" t="s">
         <v>5</v>
       </c>
-      <c r="G43" t="s">
-        <v>186</v>
-      </c>
       <c r="H43" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
       <c r="E44" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
       </c>
+      <c r="G44" t="s">
+        <v>186</v>
+      </c>
       <c r="H44" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
       <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
         <v>5</v>
       </c>
-      <c r="G45" t="s">
-        <v>186</v>
-      </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45036</v>
+        <v>45038</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F46" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>186</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
         <v>110</v>
       </c>
       <c r="I47" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" t="s">
         <v>5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>126</v>
       </c>
       <c r="H48" t="s">
         <v>110</v>
       </c>
+      <c r="I48" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F49" t="s">
         <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>126</v>
       </c>
       <c r="H49" t="s">
         <v>110</v>
@@ -5492,10 +5503,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -5503,19 +5514,16 @@
       <c r="F50" t="s">
         <v>5</v>
       </c>
-      <c r="G50" t="s">
-        <v>126</v>
-      </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -5523,16 +5531,19 @@
       <c r="F51" t="s">
         <v>5</v>
       </c>
+      <c r="G51" t="s">
+        <v>126</v>
+      </c>
       <c r="H51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -5540,68 +5551,63 @@
       <c r="F52" t="s">
         <v>5</v>
       </c>
-      <c r="G52" t="s">
-        <v>126</v>
-      </c>
       <c r="H52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C53" s="5"/>
       <c r="D53" s="7"/>
       <c r="E53" s="1"/>
       <c r="F53" t="s">
         <v>5</v>
       </c>
+      <c r="G53" t="s">
+        <v>126</v>
+      </c>
       <c r="H53" t="s">
         <v>110</v>
       </c>
-      <c r="I53" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" t="s">
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I54" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
       <c r="E55" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -5609,21 +5615,24 @@
       <c r="H55" t="s">
         <v>111</v>
       </c>
+      <c r="I55" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="1"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
         <v>111</v>
@@ -5631,81 +5640,81 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I58" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" t="s">
         <v>5</v>
       </c>
-      <c r="G59" t="s">
-        <v>126</v>
-      </c>
       <c r="H59" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I59" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44973</v>
+        <v>44982</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F60" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>126</v>
       </c>
       <c r="H60" t="s">
         <v>111</v>
@@ -5713,32 +5722,29 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44962</v>
+        <v>44973</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E61" s="1"/>
       <c r="F61" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -5757,29 +5763,32 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="1"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
+      <c r="G63" t="s">
+        <v>126</v>
+      </c>
       <c r="H63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44955</v>
+        <v>44959</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="7" t="s">
@@ -5787,67 +5796,64 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44947</v>
+        <v>44955</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D65" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H65" t="s">
-        <v>111</v>
-      </c>
-      <c r="I65" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44945</v>
+        <v>44947</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="1"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" t="s">
         <v>4</v>
@@ -5856,12 +5862,12 @@
         <v>110</v>
       </c>
       <c r="I67" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>13</v>
@@ -5883,52 +5889,52 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44942</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="1"/>
       <c r="F69" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
         <v>110</v>
       </c>
+      <c r="I69" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F70" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>126</v>
       </c>
       <c r="H70" t="s">
-        <v>111</v>
-      </c>
-      <c r="I70" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="1"/>
@@ -5944,38 +5950,38 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>44932</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C72" s="5" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="1"/>
       <c r="F72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I72" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E73" s="1"/>
       <c r="F73" t="s">
         <v>5</v>
-      </c>
-      <c r="G73" t="s">
-        <v>126</v>
       </c>
       <c r="H73" t="s">
         <v>110</v>
@@ -5983,70 +5989,73 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C74" s="5"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>126</v>
       </c>
       <c r="H74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="1"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F76" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>126</v>
       </c>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="7" t="s">
@@ -6054,43 +6063,43 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H77" t="s">
-        <v>114</v>
-      </c>
-      <c r="I77" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44912</v>
+        <v>44918</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" t="s">
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44903</v>
+        <v>44912</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="1"/>
@@ -6098,59 +6107,56 @@
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
-      </c>
-      <c r="I79" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44896</v>
+        <v>44903</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" s="7"/>
       <c r="E80" s="1"/>
       <c r="F80" t="s">
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I80" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44879</v>
+        <v>44896</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D81" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="1"/>
       <c r="F81" t="s">
         <v>5</v>
       </c>
-      <c r="G81" t="s">
-        <v>126</v>
-      </c>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -6169,10 +6175,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -6191,10 +6197,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44869</v>
+        <v>44877</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -6204,46 +6210,49 @@
       <c r="F84" t="s">
         <v>5</v>
       </c>
+      <c r="G84" t="s">
+        <v>126</v>
+      </c>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44864</v>
+        <v>44869</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
       <c r="E85" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
-      <c r="G85" t="s">
-        <v>126</v>
-      </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44858</v>
+        <v>44864</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="1"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>126</v>
       </c>
       <c r="H86" t="s">
         <v>111</v>
@@ -6251,167 +6260,167 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D87" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="1"/>
       <c r="F87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B88" s="1"/>
+        <v>44856</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
       <c r="E88" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
       </c>
-      <c r="G88" t="s">
-        <v>126</v>
-      </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44850</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>126</v>
       </c>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44845</v>
+        <v>44850</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="1"/>
       <c r="F90" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44843</v>
+        <v>44845</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C92" s="5"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F92" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>126</v>
       </c>
       <c r="H92" t="s">
         <v>111</v>
       </c>
-      <c r="I92" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="5"/>
+        <v>44840</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D93" s="7"/>
-      <c r="E93" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="I93" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B94" s="1"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="1"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F94" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="7" t="s">
@@ -6419,18 +6428,18 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="7" t="s">
@@ -6441,32 +6450,31 @@
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B97" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C97" s="5"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D97" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="1"/>
       <c r="F97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="5"/>
@@ -6486,29 +6494,30 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F99" t="s">
         <v>5</v>
       </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
       <c r="H99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>37</v>
@@ -6519,18 +6528,15 @@
         <v>5</v>
       </c>
       <c r="H100" t="s">
-        <v>110</v>
-      </c>
-      <c r="I100" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>37</v>
@@ -6544,46 +6550,48 @@
         <v>110</v>
       </c>
       <c r="I101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D102" s="7"/>
       <c r="E102" s="1"/>
       <c r="F102" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I102" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B103" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C103" s="5"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D103" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="1"/>
       <c r="F103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H103" t="s">
         <v>111</v>
@@ -6591,13 +6599,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44815</v>
+        <v>44821</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
       <c r="E104" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
         <v>5</v>
@@ -6611,13 +6619,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
       <c r="E105" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
         <v>5</v>
@@ -6626,21 +6634,19 @@
         <v>126</v>
       </c>
       <c r="H105" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F106" t="s">
         <v>5</v>
       </c>
@@ -6648,152 +6654,154 @@
         <v>126</v>
       </c>
       <c r="H106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D107" s="7"/>
       <c r="E107" s="1"/>
       <c r="F107" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="1"/>
       <c r="F108" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H108" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="7"/>
+        <v>44793</v>
+      </c>
       <c r="E109" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
       </c>
       <c r="H109" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44784</v>
+        <v>44790</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C110" s="5"/>
       <c r="D110" s="7"/>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>44784</v>
+      </c>
+      <c r="B111" s="1"/>
       <c r="C111" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="1"/>
       <c r="F111" t="s">
         <v>5</v>
       </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
       <c r="H111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44770</v>
+        <v>44782</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D112" s="7"/>
-      <c r="E112" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E112" s="1"/>
       <c r="F112" t="s">
-        <v>8</v>
-      </c>
-      <c r="G112" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B113" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
       <c r="E113" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G113" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H113" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
       <c r="E114" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
         <v>5</v>
@@ -6807,13 +6815,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44753</v>
+        <v>44758</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
       <c r="E115" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -6822,20 +6830,18 @@
         <v>126</v>
       </c>
       <c r="H115" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="B116" s="1"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
       <c r="E116" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -6844,14 +6850,16 @@
         <v>126</v>
       </c>
       <c r="H116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B117" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
       <c r="E117" s="1" t="s">
@@ -6864,12 +6872,12 @@
         <v>126</v>
       </c>
       <c r="H117" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="5"/>
@@ -6889,59 +6897,60 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B119" s="1"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
       <c r="E119" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>126</v>
       </c>
       <c r="H119" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44738</v>
+        <v>44740</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
       <c r="E120" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E121" s="1"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F121" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
       </c>
       <c r="H121" t="s">
         <v>111</v>
@@ -6949,56 +6958,53 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44731</v>
+        <v>44734</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D122" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E122" s="1"/>
       <c r="F122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44728</v>
+        <v>44731</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C123" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D123" s="7"/>
-      <c r="E123" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E123" s="1"/>
       <c r="F123" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H123" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
       <c r="E124" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
         <v>5</v>
@@ -7007,61 +7013,63 @@
         <v>126</v>
       </c>
       <c r="H124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44713</v>
+        <v>44727</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F125" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>126</v>
       </c>
       <c r="H125" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44709</v>
+        <v>44713</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="1"/>
       <c r="F126" t="s">
-        <v>5</v>
-      </c>
-      <c r="G126" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B127" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
       <c r="E127" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F127" t="s">
         <v>5</v>
@@ -7070,173 +7078,173 @@
         <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44703</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="7"/>
-      <c r="E128" s="1"/>
+      <c r="E128" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
+      <c r="G128" t="s">
+        <v>126</v>
+      </c>
       <c r="H128" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="5"/>
+        <v>44703</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D129" s="7"/>
-      <c r="E129" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E129" s="1"/>
       <c r="F129" t="s">
         <v>5</v>
       </c>
-      <c r="G129" t="s">
-        <v>126</v>
-      </c>
       <c r="H129" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44698</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="5"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F130" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>126</v>
       </c>
       <c r="H130" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D131" s="7"/>
-      <c r="E131" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E131" s="1"/>
       <c r="F131" t="s">
         <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>110</v>
-      </c>
-      <c r="I132" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44689</v>
+        <v>44693</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" s="7"/>
       <c r="E133" s="1"/>
       <c r="F133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H133" t="s">
         <v>110</v>
       </c>
+      <c r="I133" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C134" s="5"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D134" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" s="1"/>
       <c r="F134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
       <c r="E135" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F135" t="s">
         <v>5</v>
       </c>
-      <c r="G135" t="s">
-        <v>126</v>
-      </c>
       <c r="H135" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B136" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
@@ -7254,198 +7262,199 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44664</v>
+        <v>44680</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
+      <c r="G137" t="s">
+        <v>126</v>
+      </c>
       <c r="H137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B138" s="1"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
       <c r="E138" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C139" s="5"/>
       <c r="D139" s="7"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F139" t="s">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C140" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D140" s="7"/>
-      <c r="E140" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E140" s="1"/>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44630</v>
+        <v>44647</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E141" s="1"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44614</v>
+        <v>44630</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D142" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E142" s="1"/>
       <c r="F142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H142" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44604</v>
+        <v>44614</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C143" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D143" s="7"/>
-      <c r="E143" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E143" s="1"/>
       <c r="F143" t="s">
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44600</v>
+        <v>44604</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="7"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F144" t="s">
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44597</v>
+        <v>44600</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C145" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D145" s="7"/>
-      <c r="E145" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E145" s="1"/>
       <c r="F145" t="s">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
       <c r="E146" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F146" t="s">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -7456,81 +7465,78 @@
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
       <c r="E148" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F148" t="s">
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
       <c r="E149" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>110</v>
-      </c>
-      <c r="I149" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C150" s="5"/>
       <c r="D150" s="7"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F150" t="s">
         <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I150" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="1"/>
@@ -7538,70 +7544,73 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="I151" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="5"/>
+        <v>44582</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D152" s="7"/>
-      <c r="E152" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E152" s="1"/>
       <c r="F152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B153" s="1"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
       <c r="E153" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
       <c r="E154" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F154" t="s">
         <v>5</v>
       </c>
       <c r="H154" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -7609,10 +7618,7 @@
         <v>85</v>
       </c>
       <c r="F155" t="s">
-        <v>9</v>
-      </c>
-      <c r="G155" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H155" t="s">
         <v>110</v>
@@ -7620,18 +7626,21 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C156" s="5"/>
       <c r="D156" s="7"/>
-      <c r="E156" s="1"/>
+      <c r="E156" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F156" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G156" t="s">
+        <v>121</v>
       </c>
       <c r="H156" t="s">
         <v>110</v>
@@ -7639,13 +7648,13 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44558</v>
+        <v>44564</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="1"/>
@@ -7653,38 +7662,38 @@
         <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="5"/>
+        <v>44558</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D158" s="7"/>
-      <c r="E158" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E158" s="1"/>
       <c r="F158" t="s">
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44526</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="5"/>
       <c r="D159" s="7"/>
-      <c r="E159" s="1"/>
+      <c r="E159" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F159" t="s">
         <v>5</v>
       </c>
@@ -7694,109 +7703,109 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D160" s="7"/>
       <c r="E160" s="1"/>
       <c r="F160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H160" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B161" s="1"/>
+        <v>44519</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C161" s="5"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D161" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E161" s="1"/>
       <c r="F161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H161" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>44495</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="5"/>
       <c r="D162" s="7"/>
-      <c r="E162" s="1"/>
+      <c r="E162" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F162" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H162" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C163" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D163" s="7"/>
-      <c r="E163" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E163" s="1"/>
       <c r="F163" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G163" t="s">
+        <v>121</v>
       </c>
       <c r="H163" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C164" s="5"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="1"/>
+      <c r="E164" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F164" t="s">
         <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>44462</v>
+        <v>44471</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="1"/>
@@ -7804,65 +7813,62 @@
         <v>5</v>
       </c>
       <c r="H165" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>44446</v>
+        <v>44462</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C166" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D166" s="7"/>
-      <c r="E166" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E166" s="1"/>
       <c r="F166" t="s">
         <v>5</v>
       </c>
       <c r="H166" t="s">
         <v>111</v>
       </c>
-      <c r="I166" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C167" s="5"/>
       <c r="D167" s="7"/>
-      <c r="E167" s="1"/>
+      <c r="E167" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F167" t="s">
-        <v>9</v>
-      </c>
-      <c r="G167" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H167" t="s">
         <v>111</v>
       </c>
+      <c r="I167" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C168" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D168" s="7"/>
-      <c r="E168" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E168" s="1"/>
       <c r="F168" t="s">
         <v>9</v>
       </c>
@@ -7875,15 +7881,15 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>44418</v>
+        <v>44440</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
       <c r="E169" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F169" t="s">
         <v>9</v>
@@ -7897,10 +7903,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -7914,12 +7920,34 @@
         <v>121</v>
       </c>
       <c r="H170" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" t="s">
+        <v>121</v>
+      </c>
+      <c r="H171" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D134 D136:D1048576">
+  <conditionalFormatting sqref="D1:D135 D137:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240FB08-3C09-45F9-91F0-4A37D5982A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CA6304-FB91-4F50-BF10-1B08334BA952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="253">
   <si>
     <t>Fecha</t>
   </si>
@@ -793,6 +793,12 @@
   </si>
   <si>
     <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Ganímedes</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3900,140 +3906,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -4172,11 +4044,145 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I171" totalsRowShown="0">
-  <autoFilter ref="A1:I171" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I171">
-    <sortCondition descending="1" ref="A1:A171"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I172" totalsRowShown="0">
+  <autoFilter ref="A1:I172" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I172">
+    <sortCondition descending="1" ref="A1:A172"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4456,7 +4462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -4506,40 +4512,40 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45394</v>
+        <v>45419</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="D2" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>186</v>
-      </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45339</v>
+        <v>45394</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>186</v>
       </c>
       <c r="H3" t="s">
         <v>119</v>
@@ -4547,56 +4553,53 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45330</v>
+        <v>45339</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45318</v>
+        <v>45330</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>243</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -4605,15 +4608,15 @@
         <v>186</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7"/>
@@ -4632,15 +4635,15 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45312</v>
+        <v>45313</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4654,37 +4657,40 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45307</v>
+        <v>45312</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45295</v>
+        <v>45307</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
@@ -4694,235 +4700,235 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45286</v>
+        <v>45295</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
-        <v>186</v>
-      </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45265</v>
+        <v>45286</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
+      <c r="G12" t="s">
+        <v>186</v>
+      </c>
       <c r="H12" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45244</v>
+        <v>45264</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>230</v>
+        <v>114</v>
+      </c>
+      <c r="I14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45234</v>
+        <v>45244</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45225</v>
+        <v>45234</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45213</v>
+        <v>45225</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45193</v>
+        <v>45213</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
+      <c r="G18" t="s">
+        <v>186</v>
+      </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45188</v>
+        <v>45193</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45179</v>
+        <v>45188</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" t="s">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
         <v>111</v>
@@ -4930,51 +4936,51 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45150</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45148</v>
+        <v>45150</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45139</v>
+        <v>45148</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
@@ -4982,23 +4988,23 @@
         <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45120</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="1"/>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H26" t="s">
         <v>111</v>
@@ -5006,21 +5012,18 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" t="s">
         <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>186</v>
       </c>
       <c r="H27" t="s">
         <v>111</v>
@@ -5028,59 +5031,59 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
       </c>
+      <c r="G28" t="s">
+        <v>186</v>
+      </c>
       <c r="H28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>186</v>
       </c>
       <c r="H29" t="s">
         <v>110</v>
       </c>
+      <c r="I29" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -5094,15 +5097,15 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -5116,15 +5119,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -5133,20 +5136,20 @@
         <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -5155,15 +5158,15 @@
         <v>186</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -5182,10 +5185,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -5204,15 +5207,15 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45065</v>
+        <v>45067</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -5221,15 +5224,15 @@
         <v>186</v>
       </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -5248,56 +5251,56 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
       <c r="E38" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
+      <c r="G38" t="s">
+        <v>186</v>
+      </c>
       <c r="H38" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45059</v>
+        <v>45061</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
       <c r="E39" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" t="s">
-        <v>186</v>
-      </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
       <c r="E40" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -5306,20 +5309,20 @@
         <v>186</v>
       </c>
       <c r="H40" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
@@ -5328,56 +5331,59 @@
         <v>186</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45052</v>
+        <v>45056</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
+      <c r="G42" t="s">
+        <v>186</v>
+      </c>
       <c r="H42" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I43" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -5387,132 +5393,134 @@
       <c r="F44" t="s">
         <v>5</v>
       </c>
-      <c r="G44" t="s">
-        <v>186</v>
-      </c>
       <c r="H44" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
       <c r="E45" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F45" t="s">
         <v>5</v>
       </c>
+      <c r="G45" t="s">
+        <v>186</v>
+      </c>
       <c r="H45" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
       <c r="E46" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
       </c>
-      <c r="G46" t="s">
-        <v>186</v>
-      </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45036</v>
+        <v>45038</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F47" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>186</v>
       </c>
       <c r="H47" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
         <v>110</v>
       </c>
       <c r="I48" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" t="s">
         <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>126</v>
       </c>
       <c r="H49" t="s">
         <v>110</v>
       </c>
+      <c r="I49" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F50" t="s">
         <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>126</v>
       </c>
       <c r="H50" t="s">
         <v>110</v>
@@ -5520,10 +5528,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -5531,19 +5539,16 @@
       <c r="F51" t="s">
         <v>5</v>
       </c>
-      <c r="G51" t="s">
-        <v>126</v>
-      </c>
       <c r="H51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -5551,16 +5556,19 @@
       <c r="F52" t="s">
         <v>5</v>
       </c>
+      <c r="G52" t="s">
+        <v>126</v>
+      </c>
       <c r="H52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -5568,68 +5576,63 @@
       <c r="F53" t="s">
         <v>5</v>
       </c>
-      <c r="G53" t="s">
-        <v>126</v>
-      </c>
       <c r="H53" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C54" s="5"/>
       <c r="D54" s="7"/>
       <c r="E54" s="1"/>
       <c r="F54" t="s">
         <v>5</v>
       </c>
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
       <c r="H54" t="s">
         <v>110</v>
       </c>
-      <c r="I54" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" t="s">
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
       <c r="E56" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
         <v>5</v>
@@ -5637,21 +5640,24 @@
       <c r="H56" t="s">
         <v>111</v>
       </c>
+      <c r="I56" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="1"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57" t="s">
         <v>111</v>
@@ -5659,81 +5665,81 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="1"/>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
-      </c>
-      <c r="I59" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E60" s="1"/>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-      <c r="G60" t="s">
-        <v>126</v>
-      </c>
       <c r="H60" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I60" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44973</v>
+        <v>44982</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C61" s="5"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F61" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>126</v>
       </c>
       <c r="H61" t="s">
         <v>111</v>
@@ -5741,32 +5747,29 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44962</v>
+        <v>44973</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D62" s="7"/>
-      <c r="E62" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E62" s="1"/>
       <c r="F62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -5785,29 +5788,32 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="1"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F64" t="s">
         <v>5</v>
       </c>
+      <c r="G64" t="s">
+        <v>126</v>
+      </c>
       <c r="H64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44955</v>
+        <v>44959</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7" t="s">
@@ -5815,67 +5821,64 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44947</v>
+        <v>44955</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D66" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H66" t="s">
-        <v>111</v>
-      </c>
-      <c r="I66" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44945</v>
+        <v>44947</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="1"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" t="s">
         <v>4</v>
@@ -5884,12 +5887,12 @@
         <v>110</v>
       </c>
       <c r="I68" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>13</v>
@@ -5911,52 +5914,52 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44942</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="1"/>
       <c r="F70" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H70" t="s">
         <v>110</v>
       </c>
+      <c r="I70" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F71" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
       </c>
       <c r="H71" t="s">
-        <v>111</v>
-      </c>
-      <c r="I71" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="1"/>
@@ -5972,38 +5975,38 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B73" s="1"/>
+        <v>44932</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C73" s="5" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="1"/>
       <c r="F73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I73" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D74" s="7"/>
-      <c r="E74" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E74" s="1"/>
       <c r="F74" t="s">
         <v>5</v>
-      </c>
-      <c r="G74" t="s">
-        <v>126</v>
       </c>
       <c r="H74" t="s">
         <v>110</v>
@@ -6011,70 +6014,73 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C75" s="5"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>126</v>
       </c>
       <c r="H75" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E76" s="1"/>
       <c r="F76" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="1"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F77" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>126</v>
       </c>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="7" t="s">
@@ -6082,43 +6088,43 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H78" t="s">
-        <v>114</v>
-      </c>
-      <c r="I78" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44912</v>
+        <v>44918</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" t="s">
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44903</v>
+        <v>44912</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="1"/>
@@ -6126,59 +6132,56 @@
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
-      </c>
-      <c r="I80" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44896</v>
+        <v>44903</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="7"/>
       <c r="E81" s="1"/>
       <c r="F81" t="s">
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I81" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44879</v>
+        <v>44896</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D82" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" t="s">
         <v>5</v>
       </c>
-      <c r="G82" t="s">
-        <v>126</v>
-      </c>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -6197,10 +6200,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -6219,10 +6222,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44869</v>
+        <v>44877</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -6232,46 +6235,49 @@
       <c r="F85" t="s">
         <v>5</v>
       </c>
+      <c r="G85" t="s">
+        <v>126</v>
+      </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44864</v>
+        <v>44869</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
       <c r="E86" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" t="s">
         <v>5</v>
       </c>
-      <c r="G86" t="s">
-        <v>126</v>
-      </c>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44858</v>
+        <v>44864</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="1"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F87" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>126</v>
       </c>
       <c r="H87" t="s">
         <v>111</v>
@@ -6279,167 +6285,167 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D88" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>44856</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
       <c r="E89" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F89" t="s">
         <v>5</v>
       </c>
-      <c r="G89" t="s">
-        <v>126</v>
-      </c>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44850</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F90" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>126</v>
       </c>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44845</v>
+        <v>44850</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="1"/>
       <c r="F91" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44843</v>
+        <v>44845</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D92" s="7"/>
-      <c r="E92" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C93" s="5"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F93" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>126</v>
       </c>
       <c r="H93" t="s">
         <v>111</v>
       </c>
-      <c r="I93" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="5"/>
+        <v>44840</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E94" s="1"/>
       <c r="F94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="I94" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" s="1"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F95" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="7" t="s">
@@ -6447,18 +6453,18 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="7" t="s">
@@ -6469,32 +6475,31 @@
         <v>6</v>
       </c>
       <c r="H97" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B98" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D98" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="1"/>
       <c r="F98" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="5"/>
@@ -6514,29 +6519,30 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
+      <c r="G100" t="s">
+        <v>126</v>
+      </c>
       <c r="H100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>37</v>
@@ -6547,18 +6553,15 @@
         <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>110</v>
-      </c>
-      <c r="I101" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>37</v>
@@ -6572,46 +6575,48 @@
         <v>110</v>
       </c>
       <c r="I102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D103" s="7"/>
       <c r="E103" s="1"/>
       <c r="F103" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H103" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I103" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B104" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D104" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="1"/>
       <c r="F104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H104" t="s">
         <v>111</v>
@@ -6619,13 +6624,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44815</v>
+        <v>44821</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
       <c r="E105" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
         <v>5</v>
@@ -6639,13 +6644,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
       <c r="E106" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
         <v>5</v>
@@ -6654,21 +6659,19 @@
         <v>126</v>
       </c>
       <c r="H106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F107" t="s">
         <v>5</v>
       </c>
@@ -6676,152 +6679,154 @@
         <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D108" s="7"/>
       <c r="E108" s="1"/>
       <c r="F108" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="1"/>
       <c r="F109" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H109" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="7"/>
+        <v>44793</v>
+      </c>
       <c r="E110" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>126</v>
       </c>
       <c r="H110" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44784</v>
+        <v>44790</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C111" s="5"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F111" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>44784</v>
+      </c>
+      <c r="B112" s="1"/>
       <c r="C112" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="1"/>
       <c r="F112" t="s">
         <v>5</v>
       </c>
+      <c r="G112" t="s">
+        <v>126</v>
+      </c>
       <c r="H112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44770</v>
+        <v>44782</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D113" s="7"/>
-      <c r="E113" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E113" s="1"/>
       <c r="F113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H113" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B114" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
       <c r="E114" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G114" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H114" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
       <c r="E115" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -6835,13 +6840,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44753</v>
+        <v>44758</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
       <c r="E116" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -6850,20 +6855,18 @@
         <v>126</v>
       </c>
       <c r="H116" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="B117" s="1"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
       <c r="E117" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F117" t="s">
         <v>5</v>
@@ -6872,14 +6875,16 @@
         <v>126</v>
       </c>
       <c r="H117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B118" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
@@ -6892,12 +6897,12 @@
         <v>126</v>
       </c>
       <c r="H118" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="5"/>
@@ -6917,59 +6922,60 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B120" s="1"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
       <c r="E120" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F120" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>126</v>
       </c>
       <c r="H120" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44738</v>
+        <v>44740</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
       <c r="E121" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F121" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="1"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F122" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>126</v>
       </c>
       <c r="H122" t="s">
         <v>111</v>
@@ -6977,56 +6983,53 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44731</v>
+        <v>44734</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D123" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E123" s="1"/>
       <c r="F123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44728</v>
+        <v>44731</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C124" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D124" s="7"/>
-      <c r="E124" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E124" s="1"/>
       <c r="F124" t="s">
-        <v>5</v>
-      </c>
-      <c r="G124" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H124" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
       <c r="E125" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -7035,61 +7038,63 @@
         <v>126</v>
       </c>
       <c r="H125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44713</v>
+        <v>44727</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F126" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>126</v>
       </c>
       <c r="H126" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44709</v>
+        <v>44713</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="1"/>
       <c r="F127" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H127" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B128" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
       <c r="E128" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -7098,173 +7103,173 @@
         <v>126</v>
       </c>
       <c r="H128" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44703</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="5"/>
       <c r="D129" s="7"/>
-      <c r="E129" s="1"/>
+      <c r="E129" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F129" t="s">
         <v>5</v>
       </c>
+      <c r="G129" t="s">
+        <v>126</v>
+      </c>
       <c r="H129" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="5"/>
+        <v>44703</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D130" s="7"/>
-      <c r="E130" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E130" s="1"/>
       <c r="F130" t="s">
         <v>5</v>
       </c>
-      <c r="G130" t="s">
-        <v>126</v>
-      </c>
       <c r="H130" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44698</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F131" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>126</v>
       </c>
       <c r="H131" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C132" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D132" s="7"/>
-      <c r="E132" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E132" s="1"/>
       <c r="F132" t="s">
         <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C133" s="5"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>110</v>
-      </c>
-      <c r="I133" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44689</v>
+        <v>44693</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D134" s="7"/>
       <c r="E134" s="1"/>
       <c r="F134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H134" t="s">
         <v>110</v>
       </c>
+      <c r="I134" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C135" s="5"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D135" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" s="1"/>
       <c r="F135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H135" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
         <v>5</v>
       </c>
-      <c r="G136" t="s">
-        <v>126</v>
-      </c>
       <c r="H136" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B137" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
@@ -7282,198 +7287,199 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44664</v>
+        <v>44680</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
       <c r="E138" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
       </c>
+      <c r="G138" t="s">
+        <v>126</v>
+      </c>
       <c r="H138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B139" s="1"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
       <c r="E139" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F139" t="s">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C140" s="5"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C141" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D141" s="7"/>
-      <c r="E141" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E141" s="1"/>
       <c r="F141" t="s">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44630</v>
+        <v>44647</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C142" s="5"/>
-      <c r="D142" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E142" s="1"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44614</v>
+        <v>44630</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D143" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E143" s="1"/>
       <c r="F143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H143" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44604</v>
+        <v>44614</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C144" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D144" s="7"/>
-      <c r="E144" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E144" s="1"/>
       <c r="F144" t="s">
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44600</v>
+        <v>44604</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C145" s="5"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F145" t="s">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44597</v>
+        <v>44600</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C146" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D146" s="7"/>
-      <c r="E146" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E146" s="1"/>
       <c r="F146" t="s">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
       <c r="E147" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F147" t="s">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -7484,81 +7490,78 @@
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
       <c r="E149" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
       <c r="E150" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
         <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>110</v>
-      </c>
-      <c r="I150" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C151" s="5"/>
       <c r="D151" s="7"/>
-      <c r="E151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F151" t="s">
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I151" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="1"/>
@@ -7566,70 +7569,73 @@
         <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="I152" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="5"/>
+        <v>44582</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D153" s="7"/>
-      <c r="E153" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E153" s="1"/>
       <c r="F153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B154" s="1"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
       <c r="E154" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H154" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
       <c r="E155" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F155" t="s">
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -7637,10 +7643,7 @@
         <v>85</v>
       </c>
       <c r="F156" t="s">
-        <v>9</v>
-      </c>
-      <c r="G156" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H156" t="s">
         <v>110</v>
@@ -7648,18 +7651,21 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C157" s="5"/>
       <c r="D157" s="7"/>
-      <c r="E157" s="1"/>
+      <c r="E157" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F157" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G157" t="s">
+        <v>121</v>
       </c>
       <c r="H157" t="s">
         <v>110</v>
@@ -7667,13 +7673,13 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44558</v>
+        <v>44564</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="1"/>
@@ -7681,38 +7687,38 @@
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="5"/>
+        <v>44558</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D159" s="7"/>
-      <c r="E159" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E159" s="1"/>
       <c r="F159" t="s">
         <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>44526</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="5"/>
       <c r="D160" s="7"/>
-      <c r="E160" s="1"/>
+      <c r="E160" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F160" t="s">
         <v>5</v>
       </c>
@@ -7722,109 +7728,109 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" s="7"/>
       <c r="E161" s="1"/>
       <c r="F161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B162" s="1"/>
+        <v>44519</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C162" s="5"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D162" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E162" s="1"/>
       <c r="F162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H162" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>44495</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="5"/>
       <c r="D163" s="7"/>
-      <c r="E163" s="1"/>
+      <c r="E163" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F163" t="s">
-        <v>9</v>
-      </c>
-      <c r="G163" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H163" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D164" s="7"/>
-      <c r="E164" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E164" s="1"/>
       <c r="F164" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G164" t="s">
+        <v>121</v>
       </c>
       <c r="H164" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C165" s="5"/>
       <c r="D165" s="7"/>
-      <c r="E165" s="1"/>
+      <c r="E165" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F165" t="s">
         <v>5</v>
       </c>
       <c r="H165" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>44462</v>
+        <v>44471</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D166" s="7"/>
       <c r="E166" s="1"/>
@@ -7832,65 +7838,62 @@
         <v>5</v>
       </c>
       <c r="H166" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>44446</v>
+        <v>44462</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C167" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D167" s="7"/>
-      <c r="E167" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E167" s="1"/>
       <c r="F167" t="s">
         <v>5</v>
       </c>
       <c r="H167" t="s">
         <v>111</v>
       </c>
-      <c r="I167" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C168" s="5"/>
       <c r="D168" s="7"/>
-      <c r="E168" s="1"/>
+      <c r="E168" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F168" t="s">
-        <v>9</v>
-      </c>
-      <c r="G168" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H168" t="s">
         <v>111</v>
       </c>
+      <c r="I168" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C169" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D169" s="7"/>
-      <c r="E169" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E169" s="1"/>
       <c r="F169" t="s">
         <v>9</v>
       </c>
@@ -7903,15 +7906,15 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>44418</v>
+        <v>44440</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
       <c r="E170" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F170" t="s">
         <v>9</v>
@@ -7925,10 +7928,10 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -7942,12 +7945,34 @@
         <v>121</v>
       </c>
       <c r="H171" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" t="s">
+        <v>121</v>
+      </c>
+      <c r="H172" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D135 D137:D1048576">
+  <conditionalFormatting sqref="D1:D136 D138:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/assets/art/art.xlsx
+++ b/assets/art/art.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgustinVallejo\Documents\AgustinVallejo.github.io\assets\art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CA6304-FB91-4F50-BF10-1B08334BA952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF2E041-F412-4100-8CE2-2E12F26881E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="254">
   <si>
     <t>Fecha</t>
   </si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>C4TA</t>
   </si>
 </sst>
 </file>
@@ -3906,6 +3909,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16ABB999-28BC-4290-8192-E4E791ADED20}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -4044,145 +4181,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{619BF6E1-974F-49C1-A212-5849F36FBC3D}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="7">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Temática" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I172" totalsRowShown="0">
-  <autoFilter ref="A1:I172" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I172">
-    <sortCondition descending="1" ref="A1:A172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}" name="Tabla1" displayName="Tabla1" ref="A1:I173" totalsRowShown="0">
+  <autoFilter ref="A1:I173" xr:uid="{FB7C0B72-DEDB-4330-B45F-99A88E97EBC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I173">
+    <sortCondition descending="1" ref="A1:A173"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0B5B84D9-04FF-4EA5-A456-93D6EAF0117B}" name="Fecha" dataDxfId="5"/>
@@ -4462,10 +4465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4512,59 +4515,62 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45419</v>
+        <v>45423</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45394</v>
+        <v>45419</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="D3" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>186</v>
-      </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45339</v>
+        <v>45394</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>186</v>
       </c>
       <c r="H4" t="s">
         <v>119</v>
@@ -4572,56 +4578,53 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45330</v>
+        <v>45339</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45318</v>
+        <v>45330</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>243</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -4630,15 +4633,15 @@
         <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
@@ -4657,15 +4660,15 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45312</v>
+        <v>45313</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -4679,37 +4682,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45307</v>
+        <v>45312</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45295</v>
+        <v>45307</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
@@ -4719,235 +4725,235 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45286</v>
+        <v>45295</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
-        <v>186</v>
-      </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45265</v>
+        <v>45286</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
+      <c r="G13" t="s">
+        <v>186</v>
+      </c>
       <c r="H13" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45244</v>
+        <v>45264</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>229</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
         <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>230</v>
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45234</v>
+        <v>45244</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45225</v>
+        <v>45234</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F17" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45213</v>
+        <v>45225</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45193</v>
+        <v>45213</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45188</v>
+        <v>45193</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45179</v>
+        <v>45188</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" t="s">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45170</v>
+        <v>45178</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
         <v>111</v>
@@ -4955,51 +4961,51 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45150</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45148</v>
+        <v>45150</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45139</v>
+        <v>45148</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="1"/>
@@ -5007,23 +5013,23 @@
         <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45120</v>
+        <v>45139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H27" t="s">
         <v>111</v>
@@ -5031,21 +5037,18 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" t="s">
         <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>186</v>
       </c>
       <c r="H28" t="s">
         <v>111</v>
@@ -5053,59 +5056,59 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
+      <c r="G29" t="s">
+        <v>186</v>
+      </c>
       <c r="H29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>186</v>
       </c>
       <c r="H30" t="s">
         <v>110</v>
       </c>
+      <c r="I30" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -5119,15 +5122,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -5141,15 +5144,15 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -5158,20 +5161,20 @@
         <v>186</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -5180,15 +5183,15 @@
         <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -5207,10 +5210,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -5229,15 +5232,15 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45065</v>
+        <v>45067</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
@@ -5246,15 +5249,15 @@
         <v>186</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -5273,56 +5276,56 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
       <c r="E39" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
+      <c r="G39" t="s">
+        <v>186</v>
+      </c>
       <c r="H39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45059</v>
+        <v>45061</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
       <c r="E40" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
       </c>
-      <c r="G40" t="s">
-        <v>186</v>
-      </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
@@ -5331,20 +5334,20 @@
         <v>186</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
@@ -5353,56 +5356,59 @@
         <v>186</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45052</v>
+        <v>45056</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
       </c>
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
       <c r="H43" t="s">
-        <v>119</v>
-      </c>
-      <c r="I43" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
       <c r="E44" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="I44" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -5412,132 +5418,134 @@
       <c r="F45" t="s">
         <v>5</v>
       </c>
-      <c r="G45" t="s">
-        <v>186</v>
-      </c>
       <c r="H45" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
       <c r="E46" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
       </c>
+      <c r="G46" t="s">
+        <v>186</v>
+      </c>
       <c r="H46" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
       <c r="E47" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-      <c r="G47" t="s">
-        <v>186</v>
-      </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45036</v>
+        <v>45038</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F48" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>186</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I48" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="1"/>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" t="s">
         <v>110</v>
       </c>
       <c r="I49" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D50" s="7"/>
-      <c r="E50" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" t="s">
         <v>5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>126</v>
       </c>
       <c r="H50" t="s">
         <v>110</v>
       </c>
+      <c r="I50" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F51" t="s">
         <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>126</v>
       </c>
       <c r="H51" t="s">
         <v>110</v>
@@ -5545,10 +5553,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -5556,19 +5564,16 @@
       <c r="F52" t="s">
         <v>5</v>
       </c>
-      <c r="G52" t="s">
-        <v>126</v>
-      </c>
       <c r="H52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -5576,16 +5581,19 @@
       <c r="F53" t="s">
         <v>5</v>
       </c>
+      <c r="G53" t="s">
+        <v>126</v>
+      </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -5593,68 +5601,63 @@
       <c r="F54" t="s">
         <v>5</v>
       </c>
-      <c r="G54" t="s">
-        <v>126</v>
-      </c>
       <c r="H54" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C55" s="5"/>
       <c r="D55" s="7"/>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
         <v>5</v>
       </c>
+      <c r="G55" t="s">
+        <v>126</v>
+      </c>
       <c r="H55" t="s">
         <v>110</v>
       </c>
-      <c r="I55" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" t="s">
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I56" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
       <c r="E57" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F57" t="s">
         <v>5</v>
@@ -5662,21 +5665,24 @@
       <c r="H57" t="s">
         <v>111</v>
       </c>
+      <c r="I57" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="1"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H58" t="s">
         <v>111</v>
@@ -5684,81 +5690,81 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" t="s">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>113</v>
-      </c>
-      <c r="I60" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="E61" s="1"/>
       <c r="F61" t="s">
         <v>5</v>
       </c>
-      <c r="G61" t="s">
-        <v>126</v>
-      </c>
       <c r="H61" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I61" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>44973</v>
+        <v>44982</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="F62" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>126</v>
       </c>
       <c r="H62" t="s">
         <v>111</v>
@@ -5766,32 +5772,29 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>44962</v>
+        <v>44973</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D63" s="7"/>
-      <c r="E63" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -5810,29 +5813,32 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="1"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F65" t="s">
         <v>5</v>
       </c>
+      <c r="G65" t="s">
+        <v>126</v>
+      </c>
       <c r="H65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>44955</v>
+        <v>44959</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="7" t="s">
@@ -5840,67 +5846,64 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>44947</v>
+        <v>44955</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="D67" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H67" t="s">
-        <v>111</v>
-      </c>
-      <c r="I67" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>44945</v>
+        <v>44947</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="1"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" t="s">
         <v>4</v>
@@ -5909,12 +5912,12 @@
         <v>110</v>
       </c>
       <c r="I69" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>13</v>
@@ -5936,52 +5939,52 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>44939</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44942</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="1"/>
       <c r="F71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
         <v>110</v>
       </c>
+      <c r="I71" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="1"/>
+        <v>44939</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F72" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>126</v>
       </c>
       <c r="H72" t="s">
-        <v>111</v>
-      </c>
-      <c r="I72" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="1"/>
@@ -5997,38 +6000,38 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B74" s="1"/>
+        <v>44932</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C74" s="5" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="1"/>
       <c r="F74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I74" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>44930</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" t="s">
         <v>5</v>
-      </c>
-      <c r="G75" t="s">
-        <v>126</v>
       </c>
       <c r="H75" t="s">
         <v>110</v>
@@ -6036,70 +6039,73 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C76" s="5"/>
       <c r="D76" s="7"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F76" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>126</v>
       </c>
       <c r="H76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D77" s="7"/>
-      <c r="E77" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E77" s="1"/>
       <c r="F77" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>44920</v>
+        <v>44922</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="1"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F78" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>126</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="7" t="s">
@@ -6107,43 +6113,43 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
-      </c>
-      <c r="I79" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>44912</v>
+        <v>44918</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" t="s">
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>44903</v>
+        <v>44912</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="1"/>
@@ -6151,59 +6157,56 @@
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>114</v>
-      </c>
-      <c r="I81" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>44896</v>
+        <v>44903</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="7"/>
       <c r="E82" s="1"/>
       <c r="F82" t="s">
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="I82" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>44879</v>
+        <v>44896</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D83" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="1"/>
       <c r="F83" t="s">
         <v>5</v>
       </c>
-      <c r="G83" t="s">
-        <v>126</v>
-      </c>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -6222,10 +6225,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -6244,10 +6247,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>44869</v>
+        <v>44877</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -6257,46 +6260,49 @@
       <c r="F86" t="s">
         <v>5</v>
       </c>
+      <c r="G86" t="s">
+        <v>126</v>
+      </c>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>44864</v>
+        <v>44869</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
       <c r="E87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" t="s">
         <v>5</v>
       </c>
-      <c r="G87" t="s">
-        <v>126</v>
-      </c>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>44858</v>
+        <v>44864</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="1"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F88" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
       </c>
       <c r="H88" t="s">
         <v>111</v>
@@ -6304,167 +6310,167 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D89" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="1"/>
       <c r="F89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>44855</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>44856</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
       <c r="E90" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="F90" t="s">
         <v>5</v>
       </c>
-      <c r="G90" t="s">
-        <v>126</v>
-      </c>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>44850</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>44855</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F91" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>126</v>
       </c>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>44845</v>
+        <v>44850</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>44843</v>
+        <v>44845</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D93" s="7"/>
-      <c r="E93" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>44840</v>
+        <v>44843</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C94" s="5"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F94" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
       </c>
       <c r="H94" t="s">
         <v>111</v>
       </c>
-      <c r="I94" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>44836</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="5"/>
+        <v>44840</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D95" s="7"/>
-      <c r="E95" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E95" s="1"/>
       <c r="F95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="I95" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>44836</v>
+      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="1"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F96" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="7" t="s">
@@ -6472,18 +6478,18 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="H97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="7" t="s">
@@ -6494,32 +6500,31 @@
         <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44827</v>
-      </c>
-      <c r="B99" s="1"/>
+        <v>44831</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D99" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="1"/>
       <c r="F99" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="5"/>
@@ -6539,29 +6544,30 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>44825</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44826</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="7"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F101" t="s">
         <v>5</v>
       </c>
+      <c r="G101" t="s">
+        <v>126</v>
+      </c>
       <c r="H101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>37</v>
@@ -6572,18 +6578,15 @@
         <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>110</v>
-      </c>
-      <c r="I102" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>37</v>
@@ -6597,46 +6600,48 @@
         <v>110</v>
       </c>
       <c r="I103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D104" s="7"/>
       <c r="E104" s="1"/>
       <c r="F104" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H104" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="I104" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>44821</v>
-      </c>
-      <c r="B105" s="1"/>
+        <v>44822</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C105" s="5"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D105" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="1"/>
       <c r="F105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H105" t="s">
         <v>111</v>
@@ -6644,13 +6649,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44815</v>
+        <v>44821</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
       <c r="E106" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
         <v>5</v>
@@ -6664,13 +6669,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
       <c r="E107" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
         <v>5</v>
@@ -6679,21 +6684,19 @@
         <v>126</v>
       </c>
       <c r="H107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>44808</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44814</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="7"/>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F108" t="s">
         <v>5</v>
       </c>
@@ -6701,152 +6704,154 @@
         <v>126</v>
       </c>
       <c r="H108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="D109" s="7"/>
       <c r="E109" s="1"/>
       <c r="F109" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
       </c>
       <c r="H109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>44793</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>44801</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="1"/>
       <c r="F110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="H110" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>44790</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="7"/>
+        <v>44793</v>
+      </c>
       <c r="E111" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
       </c>
       <c r="H111" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>44784</v>
+        <v>44790</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C112" s="5"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F112" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>44782</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>44784</v>
+      </c>
+      <c r="B113" s="1"/>
       <c r="C113" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="1"/>
       <c r="F113" t="s">
         <v>5</v>
       </c>
+      <c r="G113" t="s">
+        <v>126</v>
+      </c>
       <c r="H113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>44770</v>
+        <v>44782</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C114" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D114" s="7"/>
-      <c r="E114" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E114" s="1"/>
       <c r="F114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>44760</v>
-      </c>
-      <c r="B115" s="1"/>
+        <v>44770</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
       <c r="E115" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G115" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H115" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
       <c r="E116" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -6860,13 +6865,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>44753</v>
+        <v>44758</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
       <c r="E117" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s">
         <v>5</v>
@@ -6875,20 +6880,18 @@
         <v>126</v>
       </c>
       <c r="H117" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>44747</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
@@ -6897,14 +6900,16 @@
         <v>126</v>
       </c>
       <c r="H118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>44746</v>
-      </c>
-      <c r="B119" s="1"/>
+        <v>44747</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
       <c r="E119" s="1" t="s">
@@ -6917,12 +6922,12 @@
         <v>126</v>
       </c>
       <c r="H119" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="5"/>
@@ -6942,59 +6947,60 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>44740</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>44745</v>
+      </c>
+      <c r="B121" s="1"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
       <c r="E121" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F121" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
       </c>
       <c r="H121" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>44738</v>
+        <v>44740</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
       <c r="E122" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F122" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>44734</v>
+        <v>44738</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="1"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F123" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>126</v>
       </c>
       <c r="H123" t="s">
         <v>111</v>
@@ -7002,56 +7008,53 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>44731</v>
+        <v>44734</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D124" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E124" s="1"/>
       <c r="F124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>44728</v>
+        <v>44731</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C125" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D125" s="7"/>
-      <c r="E125" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E125" s="1"/>
       <c r="F125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G125" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H125" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
       <c r="E126" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -7060,61 +7063,63 @@
         <v>126</v>
       </c>
       <c r="H126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>44713</v>
+        <v>44727</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F127" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>44709</v>
+        <v>44713</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="1"/>
       <c r="F128" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>44705</v>
-      </c>
-      <c r="B129" s="1"/>
+        <v>44709</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
       <c r="E129" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F129" t="s">
         <v>5</v>
@@ -7123,173 +7128,173 @@
         <v>126</v>
       </c>
       <c r="H129" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>44703</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="5"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F130" t="s">
         <v>5</v>
       </c>
+      <c r="G130" t="s">
+        <v>126</v>
+      </c>
       <c r="H130" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>44702</v>
-      </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="5"/>
+        <v>44703</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D131" s="7"/>
-      <c r="E131" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E131" s="1"/>
       <c r="F131" t="s">
         <v>5</v>
       </c>
-      <c r="G131" t="s">
-        <v>126</v>
-      </c>
       <c r="H131" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>44698</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44702</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="5"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F132" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>126</v>
       </c>
       <c r="H132" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C133" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D133" s="7"/>
-      <c r="E133" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E133" s="1"/>
       <c r="F133" t="s">
         <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>44693</v>
+        <v>44697</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C134" s="5"/>
       <c r="D134" s="7"/>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H134" t="s">
-        <v>110</v>
-      </c>
-      <c r="I134" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>44689</v>
+        <v>44693</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D135" s="7"/>
       <c r="E135" s="1"/>
       <c r="F135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H135" t="s">
         <v>110</v>
       </c>
+      <c r="I135" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>44686</v>
+        <v>44689</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C136" s="5"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D136" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E136" s="1"/>
       <c r="F136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>44681</v>
+        <v>44686</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
       </c>
-      <c r="G137" t="s">
-        <v>126</v>
-      </c>
       <c r="H137" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>44680</v>
-      </c>
-      <c r="B138" s="1"/>
+        <v>44681</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
       <c r="E138" s="1" t="s">
@@ -7307,198 +7312,199 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>44664</v>
+        <v>44680</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
       <c r="E139" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F139" t="s">
         <v>5</v>
       </c>
+      <c r="G139" t="s">
+        <v>126</v>
+      </c>
       <c r="H139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>44653</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>44664</v>
+      </c>
+      <c r="B140" s="1"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
       <c r="E140" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F140" t="s">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C141" s="5"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F141" t="s">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C142" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D142" s="7"/>
-      <c r="E142" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E142" s="1"/>
       <c r="F142" t="s">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>44630</v>
+        <v>44647</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C143" s="5"/>
-      <c r="D143" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E143" s="1"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>44614</v>
+        <v>44630</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D144" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E144" s="1"/>
       <c r="F144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H144" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>44604</v>
+        <v>44614</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C145" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D145" s="7"/>
-      <c r="E145" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E145" s="1"/>
       <c r="F145" t="s">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>44600</v>
+        <v>44604</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C146" s="5"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F146" t="s">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>44597</v>
+        <v>44600</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C147" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E147" s="1"/>
       <c r="F147" t="s">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
       <c r="E148" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F148" t="s">
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -7509,81 +7515,78 @@
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
       <c r="E150" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F150" t="s">
         <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
       <c r="E151" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>110</v>
-      </c>
-      <c r="I151" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C152" s="5"/>
       <c r="D152" s="7"/>
-      <c r="E152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F152" t="s">
         <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I152" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="1"/>
@@ -7591,70 +7594,73 @@
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="I153" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="5"/>
+        <v>44582</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D154" s="7"/>
-      <c r="E154" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E154" s="1"/>
       <c r="F154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H154" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>44578</v>
+      </c>
+      <c r="B155" s="1"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
       <c r="E155" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H155" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
       <c r="E156" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F156" t="s">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -7662,10 +7668,7 @@
         <v>85</v>
       </c>
       <c r="F157" t="s">
-        <v>9</v>
-      </c>
-      <c r="G157" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H157" t="s">
         <v>110</v>
@@ -7673,18 +7676,21 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C158" s="5"/>
       <c r="D158" s="7"/>
-      <c r="E158" s="1"/>
+      <c r="E158" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F158" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G158" t="s">
+        <v>121</v>
       </c>
       <c r="H158" t="s">
         <v>110</v>
@@ -7692,13 +7698,13 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>44558</v>
+        <v>44564</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="1"/>
@@ -7706,38 +7712,38 @@
         <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="5"/>
+        <v>44558</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D160" s="7"/>
-      <c r="E160" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E160" s="1"/>
       <c r="F160" t="s">
         <v>5</v>
       </c>
       <c r="H160" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>44526</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>44532</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="5"/>
       <c r="D161" s="7"/>
-      <c r="E161" s="1"/>
+      <c r="E161" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F161" t="s">
         <v>5</v>
       </c>
@@ -7747,109 +7753,109 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D162" s="7"/>
       <c r="E162" s="1"/>
       <c r="F162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H162" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>44507</v>
-      </c>
-      <c r="B163" s="1"/>
+        <v>44519</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C163" s="5"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D163" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E163" s="1"/>
       <c r="F163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>44495</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>44507</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="5"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="1"/>
+      <c r="E164" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F164" t="s">
-        <v>9</v>
-      </c>
-      <c r="G164" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D165" s="7"/>
-      <c r="E165" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E165" s="1"/>
       <c r="F165" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G165" t="s">
+        <v>121</v>
       </c>
       <c r="H165" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C166" s="5"/>
       <c r="D166" s="7"/>
-      <c r="E166" s="1"/>
+      <c r="E166" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F166" t="s">
         <v>5</v>
       </c>
       <c r="H166" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>44462</v>
+        <v>44471</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="1"/>
@@ -7857,65 +7863,62 @@
         <v>5</v>
       </c>
       <c r="H167" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>44446</v>
+        <v>44462</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C168" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D168" s="7"/>
-      <c r="E168" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E168" s="1"/>
       <c r="F168" t="s">
         <v>5</v>
       </c>
       <c r="H168" t="s">
         <v>111</v>
       </c>
-      <c r="I168" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C169" s="5"/>
       <c r="D169" s="7"/>
-      <c r="E169" s="1"/>
+      <c r="E169" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F169" t="s">
-        <v>9</v>
-      </c>
-      <c r="G169" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="H169" t="s">
         <v>111</v>
       </c>
+      <c r="I169" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C170" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D170" s="7"/>
-      <c r="E170" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E170" s="1"/>
       <c r="F170" t="s">
         <v>9</v>
       </c>
@@ -7928,15 +7931,15 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>44418</v>
+        <v>44440</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
       <c r="E171" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F171" t="s">
         <v>9</v>
@@ -7950,10 +7953,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -7967,12 +7970,34 @@
         <v>121</v>
       </c>
       <c r="H172" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" t="s">
+        <v>121</v>
+      </c>
+      <c r="H173" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D136 D138:D1048576">
+  <conditionalFormatting sqref="D1:D137 D139:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
